--- a/Layout Integração - Reforma Tributária/Layout NFCom Reforma Tributária.xlsx
+++ b/Layout Integração - Reforma Tributária/Layout NFCom Reforma Tributária.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="cMvSyC1TsgpwwIyG5vZ0nfT4EjL66K0rbxZSpmogUlY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="qaQ1iSXss0epw/tWdaKo3+j0WywRPdH9waoLpzNMvj8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3211" uniqueCount="1058">
   <si>
     <t>Layout XML NFCOM 1.00</t>
   </si>
@@ -2114,6 +2114,15 @@
     <t>Valor do IBS de competência do município</t>
   </si>
   <si>
+    <t>Jg06</t>
+  </si>
+  <si>
+    <t>vIBS</t>
+  </si>
+  <si>
+    <t>Valor Total do IBS (vIBSUF+vIBSMun)</t>
+  </si>
+  <si>
     <t>Jj – informações da CBS</t>
   </si>
   <si>
@@ -2754,9 +2763,6 @@
   </si>
   <si>
     <t>Tc04</t>
-  </si>
-  <si>
-    <t>vIBS</t>
   </si>
   <si>
     <t>Valor total do IBS</t>
@@ -12125,56 +12131,57 @@
     </row>
     <row r="255" ht="17.25" customHeight="1">
       <c r="A255" s="19"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="2"/>
-      <c r="J255" s="2"/>
-      <c r="K255" s="17"/>
+      <c r="B255" s="19"/>
+      <c r="C255" s="19"/>
+      <c r="D255" s="19"/>
+      <c r="E255" s="19"/>
+      <c r="F255" s="19"/>
+      <c r="G255" s="19"/>
+      <c r="H255" s="19"/>
+      <c r="I255" s="19"/>
+      <c r="J255" s="19"/>
+      <c r="K255" s="57"/>
       <c r="L255" s="4"/>
       <c r="M255" s="5"/>
     </row>
     <row r="256" ht="17.25" customHeight="1">
-      <c r="A256" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B256" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C256" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D256" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E256" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F256" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G256" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H256" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I256" s="12"/>
-      <c r="J256" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K256" s="17"/>
+      <c r="A256" s="21">
+        <f>A254+1</f>
+        <v>187</v>
+      </c>
+      <c r="B256" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="C256" s="51" t="s">
+        <v>680</v>
+      </c>
+      <c r="D256" s="52" t="s">
+        <v>681</v>
+      </c>
+      <c r="E256" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F256" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="G256" s="51" t="s">
+        <v>622</v>
+      </c>
+      <c r="H256" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="I256" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J256" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="K256" s="57"/>
       <c r="L256" s="4"/>
       <c r="M256" s="5"/>
     </row>
     <row r="257" ht="17.25" customHeight="1">
-      <c r="A257" s="49" t="s">
-        <v>679</v>
-      </c>
+      <c r="A257" s="19"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -12184,135 +12191,113 @@
       <c r="H257" s="2"/>
       <c r="I257" s="2"/>
       <c r="J257" s="2"/>
-      <c r="K257" s="8"/>
+      <c r="K257" s="17"/>
       <c r="L257" s="4"/>
       <c r="M257" s="5"/>
     </row>
-    <row r="258" ht="12.75" customHeight="1">
-      <c r="A258" s="21">
-        <f>A254+1</f>
-        <v>187</v>
-      </c>
-      <c r="B258" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="C258" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="D258" s="50" t="s">
-        <v>682</v>
-      </c>
-      <c r="E258" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F258" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="G258" s="21"/>
-      <c r="H258" s="55">
-        <v>45658.0</v>
-      </c>
-      <c r="I258" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J258" s="24"/>
-      <c r="K258" s="11" t="s">
-        <v>20</v>
-      </c>
+    <row r="258" ht="17.25" customHeight="1">
+      <c r="A258" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E258" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F258" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G258" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H258" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I258" s="12"/>
+      <c r="J258" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K258" s="17"/>
       <c r="L258" s="4"/>
       <c r="M258" s="5"/>
     </row>
-    <row r="259" ht="12.75" customHeight="1">
-      <c r="A259" s="21">
-        <f>A258+1</f>
-        <v>188</v>
-      </c>
-      <c r="B259" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="C259" s="51" t="s">
-        <v>684</v>
-      </c>
-      <c r="D259" s="52" t="s">
-        <v>685</v>
-      </c>
-      <c r="E259" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F259" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="G259" s="51" t="s">
-        <v>631</v>
-      </c>
-      <c r="H259" s="27">
-        <v>44927.0</v>
-      </c>
-      <c r="I259" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J259" s="54" t="s">
-        <v>632</v>
-      </c>
-      <c r="K259" s="17" t="s">
-        <v>436</v>
-      </c>
+    <row r="259" ht="17.25" customHeight="1">
+      <c r="A259" s="49" t="s">
+        <v>682</v>
+      </c>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+      <c r="H259" s="2"/>
+      <c r="I259" s="2"/>
+      <c r="J259" s="2"/>
+      <c r="K259" s="8"/>
       <c r="L259" s="4"/>
       <c r="M259" s="5"/>
     </row>
     <row r="260" ht="12.75" customHeight="1">
       <c r="A260" s="21">
-        <f>A259+1</f>
-        <v>189</v>
+        <f>A256+1</f>
+        <v>188</v>
       </c>
       <c r="B260" s="22" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C260" s="22" t="s">
-        <v>634</v>
+        <v>684</v>
       </c>
       <c r="D260" s="50" t="s">
-        <v>635</v>
+        <v>685</v>
       </c>
       <c r="E260" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F260" s="22" t="s">
-        <v>680</v>
+        <v>617</v>
       </c>
       <c r="G260" s="21"/>
-      <c r="H260" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I260" s="21" t="s">
-        <v>110</v>
+      <c r="H260" s="55">
+        <v>45658.0</v>
+      </c>
+      <c r="I260" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="J260" s="24"/>
-      <c r="K260" s="17" t="s">
-        <v>436</v>
+      <c r="K260" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="L260" s="4"/>
       <c r="M260" s="5"/>
     </row>
     <row r="261" ht="12.75" customHeight="1">
       <c r="A261" s="21">
-        <f t="shared" ref="A261:A262" si="24">A260+1</f>
-        <v>190</v>
+        <f>A260+1</f>
+        <v>189</v>
       </c>
       <c r="B261" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="C261" s="51" t="s">
         <v>687</v>
       </c>
-      <c r="C261" s="51" t="s">
-        <v>637</v>
-      </c>
       <c r="D261" s="52" t="s">
-        <v>638</v>
+        <v>688</v>
       </c>
       <c r="E261" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F261" s="22" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G261" s="51" t="s">
         <v>631</v>
@@ -12334,85 +12319,89 @@
     </row>
     <row r="262" ht="12.75" customHeight="1">
       <c r="A262" s="21">
-        <f t="shared" si="24"/>
-        <v>191</v>
+        <f>A261+1</f>
+        <v>190</v>
       </c>
       <c r="B262" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="C262" s="51" t="s">
-        <v>640</v>
-      </c>
-      <c r="D262" s="52" t="s">
-        <v>641</v>
-      </c>
-      <c r="E262" s="25" t="s">
-        <v>24</v>
+        <v>689</v>
+      </c>
+      <c r="C262" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="D262" s="50" t="s">
+        <v>635</v>
+      </c>
+      <c r="E262" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="F262" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="G262" s="51" t="s">
-        <v>622</v>
-      </c>
-      <c r="H262" s="27">
-        <v>44927.0</v>
-      </c>
-      <c r="I262" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J262" s="54" t="s">
-        <v>623</v>
-      </c>
-      <c r="K262" s="56"/>
+        <v>683</v>
+      </c>
+      <c r="G262" s="21"/>
+      <c r="H262" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I262" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J262" s="24"/>
+      <c r="K262" s="17" t="s">
+        <v>436</v>
+      </c>
       <c r="L262" s="4"/>
       <c r="M262" s="5"/>
     </row>
     <row r="263" ht="12.75" customHeight="1">
       <c r="A263" s="21">
-        <f>A262+1</f>
-        <v>192</v>
+        <f t="shared" ref="A263:A264" si="24">A262+1</f>
+        <v>191</v>
       </c>
       <c r="B263" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="C263" s="51" t="s">
+        <v>637</v>
+      </c>
+      <c r="D263" s="52" t="s">
+        <v>638</v>
+      </c>
+      <c r="E263" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F263" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="C263" s="22" t="s">
-        <v>643</v>
-      </c>
-      <c r="D263" s="50" t="s">
-        <v>644</v>
-      </c>
-      <c r="E263" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F263" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="G263" s="21"/>
-      <c r="H263" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I263" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="J263" s="24"/>
-      <c r="K263" s="56"/>
+      <c r="G263" s="51" t="s">
+        <v>631</v>
+      </c>
+      <c r="H263" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="I263" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J263" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="K263" s="17" t="s">
+        <v>436</v>
+      </c>
       <c r="L263" s="4"/>
       <c r="M263" s="5"/>
     </row>
     <row r="264" ht="12.75" customHeight="1">
       <c r="A264" s="21">
-        <f>A263+1</f>
-        <v>193</v>
+        <f t="shared" si="24"/>
+        <v>192</v>
       </c>
       <c r="B264" s="22" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C264" s="51" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D264" s="52" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E264" s="25" t="s">
         <v>24</v>
@@ -12439,22 +12428,22 @@
     <row r="265" ht="12.75" customHeight="1">
       <c r="A265" s="21">
         <f>A264+1</f>
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B265" s="22" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C265" s="22" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D265" s="50" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E265" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F265" s="22" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="G265" s="21"/>
       <c r="H265" s="21" t="s">
@@ -12470,26 +12459,26 @@
     </row>
     <row r="266" ht="12.75" customHeight="1">
       <c r="A266" s="21">
-        <f t="shared" ref="A266:A267" si="25">A265+1</f>
-        <v>195</v>
+        <f>A265+1</f>
+        <v>194</v>
       </c>
       <c r="B266" s="22" t="s">
+        <v>693</v>
+      </c>
+      <c r="C266" s="51" t="s">
+        <v>646</v>
+      </c>
+      <c r="D266" s="52" t="s">
+        <v>647</v>
+      </c>
+      <c r="E266" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F266" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="C266" s="51" t="s">
-        <v>652</v>
-      </c>
-      <c r="D266" s="52" t="s">
-        <v>653</v>
-      </c>
-      <c r="E266" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F266" s="22" t="s">
-        <v>691</v>
-      </c>
       <c r="G266" s="51" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="H266" s="27">
         <v>44927.0</v>
@@ -12498,7 +12487,7 @@
         <v>19</v>
       </c>
       <c r="J266" s="54" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="K266" s="56"/>
       <c r="L266" s="4"/>
@@ -12506,62 +12495,58 @@
     </row>
     <row r="267" ht="12.75" customHeight="1">
       <c r="A267" s="21">
-        <f t="shared" si="25"/>
-        <v>196</v>
+        <f>A266+1</f>
+        <v>195</v>
       </c>
       <c r="B267" s="22" t="s">
-        <v>693</v>
-      </c>
-      <c r="C267" s="51" t="s">
-        <v>655</v>
-      </c>
-      <c r="D267" s="52" t="s">
         <v>694</v>
       </c>
-      <c r="E267" s="25" t="s">
-        <v>24</v>
+      <c r="C267" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="D267" s="50" t="s">
+        <v>650</v>
+      </c>
+      <c r="E267" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="F267" s="22" t="s">
-        <v>691</v>
-      </c>
-      <c r="G267" s="51" t="s">
-        <v>622</v>
-      </c>
-      <c r="H267" s="27">
-        <v>44927.0</v>
-      </c>
-      <c r="I267" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J267" s="54" t="s">
-        <v>623</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="G267" s="21"/>
+      <c r="H267" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I267" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J267" s="24"/>
       <c r="K267" s="56"/>
       <c r="L267" s="4"/>
       <c r="M267" s="5"/>
     </row>
     <row r="268" ht="12.75" customHeight="1">
       <c r="A268" s="21">
-        <f>A267+1</f>
-        <v>197</v>
+        <f t="shared" ref="A268:A269" si="25">A267+1</f>
+        <v>196</v>
       </c>
       <c r="B268" s="22" t="s">
         <v>695</v>
       </c>
       <c r="C268" s="51" t="s">
-        <v>696</v>
+        <v>652</v>
       </c>
       <c r="D268" s="52" t="s">
-        <v>697</v>
+        <v>653</v>
       </c>
       <c r="E268" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F268" s="22" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="G268" s="51" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="H268" s="27">
         <v>44927.0</v>
@@ -12570,64 +12555,86 @@
         <v>19</v>
       </c>
       <c r="J268" s="54" t="s">
-        <v>623</v>
-      </c>
-      <c r="K268" s="57"/>
+        <v>632</v>
+      </c>
+      <c r="K268" s="56"/>
       <c r="L268" s="4"/>
       <c r="M268" s="5"/>
     </row>
     <row r="269" ht="12.75" customHeight="1">
-      <c r="A269" s="19"/>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
-      <c r="J269" s="2"/>
-      <c r="K269" s="17"/>
+      <c r="A269" s="21">
+        <f t="shared" si="25"/>
+        <v>197</v>
+      </c>
+      <c r="B269" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="C269" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="D269" s="52" t="s">
+        <v>697</v>
+      </c>
+      <c r="E269" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F269" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="G269" s="51" t="s">
+        <v>622</v>
+      </c>
+      <c r="H269" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="I269" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J269" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="K269" s="56"/>
       <c r="L269" s="4"/>
       <c r="M269" s="5"/>
     </row>
     <row r="270" ht="12.75" customHeight="1">
-      <c r="A270" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B270" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C270" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D270" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E270" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F270" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G270" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H270" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I270" s="12"/>
-      <c r="J270" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K270" s="17"/>
+      <c r="A270" s="21">
+        <f>A269+1</f>
+        <v>198</v>
+      </c>
+      <c r="B270" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="C270" s="51" t="s">
+        <v>699</v>
+      </c>
+      <c r="D270" s="52" t="s">
+        <v>700</v>
+      </c>
+      <c r="E270" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F270" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="G270" s="51" t="s">
+        <v>622</v>
+      </c>
+      <c r="H270" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="I270" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J270" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="K270" s="57"/>
       <c r="L270" s="4"/>
       <c r="M270" s="5"/>
     </row>
     <row r="271" ht="12.75" customHeight="1">
-      <c r="A271" s="49" t="s">
-        <v>698</v>
-      </c>
+      <c r="A271" s="19"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -12637,186 +12644,152 @@
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
       <c r="J271" s="2"/>
-      <c r="K271" s="8"/>
+      <c r="K271" s="17"/>
       <c r="L271" s="4"/>
       <c r="M271" s="5"/>
     </row>
     <row r="272" ht="12.75" customHeight="1">
-      <c r="A272" s="21">
-        <f>A268+1</f>
-        <v>198</v>
-      </c>
-      <c r="B272" s="22" t="s">
-        <v>699</v>
-      </c>
-      <c r="C272" s="58" t="s">
-        <v>700</v>
-      </c>
-      <c r="D272" s="59" t="s">
-        <v>701</v>
-      </c>
-      <c r="E272" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F272" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="G272" s="26"/>
-      <c r="H272" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I272" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J272" s="24"/>
-      <c r="K272" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="A272" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D272" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E272" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F272" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G272" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H272" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I272" s="12"/>
+      <c r="J272" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K272" s="17"/>
       <c r="L272" s="4"/>
       <c r="M272" s="5"/>
     </row>
     <row r="273" ht="12.75" customHeight="1">
-      <c r="A273" s="21">
-        <f t="shared" ref="A273:A274" si="26">A272+1</f>
-        <v>199</v>
-      </c>
-      <c r="B273" s="22" t="s">
-        <v>702</v>
-      </c>
-      <c r="C273" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="D273" s="59" t="s">
-        <v>704</v>
-      </c>
-      <c r="E273" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F273" s="22" t="s">
-        <v>699</v>
-      </c>
-      <c r="G273" s="60" t="s">
-        <v>705</v>
-      </c>
-      <c r="H273" s="27">
-        <v>44927.0</v>
-      </c>
-      <c r="I273" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J273" s="24"/>
-      <c r="K273" s="17" t="s">
-        <v>436</v>
-      </c>
+      <c r="A273" s="49" t="s">
+        <v>701</v>
+      </c>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2"/>
+      <c r="K273" s="8"/>
       <c r="L273" s="4"/>
       <c r="M273" s="5"/>
     </row>
     <row r="274" ht="12.75" customHeight="1">
       <c r="A274" s="21">
-        <f t="shared" si="26"/>
-        <v>200</v>
+        <f>A270+1</f>
+        <v>199</v>
       </c>
       <c r="B274" s="22" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C274" s="58" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D274" s="59" t="s">
-        <v>708</v>
-      </c>
-      <c r="E274" s="25" t="s">
-        <v>24</v>
+        <v>704</v>
+      </c>
+      <c r="E274" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="F274" s="22" t="s">
-        <v>699</v>
-      </c>
-      <c r="G274" s="60" t="s">
-        <v>709</v>
-      </c>
-      <c r="H274" s="27">
-        <v>44927.0</v>
-      </c>
-      <c r="I274" s="27" t="s">
+        <v>617</v>
+      </c>
+      <c r="G274" s="26"/>
+      <c r="H274" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I274" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J274" s="24"/>
-      <c r="K274" s="17" t="s">
-        <v>436</v>
+      <c r="K274" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="L274" s="4"/>
       <c r="M274" s="5"/>
     </row>
     <row r="275" ht="12.75" customHeight="1">
       <c r="A275" s="21">
-        <f>A274+1</f>
-        <v>201</v>
+        <f t="shared" ref="A275:A276" si="26">A274+1</f>
+        <v>200</v>
       </c>
       <c r="B275" s="22" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C275" s="58" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D275" s="59" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E275" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F275" s="22" t="s">
-        <v>699</v>
-      </c>
-      <c r="G275" s="26" t="s">
-        <v>136</v>
+        <v>702</v>
+      </c>
+      <c r="G275" s="60" t="s">
+        <v>708</v>
       </c>
       <c r="H275" s="27">
         <v>44927.0</v>
       </c>
-      <c r="I275" s="21" t="s">
-        <v>110</v>
+      <c r="I275" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="J275" s="24"/>
       <c r="K275" s="17" t="s">
         <v>436</v>
       </c>
       <c r="L275" s="4"/>
-      <c r="M275" s="61"/>
-      <c r="N275" s="61"/>
-      <c r="O275" s="61"/>
-      <c r="P275" s="61"/>
-      <c r="Q275" s="61"/>
-      <c r="R275" s="61"/>
-      <c r="S275" s="61"/>
-      <c r="T275" s="61"/>
-      <c r="U275" s="61"/>
-      <c r="V275" s="61"/>
-      <c r="W275" s="61"/>
-      <c r="X275" s="61"/>
-      <c r="Y275" s="61"/>
+      <c r="M275" s="5"/>
     </row>
     <row r="276" ht="12.75" customHeight="1">
       <c r="A276" s="21">
-        <f t="shared" ref="A276:A277" si="27">A275+1</f>
-        <v>202</v>
+        <f t="shared" si="26"/>
+        <v>201</v>
       </c>
       <c r="B276" s="22" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C276" s="58" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D276" s="59" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E276" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F276" s="22" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="G276" s="60" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H276" s="27">
         <v>44927.0</v>
@@ -12829,51 +12802,41 @@
         <v>436</v>
       </c>
       <c r="L276" s="4"/>
-      <c r="M276" s="61"/>
-      <c r="N276" s="61"/>
-      <c r="O276" s="61"/>
-      <c r="P276" s="61"/>
-      <c r="Q276" s="61"/>
-      <c r="R276" s="61"/>
-      <c r="S276" s="61"/>
-      <c r="T276" s="61"/>
-      <c r="U276" s="61"/>
-      <c r="V276" s="61"/>
-      <c r="W276" s="61"/>
-      <c r="X276" s="61"/>
-      <c r="Y276" s="61"/>
+      <c r="M276" s="5"/>
     </row>
     <row r="277" ht="12.75" customHeight="1">
       <c r="A277" s="21">
-        <f t="shared" si="27"/>
-        <v>203</v>
+        <f>A276+1</f>
+        <v>202</v>
       </c>
       <c r="B277" s="22" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C277" s="58" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D277" s="59" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E277" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F277" s="22" t="s">
-        <v>699</v>
-      </c>
-      <c r="G277" s="60" t="s">
+        <v>702</v>
+      </c>
+      <c r="G277" s="26" t="s">
         <v>136</v>
       </c>
       <c r="H277" s="27">
         <v>44927.0</v>
       </c>
-      <c r="I277" s="27" t="s">
-        <v>19</v>
+      <c r="I277" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="J277" s="24"/>
-      <c r="K277" s="56"/>
+      <c r="K277" s="17" t="s">
+        <v>436</v>
+      </c>
       <c r="L277" s="4"/>
       <c r="M277" s="61"/>
       <c r="N277" s="61"/>
@@ -12891,35 +12854,37 @@
     </row>
     <row r="278" ht="12.75" customHeight="1">
       <c r="A278" s="21">
-        <f>A277+1</f>
-        <v>204</v>
+        <f t="shared" ref="A278:A279" si="27">A277+1</f>
+        <v>203</v>
       </c>
       <c r="B278" s="22" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C278" s="58" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D278" s="59" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E278" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F278" s="22" t="s">
-        <v>699</v>
-      </c>
-      <c r="G278" s="26" t="s">
-        <v>716</v>
+        <v>702</v>
+      </c>
+      <c r="G278" s="60" t="s">
+        <v>719</v>
       </c>
       <c r="H278" s="27">
         <v>44927.0</v>
       </c>
-      <c r="I278" s="21" t="s">
-        <v>110</v>
+      <c r="I278" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="J278" s="24"/>
-      <c r="K278" s="56"/>
+      <c r="K278" s="17" t="s">
+        <v>436</v>
+      </c>
       <c r="L278" s="4"/>
       <c r="M278" s="61"/>
       <c r="N278" s="61"/>
@@ -12937,23 +12902,23 @@
     </row>
     <row r="279" ht="12.75" customHeight="1">
       <c r="A279" s="21">
-        <f>A278+1</f>
-        <v>205</v>
+        <f t="shared" si="27"/>
+        <v>204</v>
       </c>
       <c r="B279" s="22" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C279" s="58" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D279" s="59" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E279" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F279" s="22" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="G279" s="60" t="s">
         <v>136</v>
@@ -12967,30 +12932,42 @@
       <c r="J279" s="24"/>
       <c r="K279" s="56"/>
       <c r="L279" s="4"/>
-      <c r="M279" s="5"/>
+      <c r="M279" s="61"/>
+      <c r="N279" s="61"/>
+      <c r="O279" s="61"/>
+      <c r="P279" s="61"/>
+      <c r="Q279" s="61"/>
+      <c r="R279" s="61"/>
+      <c r="S279" s="61"/>
+      <c r="T279" s="61"/>
+      <c r="U279" s="61"/>
+      <c r="V279" s="61"/>
+      <c r="W279" s="61"/>
+      <c r="X279" s="61"/>
+      <c r="Y279" s="61"/>
     </row>
     <row r="280" ht="12.75" customHeight="1">
       <c r="A280" s="21">
         <f>A279+1</f>
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B280" s="22" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C280" s="58" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D280" s="59" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E280" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F280" s="22" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="G280" s="26" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="H280" s="27">
         <v>44927.0</v>
@@ -13001,60 +12978,90 @@
       <c r="J280" s="24"/>
       <c r="K280" s="56"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="5"/>
+      <c r="M280" s="61"/>
+      <c r="N280" s="61"/>
+      <c r="O280" s="61"/>
+      <c r="P280" s="61"/>
+      <c r="Q280" s="61"/>
+      <c r="R280" s="61"/>
+      <c r="S280" s="61"/>
+      <c r="T280" s="61"/>
+      <c r="U280" s="61"/>
+      <c r="V280" s="61"/>
+      <c r="W280" s="61"/>
+      <c r="X280" s="61"/>
+      <c r="Y280" s="61"/>
     </row>
     <row r="281" ht="12.75" customHeight="1">
-      <c r="A281" s="19"/>
-      <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
-      <c r="F281" s="2"/>
-      <c r="G281" s="2"/>
-      <c r="H281" s="2"/>
-      <c r="I281" s="2"/>
-      <c r="J281" s="2"/>
-      <c r="K281" s="17"/>
+      <c r="A281" s="21">
+        <f>A280+1</f>
+        <v>206</v>
+      </c>
+      <c r="B281" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="C281" s="58" t="s">
+        <v>727</v>
+      </c>
+      <c r="D281" s="59" t="s">
+        <v>728</v>
+      </c>
+      <c r="E281" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F281" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="G281" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="H281" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="I281" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J281" s="24"/>
+      <c r="K281" s="56"/>
       <c r="L281" s="4"/>
       <c r="M281" s="5"/>
     </row>
     <row r="282" ht="12.75" customHeight="1">
-      <c r="A282" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B282" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C282" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D282" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E282" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F282" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G282" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H282" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I282" s="12"/>
-      <c r="J282" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K282" s="17"/>
+      <c r="A282" s="21">
+        <f>A281+1</f>
+        <v>207</v>
+      </c>
+      <c r="B282" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="C282" s="58" t="s">
+        <v>730</v>
+      </c>
+      <c r="D282" s="59" t="s">
+        <v>731</v>
+      </c>
+      <c r="E282" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F282" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="G282" s="26" t="s">
+        <v>719</v>
+      </c>
+      <c r="H282" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="I282" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J282" s="24"/>
+      <c r="K282" s="56"/>
       <c r="L282" s="4"/>
       <c r="M282" s="5"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="49" t="s">
-        <v>729</v>
-      </c>
+    <row r="283" ht="12.75" customHeight="1">
+      <c r="A283" s="19"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -13064,138 +13071,116 @@
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
       <c r="J283" s="2"/>
-      <c r="K283" s="8"/>
+      <c r="K283" s="17"/>
       <c r="L283" s="4"/>
       <c r="M283" s="5"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="21">
-        <f>A280+1</f>
-        <v>207</v>
-      </c>
-      <c r="B284" s="22" t="s">
-        <v>730</v>
-      </c>
-      <c r="C284" s="62" t="s">
-        <v>731</v>
-      </c>
-      <c r="D284" s="63" t="s">
-        <v>732</v>
-      </c>
-      <c r="E284" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F284" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="G284" s="26"/>
-      <c r="H284" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I284" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J284" s="24"/>
-      <c r="K284" s="11" t="s">
-        <v>20</v>
-      </c>
+    <row r="284" ht="12.75" customHeight="1">
+      <c r="A284" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C284" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D284" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E284" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F284" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G284" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H284" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I284" s="12"/>
+      <c r="J284" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K284" s="17"/>
       <c r="L284" s="4"/>
       <c r="M284" s="5"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="21">
-        <f t="shared" ref="A285:A286" si="28">A284+1</f>
-        <v>208</v>
-      </c>
-      <c r="B285" s="22" t="s">
-        <v>733</v>
-      </c>
-      <c r="C285" s="62" t="s">
-        <v>734</v>
-      </c>
-      <c r="D285" s="63" t="s">
-        <v>735</v>
-      </c>
-      <c r="E285" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F285" s="22" t="s">
-        <v>730</v>
-      </c>
-      <c r="G285" s="58" t="s">
-        <v>736</v>
-      </c>
-      <c r="H285" s="27">
-        <v>44927.0</v>
-      </c>
-      <c r="I285" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J285" s="24"/>
-      <c r="K285" s="17" t="s">
-        <v>436</v>
-      </c>
+      <c r="A285" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
+      <c r="H285" s="2"/>
+      <c r="I285" s="2"/>
+      <c r="J285" s="2"/>
+      <c r="K285" s="8"/>
       <c r="L285" s="4"/>
       <c r="M285" s="5"/>
     </row>
-    <row r="286" ht="12.75" customHeight="1">
+    <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="21">
-        <f t="shared" si="28"/>
-        <v>209</v>
+        <f>A282+1</f>
+        <v>208</v>
       </c>
       <c r="B286" s="22" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C286" s="62" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D286" s="63" t="s">
-        <v>739</v>
-      </c>
-      <c r="E286" s="25" t="s">
-        <v>24</v>
+        <v>735</v>
+      </c>
+      <c r="E286" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="F286" s="22" t="s">
-        <v>730</v>
-      </c>
-      <c r="G286" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="H286" s="27">
-        <v>44927.0</v>
-      </c>
-      <c r="I286" s="27" t="s">
+        <v>617</v>
+      </c>
+      <c r="G286" s="26"/>
+      <c r="H286" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I286" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J286" s="24"/>
-      <c r="K286" s="17" t="s">
-        <v>436</v>
+      <c r="K286" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="L286" s="4"/>
       <c r="M286" s="5"/>
     </row>
-    <row r="287" ht="12.75" customHeight="1">
+    <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="21">
-        <f>A286+1</f>
-        <v>210</v>
+        <f t="shared" ref="A287:A288" si="28">A286+1</f>
+        <v>209</v>
       </c>
       <c r="B287" s="22" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C287" s="62" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D287" s="63" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E287" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F287" s="22" t="s">
-        <v>730</v>
-      </c>
-      <c r="G287" s="64" t="s">
-        <v>716</v>
+        <v>733</v>
+      </c>
+      <c r="G287" s="58" t="s">
+        <v>739</v>
       </c>
       <c r="H287" s="27">
         <v>44927.0</v>
@@ -13212,26 +13197,26 @@
     </row>
     <row r="288" ht="12.75" customHeight="1">
       <c r="A288" s="21">
-        <f>A287+1</f>
-        <v>211</v>
+        <f t="shared" si="28"/>
+        <v>210</v>
       </c>
       <c r="B288" s="22" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C288" s="62" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D288" s="63" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E288" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F288" s="22" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="G288" s="58" t="s">
-        <v>716</v>
+        <v>136</v>
       </c>
       <c r="H288" s="27">
         <v>44927.0</v>
@@ -13247,57 +13232,79 @@
       <c r="M288" s="5"/>
     </row>
     <row r="289" ht="12.75" customHeight="1">
-      <c r="A289" s="19"/>
-      <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
-      <c r="F289" s="2"/>
-      <c r="G289" s="2"/>
-      <c r="H289" s="2"/>
-      <c r="I289" s="2"/>
-      <c r="J289" s="2"/>
-      <c r="K289" s="17"/>
+      <c r="A289" s="21">
+        <f>A288+1</f>
+        <v>211</v>
+      </c>
+      <c r="B289" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="C289" s="62" t="s">
+        <v>744</v>
+      </c>
+      <c r="D289" s="63" t="s">
+        <v>745</v>
+      </c>
+      <c r="E289" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F289" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="G289" s="64" t="s">
+        <v>719</v>
+      </c>
+      <c r="H289" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="I289" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J289" s="24"/>
+      <c r="K289" s="17" t="s">
+        <v>436</v>
+      </c>
       <c r="L289" s="4"/>
       <c r="M289" s="5"/>
     </row>
     <row r="290" ht="12.75" customHeight="1">
-      <c r="A290" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B290" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C290" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D290" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E290" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F290" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G290" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H290" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I290" s="12"/>
-      <c r="J290" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K290" s="17"/>
+      <c r="A290" s="21">
+        <f>A289+1</f>
+        <v>212</v>
+      </c>
+      <c r="B290" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="C290" s="62" t="s">
+        <v>747</v>
+      </c>
+      <c r="D290" s="63" t="s">
+        <v>748</v>
+      </c>
+      <c r="E290" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F290" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="G290" s="58" t="s">
+        <v>719</v>
+      </c>
+      <c r="H290" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="I290" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J290" s="24"/>
+      <c r="K290" s="17" t="s">
+        <v>436</v>
+      </c>
       <c r="L290" s="4"/>
       <c r="M290" s="5"/>
     </row>
-    <row r="291">
-      <c r="A291" s="49" t="s">
-        <v>729</v>
-      </c>
+    <row r="291" ht="12.75" customHeight="1">
+      <c r="A291" s="19"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -13307,138 +13314,116 @@
       <c r="H291" s="2"/>
       <c r="I291" s="2"/>
       <c r="J291" s="2"/>
-      <c r="K291" s="8"/>
+      <c r="K291" s="17"/>
       <c r="L291" s="4"/>
       <c r="M291" s="5"/>
     </row>
     <row r="292" ht="12.75" customHeight="1">
-      <c r="A292" s="21">
-        <f>A288+1</f>
-        <v>212</v>
-      </c>
-      <c r="B292" s="22" t="s">
-        <v>730</v>
-      </c>
-      <c r="C292" s="65" t="s">
-        <v>746</v>
-      </c>
-      <c r="D292" s="66" t="s">
-        <v>747</v>
-      </c>
-      <c r="E292" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F292" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="G292" s="26"/>
-      <c r="H292" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I292" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J292" s="24"/>
-      <c r="K292" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="A292" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C292" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D292" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E292" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F292" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G292" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H292" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I292" s="12"/>
+      <c r="J292" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K292" s="17"/>
       <c r="L292" s="4"/>
       <c r="M292" s="5"/>
     </row>
-    <row r="293" ht="12.75" customHeight="1">
-      <c r="A293" s="21">
-        <f t="shared" ref="A293:A294" si="29">A292+1</f>
-        <v>213</v>
-      </c>
-      <c r="B293" s="22" t="s">
-        <v>733</v>
-      </c>
-      <c r="C293" s="62" t="s">
-        <v>734</v>
-      </c>
-      <c r="D293" s="63" t="s">
-        <v>735</v>
-      </c>
-      <c r="E293" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F293" s="22" t="s">
-        <v>730</v>
-      </c>
-      <c r="G293" s="58" t="s">
-        <v>736</v>
-      </c>
-      <c r="H293" s="27">
-        <v>44927.0</v>
-      </c>
-      <c r="I293" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J293" s="24"/>
-      <c r="K293" s="17" t="s">
-        <v>436</v>
-      </c>
+    <row r="293">
+      <c r="A293" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="B293" s="2"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
+      <c r="H293" s="2"/>
+      <c r="I293" s="2"/>
+      <c r="J293" s="2"/>
+      <c r="K293" s="8"/>
       <c r="L293" s="4"/>
       <c r="M293" s="5"/>
     </row>
     <row r="294" ht="12.75" customHeight="1">
       <c r="A294" s="21">
-        <f t="shared" si="29"/>
-        <v>214</v>
+        <f>A290+1</f>
+        <v>213</v>
       </c>
       <c r="B294" s="22" t="s">
-        <v>737</v>
-      </c>
-      <c r="C294" s="62" t="s">
-        <v>738</v>
-      </c>
-      <c r="D294" s="63" t="s">
-        <v>739</v>
-      </c>
-      <c r="E294" s="25" t="s">
-        <v>24</v>
+        <v>733</v>
+      </c>
+      <c r="C294" s="65" t="s">
+        <v>749</v>
+      </c>
+      <c r="D294" s="66" t="s">
+        <v>750</v>
+      </c>
+      <c r="E294" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="F294" s="22" t="s">
-        <v>730</v>
-      </c>
-      <c r="G294" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="H294" s="27">
-        <v>44927.0</v>
-      </c>
-      <c r="I294" s="27" t="s">
+        <v>617</v>
+      </c>
+      <c r="G294" s="26"/>
+      <c r="H294" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I294" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J294" s="24"/>
-      <c r="K294" s="17" t="s">
-        <v>436</v>
+      <c r="K294" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="L294" s="4"/>
       <c r="M294" s="5"/>
     </row>
-    <row r="295" ht="15.0" customHeight="1">
+    <row r="295" ht="12.75" customHeight="1">
       <c r="A295" s="21">
-        <f>A294+1</f>
-        <v>215</v>
+        <f t="shared" ref="A295:A296" si="29">A294+1</f>
+        <v>214</v>
       </c>
       <c r="B295" s="22" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C295" s="62" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D295" s="63" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E295" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F295" s="22" t="s">
-        <v>730</v>
-      </c>
-      <c r="G295" s="64" t="s">
-        <v>716</v>
+        <v>733</v>
+      </c>
+      <c r="G295" s="58" t="s">
+        <v>739</v>
       </c>
       <c r="H295" s="27">
         <v>44927.0</v>
@@ -13453,28 +13438,28 @@
       <c r="L295" s="4"/>
       <c r="M295" s="5"/>
     </row>
-    <row r="296" ht="13.5" customHeight="1">
+    <row r="296" ht="12.75" customHeight="1">
       <c r="A296" s="21">
-        <f>A295+1</f>
-        <v>216</v>
+        <f t="shared" si="29"/>
+        <v>215</v>
       </c>
       <c r="B296" s="22" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C296" s="62" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D296" s="63" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E296" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F296" s="22" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="G296" s="58" t="s">
-        <v>716</v>
+        <v>136</v>
       </c>
       <c r="H296" s="27">
         <v>44927.0</v>
@@ -13490,57 +13475,79 @@
       <c r="M296" s="5"/>
     </row>
     <row r="297" ht="15.0" customHeight="1">
-      <c r="A297" s="19"/>
-      <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
-      <c r="I297" s="2"/>
-      <c r="J297" s="2"/>
-      <c r="K297" s="17"/>
+      <c r="A297" s="21">
+        <f>A296+1</f>
+        <v>216</v>
+      </c>
+      <c r="B297" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="C297" s="62" t="s">
+        <v>744</v>
+      </c>
+      <c r="D297" s="63" t="s">
+        <v>745</v>
+      </c>
+      <c r="E297" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F297" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="G297" s="64" t="s">
+        <v>719</v>
+      </c>
+      <c r="H297" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="I297" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J297" s="24"/>
+      <c r="K297" s="17" t="s">
+        <v>436</v>
+      </c>
       <c r="L297" s="4"/>
       <c r="M297" s="5"/>
     </row>
-    <row r="298" ht="12.75" customHeight="1">
-      <c r="A298" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B298" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C298" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D298" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E298" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F298" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G298" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H298" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I298" s="12"/>
-      <c r="J298" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K298" s="17"/>
+    <row r="298" ht="13.5" customHeight="1">
+      <c r="A298" s="21">
+        <f>A297+1</f>
+        <v>217</v>
+      </c>
+      <c r="B298" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="C298" s="62" t="s">
+        <v>747</v>
+      </c>
+      <c r="D298" s="63" t="s">
+        <v>748</v>
+      </c>
+      <c r="E298" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F298" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="G298" s="58" t="s">
+        <v>719</v>
+      </c>
+      <c r="H298" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="I298" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J298" s="24"/>
+      <c r="K298" s="17" t="s">
+        <v>436</v>
+      </c>
       <c r="L298" s="4"/>
       <c r="M298" s="5"/>
     </row>
-    <row r="299" ht="12.75" customHeight="1">
-      <c r="A299" s="49" t="s">
-        <v>748</v>
-      </c>
+    <row r="299" ht="15.0" customHeight="1">
+      <c r="A299" s="19"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -13550,148 +13557,122 @@
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
-      <c r="K299" s="8"/>
+      <c r="K299" s="17"/>
       <c r="L299" s="4"/>
       <c r="M299" s="5"/>
     </row>
     <row r="300" ht="12.75" customHeight="1">
-      <c r="A300" s="21">
-        <f>A296+1</f>
-        <v>217</v>
-      </c>
-      <c r="B300" s="22" t="s">
-        <v>749</v>
-      </c>
-      <c r="C300" s="67" t="s">
-        <v>750</v>
-      </c>
-      <c r="D300" s="50" t="s">
-        <v>751</v>
-      </c>
-      <c r="E300" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F300" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="G300" s="21"/>
-      <c r="H300" s="55">
-        <v>45658.0</v>
-      </c>
-      <c r="I300" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J300" s="24"/>
-      <c r="K300" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="A300" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B300" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C300" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D300" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E300" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F300" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G300" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H300" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I300" s="12"/>
+      <c r="J300" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K300" s="17"/>
       <c r="L300" s="4"/>
       <c r="M300" s="5"/>
     </row>
     <row r="301" ht="12.75" customHeight="1">
-      <c r="A301" s="21">
-        <f t="shared" ref="A301:A302" si="30">A300+1</f>
-        <v>218</v>
-      </c>
-      <c r="B301" s="22" t="s">
-        <v>752</v>
-      </c>
-      <c r="C301" s="68" t="s">
-        <v>753</v>
-      </c>
-      <c r="D301" s="52" t="s">
-        <v>754</v>
-      </c>
-      <c r="E301" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F301" s="22" t="s">
-        <v>749</v>
-      </c>
-      <c r="G301" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="H301" s="27">
-        <v>44927.0</v>
-      </c>
-      <c r="I301" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J301" s="54" t="s">
-        <v>632</v>
-      </c>
-      <c r="K301" s="17" t="s">
-        <v>436</v>
-      </c>
+      <c r="A301" s="49" t="s">
+        <v>751</v>
+      </c>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+      <c r="G301" s="2"/>
+      <c r="H301" s="2"/>
+      <c r="I301" s="2"/>
+      <c r="J301" s="2"/>
+      <c r="K301" s="8"/>
       <c r="L301" s="4"/>
       <c r="M301" s="5"/>
     </row>
     <row r="302" ht="12.75" customHeight="1">
       <c r="A302" s="21">
-        <f t="shared" si="30"/>
-        <v>219</v>
+        <f>A298+1</f>
+        <v>218</v>
       </c>
       <c r="B302" s="22" t="s">
-        <v>755</v>
-      </c>
-      <c r="C302" s="68" t="s">
-        <v>756</v>
-      </c>
-      <c r="D302" s="52" t="s">
-        <v>757</v>
-      </c>
-      <c r="E302" s="25" t="s">
-        <v>24</v>
+        <v>752</v>
+      </c>
+      <c r="C302" s="67" t="s">
+        <v>753</v>
+      </c>
+      <c r="D302" s="50" t="s">
+        <v>754</v>
+      </c>
+      <c r="E302" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="F302" s="22" t="s">
-        <v>749</v>
-      </c>
-      <c r="G302" s="62" t="s">
-        <v>716</v>
-      </c>
-      <c r="H302" s="27">
-        <v>44927.0</v>
-      </c>
-      <c r="I302" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J302" s="54" t="s">
-        <v>623</v>
-      </c>
-      <c r="K302" s="17" t="s">
-        <v>436</v>
+        <v>617</v>
+      </c>
+      <c r="G302" s="21"/>
+      <c r="H302" s="55">
+        <v>45658.0</v>
+      </c>
+      <c r="I302" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J302" s="24"/>
+      <c r="K302" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="L302" s="4"/>
       <c r="M302" s="5"/>
     </row>
     <row r="303" ht="12.75" customHeight="1">
       <c r="A303" s="21">
-        <f>A302+1</f>
-        <v>220</v>
+        <f t="shared" ref="A303:A304" si="30">A302+1</f>
+        <v>219</v>
       </c>
       <c r="B303" s="22" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C303" s="68" t="s">
-        <v>759</v>
-      </c>
-      <c r="D303" s="50" t="s">
-        <v>760</v>
+        <v>756</v>
+      </c>
+      <c r="D303" s="52" t="s">
+        <v>757</v>
       </c>
       <c r="E303" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F303" s="22" t="s">
-        <v>749</v>
-      </c>
-      <c r="G303" s="69" t="s">
+        <v>752</v>
+      </c>
+      <c r="G303" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="H303" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I303" s="21" t="s">
-        <v>110</v>
+      <c r="H303" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="I303" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="J303" s="54" t="s">
         <v>632</v>
@@ -13704,26 +13685,26 @@
     </row>
     <row r="304" ht="12.75" customHeight="1">
       <c r="A304" s="21">
-        <f t="shared" ref="A304:A305" si="31">A303+1</f>
-        <v>221</v>
+        <f t="shared" si="30"/>
+        <v>220</v>
       </c>
       <c r="B304" s="22" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C304" s="68" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D304" s="52" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E304" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F304" s="22" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="G304" s="62" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="H304" s="27">
         <v>44927.0</v>
@@ -13742,128 +13723,154 @@
     </row>
     <row r="305" ht="12.75" customHeight="1">
       <c r="A305" s="21">
-        <f t="shared" si="31"/>
-        <v>222</v>
+        <f>A304+1</f>
+        <v>221</v>
       </c>
       <c r="B305" s="22" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C305" s="68" t="s">
-        <v>765</v>
-      </c>
-      <c r="D305" s="52" t="s">
-        <v>685</v>
+        <v>762</v>
+      </c>
+      <c r="D305" s="50" t="s">
+        <v>763</v>
       </c>
       <c r="E305" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F305" s="22" t="s">
-        <v>749</v>
-      </c>
-      <c r="G305" s="62" t="s">
+        <v>752</v>
+      </c>
+      <c r="G305" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="H305" s="27">
-        <v>44927.0</v>
-      </c>
-      <c r="I305" s="27" t="s">
-        <v>19</v>
+      <c r="H305" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I305" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="J305" s="54" t="s">
         <v>632</v>
       </c>
-      <c r="K305" s="56"/>
+      <c r="K305" s="17" t="s">
+        <v>436</v>
+      </c>
       <c r="L305" s="4"/>
       <c r="M305" s="5"/>
     </row>
     <row r="306" ht="12.75" customHeight="1">
       <c r="A306" s="21">
-        <f>A305+1</f>
-        <v>223</v>
+        <f t="shared" ref="A306:A307" si="31">A305+1</f>
+        <v>222</v>
       </c>
       <c r="B306" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="C306" s="68" t="s">
+        <v>765</v>
+      </c>
+      <c r="D306" s="52" t="s">
         <v>766</v>
       </c>
-      <c r="C306" s="68" t="s">
-        <v>767</v>
-      </c>
-      <c r="D306" s="50" t="s">
-        <v>768</v>
-      </c>
       <c r="E306" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F306" s="22" t="s">
-        <v>749</v>
-      </c>
-      <c r="G306" s="69" t="s">
-        <v>716</v>
-      </c>
-      <c r="H306" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I306" s="21" t="s">
-        <v>110</v>
+        <v>752</v>
+      </c>
+      <c r="G306" s="62" t="s">
+        <v>719</v>
+      </c>
+      <c r="H306" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="I306" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="J306" s="54" t="s">
         <v>623</v>
       </c>
-      <c r="K306" s="56"/>
+      <c r="K306" s="17" t="s">
+        <v>436</v>
+      </c>
       <c r="L306" s="4"/>
       <c r="M306" s="5"/>
     </row>
     <row r="307" ht="12.75" customHeight="1">
-      <c r="A307" s="19"/>
-      <c r="B307" s="2"/>
-      <c r="C307" s="2"/>
-      <c r="D307" s="2"/>
-      <c r="E307" s="2"/>
-      <c r="F307" s="2"/>
-      <c r="G307" s="2"/>
-      <c r="H307" s="2"/>
-      <c r="I307" s="2"/>
-      <c r="J307" s="2"/>
-      <c r="K307" s="17"/>
+      <c r="A307" s="21">
+        <f t="shared" si="31"/>
+        <v>223</v>
+      </c>
+      <c r="B307" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="C307" s="68" t="s">
+        <v>768</v>
+      </c>
+      <c r="D307" s="52" t="s">
+        <v>688</v>
+      </c>
+      <c r="E307" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F307" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="G307" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="H307" s="27">
+        <v>44927.0</v>
+      </c>
+      <c r="I307" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J307" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="K307" s="56"/>
       <c r="L307" s="4"/>
       <c r="M307" s="5"/>
     </row>
     <row r="308" ht="12.75" customHeight="1">
-      <c r="A308" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B308" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C308" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D308" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E308" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F308" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G308" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H308" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I308" s="12"/>
-      <c r="J308" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K308" s="17"/>
+      <c r="A308" s="21">
+        <f>A307+1</f>
+        <v>224</v>
+      </c>
+      <c r="B308" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="C308" s="68" t="s">
+        <v>770</v>
+      </c>
+      <c r="D308" s="50" t="s">
+        <v>771</v>
+      </c>
+      <c r="E308" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F308" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="G308" s="69" t="s">
+        <v>719</v>
+      </c>
+      <c r="H308" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I308" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J308" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="K308" s="56"/>
       <c r="L308" s="4"/>
       <c r="M308" s="5"/>
     </row>
     <row r="309" ht="12.75" customHeight="1">
-      <c r="A309" s="33" t="s">
-        <v>769</v>
-      </c>
+      <c r="A309" s="19"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -13873,194 +13880,168 @@
       <c r="H309" s="2"/>
       <c r="I309" s="2"/>
       <c r="J309" s="2"/>
-      <c r="K309" s="8"/>
+      <c r="K309" s="17"/>
       <c r="L309" s="4"/>
       <c r="M309" s="5"/>
     </row>
-    <row r="310" ht="17.25" customHeight="1">
-      <c r="A310" s="19">
-        <f>A306+1</f>
-        <v>224</v>
-      </c>
-      <c r="B310" s="19" t="s">
-        <v>770</v>
-      </c>
-      <c r="C310" s="19" t="s">
-        <v>771</v>
-      </c>
-      <c r="D310" s="31" t="s">
-        <v>772</v>
-      </c>
-      <c r="E310" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F310" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G310" s="19"/>
-      <c r="H310" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="I310" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J310" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="K310" s="11" t="s">
-        <v>20</v>
-      </c>
+    <row r="310" ht="12.75" customHeight="1">
+      <c r="A310" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B310" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C310" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D310" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E310" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F310" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G310" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H310" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I310" s="12"/>
+      <c r="J310" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K310" s="17"/>
       <c r="L310" s="4"/>
       <c r="M310" s="5"/>
     </row>
-    <row r="311" ht="17.25" customHeight="1">
-      <c r="A311" s="19">
-        <f t="shared" ref="A311:A322" si="32">A310+1</f>
-        <v>225</v>
-      </c>
-      <c r="B311" s="19" t="s">
-        <v>774</v>
-      </c>
-      <c r="C311" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="D311" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="E311" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F311" s="19" t="s">
-        <v>770</v>
-      </c>
-      <c r="G311" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="H311" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I311" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J311" s="17" t="s">
-        <v>775</v>
-      </c>
-      <c r="K311" s="17" t="s">
-        <v>436</v>
-      </c>
+    <row r="311" ht="12.75" customHeight="1">
+      <c r="A311" s="33" t="s">
+        <v>772</v>
+      </c>
+      <c r="B311" s="2"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2"/>
+      <c r="E311" s="2"/>
+      <c r="F311" s="2"/>
+      <c r="G311" s="2"/>
+      <c r="H311" s="2"/>
+      <c r="I311" s="2"/>
+      <c r="J311" s="2"/>
+      <c r="K311" s="8"/>
       <c r="L311" s="4"/>
       <c r="M311" s="5"/>
     </row>
     <row r="312" ht="17.25" customHeight="1">
       <c r="A312" s="19">
-        <f t="shared" si="32"/>
-        <v>226</v>
+        <f>A308+1</f>
+        <v>225</v>
       </c>
       <c r="B312" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="C312" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="D312" s="31" t="s">
+        <v>775</v>
+      </c>
+      <c r="E312" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F312" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G312" s="19"/>
+      <c r="H312" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I312" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J312" s="31" t="s">
         <v>776</v>
       </c>
-      <c r="C312" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="D312" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="E312" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F312" s="19" t="s">
-        <v>770</v>
-      </c>
-      <c r="G312" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="H312" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I312" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J312" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="K312" s="17" t="s">
-        <v>430</v>
+      <c r="K312" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="L312" s="4"/>
       <c r="M312" s="5"/>
     </row>
-    <row r="313" ht="12.75" customHeight="1">
+    <row r="313" ht="17.25" customHeight="1">
       <c r="A313" s="19">
+        <f t="shared" ref="A313:A324" si="32">A312+1</f>
+        <v>226</v>
+      </c>
+      <c r="B313" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="C313" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D313" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E313" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F313" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="G313" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="H313" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I313" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J313" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="K313" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="L313" s="4"/>
+      <c r="M313" s="5"/>
+    </row>
+    <row r="314" ht="17.25" customHeight="1">
+      <c r="A314" s="19">
         <f t="shared" si="32"/>
         <v>227</v>
       </c>
-      <c r="B313" s="19" t="s">
-        <v>777</v>
-      </c>
-      <c r="C313" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="D313" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="E313" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F313" s="19" t="s">
-        <v>770</v>
-      </c>
-      <c r="G313" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="H313" s="16">
+      <c r="B314" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="C314" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="D314" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="E314" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F314" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="G314" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="H314" s="16">
         <v>44927.0</v>
       </c>
-      <c r="I313" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J313" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="K313" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="L313" s="4"/>
-      <c r="M313" s="5"/>
-    </row>
-    <row r="314" ht="12.75" customHeight="1">
-      <c r="A314" s="19">
-        <f t="shared" si="32"/>
-        <v>228</v>
-      </c>
-      <c r="B314" s="19" t="s">
-        <v>778</v>
-      </c>
-      <c r="C314" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="D314" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="E314" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F314" s="19" t="s">
-        <v>770</v>
-      </c>
-      <c r="G314" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="H314" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I314" s="14" t="s">
-        <v>110</v>
+      <c r="I314" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="J314" s="17" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K314" s="17" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="L314" s="4"/>
       <c r="M314" s="5"/>
@@ -14068,63 +14049,63 @@
     <row r="315" ht="12.75" customHeight="1">
       <c r="A315" s="19">
         <f t="shared" si="32"/>
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B315" s="19" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D315" s="15" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E315" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F315" s="19" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="G315" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="H315" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I315" s="14" t="s">
-        <v>110</v>
+        <v>434</v>
+      </c>
+      <c r="H315" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I315" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="J315" s="17" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="K315" s="17" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L315" s="4"/>
       <c r="M315" s="5"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" ht="12.75" customHeight="1">
       <c r="A316" s="19">
         <f t="shared" si="32"/>
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B316" s="19" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D316" s="15" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="E316" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F316" s="19" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="G316" s="14" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="H316" s="14" t="s">
         <v>109</v>
@@ -14133,33 +14114,33 @@
         <v>110</v>
       </c>
       <c r="J316" s="17" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="K316" s="17" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="L316" s="4"/>
       <c r="M316" s="5"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" ht="12.75" customHeight="1">
       <c r="A317" s="19">
         <f t="shared" si="32"/>
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B317" s="19" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="D317" s="15" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="E317" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F317" s="19" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="G317" s="14" t="s">
         <v>440</v>
@@ -14182,25 +14163,25 @@
     <row r="318" ht="14.25" customHeight="1">
       <c r="A318" s="19">
         <f t="shared" si="32"/>
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B318" s="19" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="D318" s="15" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="E318" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F318" s="19" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="G318" s="14" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="H318" s="14" t="s">
         <v>109</v>
@@ -14209,33 +14190,33 @@
         <v>110</v>
       </c>
       <c r="J318" s="17" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="K318" s="17" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="L318" s="4"/>
       <c r="M318" s="5"/>
     </row>
-    <row r="319" ht="12.75" customHeight="1">
+    <row r="319" ht="14.25" customHeight="1">
       <c r="A319" s="19">
         <f t="shared" si="32"/>
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B319" s="19" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D319" s="15" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E319" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F319" s="19" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="G319" s="14" t="s">
         <v>440</v>
@@ -14255,28 +14236,28 @@
       <c r="L319" s="4"/>
       <c r="M319" s="5"/>
     </row>
-    <row r="320" ht="12.75" customHeight="1">
+    <row r="320" ht="14.25" customHeight="1">
       <c r="A320" s="19">
         <f t="shared" si="32"/>
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B320" s="19" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>546</v>
+        <v>475</v>
       </c>
       <c r="D320" s="15" t="s">
-        <v>547</v>
+        <v>476</v>
       </c>
       <c r="E320" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F320" s="19" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="G320" s="14" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="H320" s="14" t="s">
         <v>109</v>
@@ -14285,10 +14266,10 @@
         <v>110</v>
       </c>
       <c r="J320" s="17" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="K320" s="17" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="L320" s="4"/>
       <c r="M320" s="5"/>
@@ -14296,22 +14277,22 @@
     <row r="321" ht="12.75" customHeight="1">
       <c r="A321" s="19">
         <f t="shared" si="32"/>
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B321" s="19" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>561</v>
+        <v>481</v>
       </c>
       <c r="D321" s="15" t="s">
-        <v>562</v>
+        <v>482</v>
       </c>
       <c r="E321" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F321" s="19" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="G321" s="14" t="s">
         <v>440</v>
@@ -14334,91 +14315,117 @@
     <row r="322" ht="12.75" customHeight="1">
       <c r="A322" s="19">
         <f t="shared" si="32"/>
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B322" s="19" t="s">
-        <v>786</v>
-      </c>
-      <c r="C322" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="D322" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="E322" s="19" t="s">
+      <c r="C322" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="D322" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E322" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F322" s="19" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="G322" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="H322" s="19" t="s">
+      <c r="H322" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I322" s="19" t="s">
+      <c r="I322" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="J322" s="70" t="s">
+      <c r="J322" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="K322" s="17"/>
+      <c r="K322" s="17" t="s">
+        <v>442</v>
+      </c>
       <c r="L322" s="4"/>
       <c r="M322" s="5"/>
     </row>
     <row r="323" ht="12.75" customHeight="1">
-      <c r="A323" s="19"/>
-      <c r="B323" s="2"/>
-      <c r="C323" s="2"/>
-      <c r="D323" s="2"/>
-      <c r="E323" s="2"/>
-      <c r="F323" s="2"/>
-      <c r="G323" s="2"/>
-      <c r="H323" s="2"/>
-      <c r="I323" s="2"/>
-      <c r="J323" s="2"/>
-      <c r="K323" s="17"/>
+      <c r="A323" s="19">
+        <f t="shared" si="32"/>
+        <v>236</v>
+      </c>
+      <c r="B323" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="C323" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="D323" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="E323" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F323" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="G323" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="H323" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I323" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J323" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="K323" s="17" t="s">
+        <v>442</v>
+      </c>
       <c r="L323" s="4"/>
       <c r="M323" s="5"/>
     </row>
     <row r="324" ht="12.75" customHeight="1">
-      <c r="A324" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B324" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C324" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D324" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E324" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F324" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G324" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H324" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I324" s="12"/>
-      <c r="J324" s="11" t="s">
-        <v>10</v>
+      <c r="A324" s="19">
+        <f t="shared" si="32"/>
+        <v>237</v>
+      </c>
+      <c r="B324" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="C324" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="D324" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="E324" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F324" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="G324" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="H324" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I324" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J324" s="70" t="s">
+        <v>441</v>
       </c>
       <c r="K324" s="17"/>
       <c r="L324" s="4"/>
       <c r="M324" s="5"/>
     </row>
     <row r="325" ht="12.75" customHeight="1">
-      <c r="A325" s="33" t="s">
-        <v>788</v>
-      </c>
+      <c r="A325" s="19"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -14428,166 +14435,166 @@
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
       <c r="J325" s="2"/>
-      <c r="K325" s="8"/>
+      <c r="K325" s="17"/>
       <c r="L325" s="4"/>
       <c r="M325" s="5"/>
     </row>
     <row r="326" ht="12.75" customHeight="1">
-      <c r="A326" s="19">
-        <f>A322+1</f>
-        <v>237</v>
-      </c>
-      <c r="B326" s="19" t="s">
-        <v>789</v>
-      </c>
-      <c r="C326" s="19" t="s">
-        <v>790</v>
-      </c>
-      <c r="D326" s="31" t="s">
-        <v>791</v>
-      </c>
-      <c r="E326" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F326" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G326" s="19"/>
-      <c r="H326" s="19"/>
-      <c r="I326" s="19"/>
-      <c r="J326" s="31"/>
-      <c r="K326" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="A326" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C326" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D326" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E326" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F326" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G326" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H326" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I326" s="12"/>
+      <c r="J326" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K326" s="17"/>
       <c r="L326" s="4"/>
       <c r="M326" s="5"/>
     </row>
     <row r="327" ht="12.75" customHeight="1">
-      <c r="A327" s="19">
-        <f t="shared" ref="A327:A328" si="33">A326+1</f>
-        <v>238</v>
-      </c>
-      <c r="B327" s="19" t="s">
-        <v>792</v>
-      </c>
-      <c r="C327" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="D327" s="15" t="s">
-        <v>794</v>
-      </c>
-      <c r="E327" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F327" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="G327" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H327" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I327" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J327" s="17" t="s">
-        <v>795</v>
-      </c>
-      <c r="K327" s="17" t="s">
-        <v>459</v>
-      </c>
+      <c r="A327" s="33" t="s">
+        <v>791</v>
+      </c>
+      <c r="B327" s="2"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="2"/>
+      <c r="E327" s="2"/>
+      <c r="F327" s="2"/>
+      <c r="G327" s="2"/>
+      <c r="H327" s="2"/>
+      <c r="I327" s="2"/>
+      <c r="J327" s="2"/>
+      <c r="K327" s="8"/>
       <c r="L327" s="4"/>
       <c r="M327" s="5"/>
     </row>
-    <row r="328" ht="17.25" customHeight="1">
+    <row r="328" ht="12.75" customHeight="1">
       <c r="A328" s="19">
-        <f t="shared" si="33"/>
-        <v>239</v>
+        <f>A324+1</f>
+        <v>238</v>
       </c>
       <c r="B328" s="19" t="s">
-        <v>796</v>
-      </c>
-      <c r="C328" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="D328" s="15" t="s">
-        <v>798</v>
-      </c>
-      <c r="E328" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F328" s="14" t="s">
-        <v>799</v>
-      </c>
-      <c r="G328" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="H328" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I328" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J328" s="17"/>
-      <c r="K328" s="17" t="s">
-        <v>800</v>
+        <v>792</v>
+      </c>
+      <c r="C328" s="19" t="s">
+        <v>793</v>
+      </c>
+      <c r="D328" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="E328" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F328" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G328" s="19"/>
+      <c r="H328" s="19"/>
+      <c r="I328" s="19"/>
+      <c r="J328" s="31"/>
+      <c r="K328" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="L328" s="4"/>
       <c r="M328" s="5"/>
     </row>
-    <row r="329" ht="17.25" customHeight="1">
-      <c r="A329" s="19"/>
-      <c r="B329" s="2"/>
-      <c r="C329" s="2"/>
-      <c r="D329" s="2"/>
-      <c r="E329" s="2"/>
-      <c r="F329" s="2"/>
-      <c r="G329" s="2"/>
-      <c r="H329" s="2"/>
-      <c r="I329" s="2"/>
-      <c r="J329" s="2"/>
-      <c r="K329" s="17"/>
+    <row r="329" ht="12.75" customHeight="1">
+      <c r="A329" s="19">
+        <f t="shared" ref="A329:A330" si="33">A328+1</f>
+        <v>239</v>
+      </c>
+      <c r="B329" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="C329" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="D329" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="E329" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F329" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="G329" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H329" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I329" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J329" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="K329" s="17" t="s">
+        <v>459</v>
+      </c>
       <c r="L329" s="4"/>
       <c r="M329" s="5"/>
     </row>
     <row r="330" ht="17.25" customHeight="1">
-      <c r="A330" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B330" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C330" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D330" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E330" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F330" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G330" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H330" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I330" s="12"/>
-      <c r="J330" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K330" s="17"/>
+      <c r="A330" s="19">
+        <f t="shared" si="33"/>
+        <v>240</v>
+      </c>
+      <c r="B330" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="C330" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="D330" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="E330" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F330" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="G330" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H330" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I330" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J330" s="17"/>
+      <c r="K330" s="17" t="s">
+        <v>803</v>
+      </c>
       <c r="L330" s="4"/>
       <c r="M330" s="5"/>
     </row>
-    <row r="331" ht="12.75" customHeight="1">
-      <c r="A331" s="33" t="s">
-        <v>801</v>
-      </c>
+    <row r="331" ht="17.25" customHeight="1">
+      <c r="A331" s="19"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -14597,154 +14604,130 @@
       <c r="H331" s="2"/>
       <c r="I331" s="2"/>
       <c r="J331" s="2"/>
-      <c r="K331" s="8"/>
+      <c r="K331" s="17"/>
       <c r="L331" s="4"/>
       <c r="M331" s="5"/>
     </row>
-    <row r="332" ht="12.75" customHeight="1">
-      <c r="A332" s="19">
-        <f>A328+1</f>
-        <v>240</v>
-      </c>
-      <c r="B332" s="19" t="s">
-        <v>802</v>
-      </c>
-      <c r="C332" s="19" t="s">
-        <v>803</v>
-      </c>
-      <c r="D332" s="31" t="s">
-        <v>804</v>
-      </c>
-      <c r="E332" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F332" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G332" s="19"/>
-      <c r="H332" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="I332" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J332" s="15" t="s">
-        <v>773</v>
-      </c>
-      <c r="K332" s="11" t="s">
-        <v>20</v>
-      </c>
+    <row r="332" ht="17.25" customHeight="1">
+      <c r="A332" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C332" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D332" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E332" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F332" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G332" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H332" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I332" s="12"/>
+      <c r="J332" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K332" s="17"/>
       <c r="L332" s="4"/>
       <c r="M332" s="5"/>
     </row>
     <row r="333" ht="12.75" customHeight="1">
-      <c r="A333" s="19">
-        <f t="shared" ref="A333:A338" si="34">A332+1</f>
-        <v>241</v>
-      </c>
-      <c r="B333" s="19" t="s">
-        <v>805</v>
-      </c>
-      <c r="C333" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="D333" s="15" t="s">
-        <v>807</v>
-      </c>
-      <c r="E333" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F333" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="G333" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H333" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I333" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J333" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="K333" s="17" t="s">
-        <v>54</v>
-      </c>
+      <c r="A333" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="B333" s="2"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="2"/>
+      <c r="E333" s="2"/>
+      <c r="F333" s="2"/>
+      <c r="G333" s="2"/>
+      <c r="H333" s="2"/>
+      <c r="I333" s="2"/>
+      <c r="J333" s="2"/>
+      <c r="K333" s="8"/>
       <c r="L333" s="4"/>
       <c r="M333" s="5"/>
     </row>
     <row r="334" ht="12.75" customHeight="1">
       <c r="A334" s="19">
-        <f t="shared" si="34"/>
-        <v>242</v>
+        <f>A330+1</f>
+        <v>241</v>
       </c>
       <c r="B334" s="19" t="s">
-        <v>809</v>
-      </c>
-      <c r="C334" s="14" t="s">
-        <v>810</v>
-      </c>
-      <c r="D334" s="15" t="s">
-        <v>811</v>
-      </c>
-      <c r="E334" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F334" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="G334" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="H334" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I334" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J334" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="K334" s="17" t="s">
-        <v>285</v>
+        <v>805</v>
+      </c>
+      <c r="C334" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="D334" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="E334" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F334" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G334" s="19"/>
+      <c r="H334" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="I334" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J334" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="K334" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="L334" s="4"/>
       <c r="M334" s="5"/>
     </row>
     <row r="335" ht="12.75" customHeight="1">
       <c r="A335" s="19">
-        <f t="shared" si="34"/>
-        <v>243</v>
+        <f t="shared" ref="A335:A340" si="34">A334+1</f>
+        <v>242</v>
       </c>
       <c r="B335" s="19" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="D335" s="15" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="E335" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F335" s="14" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="G335" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="H335" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I335" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J335" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="H335" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I335" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J335" s="17" t="s">
+        <v>811</v>
+      </c>
       <c r="K335" s="17" t="s">
-        <v>800</v>
+        <v>54</v>
       </c>
       <c r="L335" s="4"/>
       <c r="M335" s="5"/>
@@ -14752,35 +14735,37 @@
     <row r="336" ht="12.75" customHeight="1">
       <c r="A336" s="19">
         <f t="shared" si="34"/>
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B336" s="19" t="s">
+        <v>812</v>
+      </c>
+      <c r="C336" s="14" t="s">
         <v>813</v>
       </c>
-      <c r="C336" s="14" t="s">
+      <c r="D336" s="15" t="s">
         <v>814</v>
       </c>
-      <c r="D336" s="15" t="s">
-        <v>815</v>
-      </c>
       <c r="E336" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F336" s="14" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="G336" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="H336" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I336" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J336" s="17"/>
+        <v>283</v>
+      </c>
+      <c r="H336" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I336" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J336" s="17" t="s">
+        <v>284</v>
+      </c>
       <c r="K336" s="17" t="s">
-        <v>800</v>
+        <v>285</v>
       </c>
       <c r="L336" s="4"/>
       <c r="M336" s="5"/>
@@ -14788,25 +14773,25 @@
     <row r="337" ht="12.75" customHeight="1">
       <c r="A337" s="19">
         <f t="shared" si="34"/>
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B337" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C337" s="14" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="D337" s="15" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="E337" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F337" s="14" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="G337" s="14" t="s">
-        <v>819</v>
+        <v>167</v>
       </c>
       <c r="H337" s="14" t="s">
         <v>109</v>
@@ -14816,33 +14801,33 @@
       </c>
       <c r="J337" s="17"/>
       <c r="K337" s="17" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="L337" s="4"/>
       <c r="M337" s="5"/>
     </row>
-    <row r="338" ht="16.5" customHeight="1">
+    <row r="338" ht="12.75" customHeight="1">
       <c r="A338" s="19">
         <f t="shared" si="34"/>
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B338" s="19" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="D338" s="15" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E338" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F338" s="14" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="G338" s="14" t="s">
-        <v>824</v>
+        <v>167</v>
       </c>
       <c r="H338" s="14" t="s">
         <v>109</v>
@@ -14852,63 +14837,85 @@
       </c>
       <c r="J338" s="17"/>
       <c r="K338" s="17" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="L338" s="4"/>
       <c r="M338" s="5"/>
     </row>
-    <row r="339" ht="16.5" customHeight="1">
-      <c r="A339" s="19"/>
-      <c r="B339" s="2"/>
-      <c r="C339" s="2"/>
-      <c r="D339" s="2"/>
-      <c r="E339" s="2"/>
-      <c r="F339" s="2"/>
-      <c r="G339" s="2"/>
-      <c r="H339" s="2"/>
-      <c r="I339" s="2"/>
-      <c r="J339" s="2"/>
-      <c r="K339" s="17"/>
+    <row r="339" ht="12.75" customHeight="1">
+      <c r="A339" s="19">
+        <f t="shared" si="34"/>
+        <v>246</v>
+      </c>
+      <c r="B339" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="C339" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="D339" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="E339" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F339" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="G339" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="H339" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I339" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J339" s="17"/>
+      <c r="K339" s="17" t="s">
+        <v>823</v>
+      </c>
       <c r="L339" s="4"/>
       <c r="M339" s="5"/>
     </row>
     <row r="340" ht="16.5" customHeight="1">
-      <c r="A340" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B340" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C340" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D340" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E340" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F340" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G340" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H340" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I340" s="12"/>
-      <c r="J340" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K340" s="17"/>
+      <c r="A340" s="19">
+        <f t="shared" si="34"/>
+        <v>247</v>
+      </c>
+      <c r="B340" s="19" t="s">
+        <v>824</v>
+      </c>
+      <c r="C340" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="D340" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="E340" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F340" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="G340" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="H340" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I340" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J340" s="17"/>
+      <c r="K340" s="17" t="s">
+        <v>828</v>
+      </c>
       <c r="L340" s="4"/>
       <c r="M340" s="5"/>
     </row>
-    <row r="341" ht="12.75" customHeight="1">
-      <c r="A341" s="33" t="s">
-        <v>826</v>
-      </c>
+    <row r="341" ht="16.5" customHeight="1">
+      <c r="A341" s="19"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -14918,153 +14925,155 @@
       <c r="H341" s="2"/>
       <c r="I341" s="2"/>
       <c r="J341" s="2"/>
-      <c r="K341" s="8"/>
+      <c r="K341" s="17"/>
       <c r="L341" s="4"/>
-      <c r="M341" s="4"/>
-      <c r="N341" s="4"/>
-      <c r="O341" s="4"/>
-      <c r="P341" s="4"/>
-      <c r="Q341" s="4"/>
-      <c r="R341" s="4"/>
-      <c r="S341" s="4"/>
-      <c r="T341" s="4"/>
-      <c r="U341" s="4"/>
-      <c r="V341" s="4"/>
-      <c r="W341" s="4"/>
-      <c r="X341" s="4"/>
-      <c r="Y341" s="4"/>
-      <c r="Z341" s="5"/>
-    </row>
-    <row r="342" ht="12.75" customHeight="1">
-      <c r="A342" s="19">
-        <f>A338+1</f>
-        <v>247</v>
-      </c>
-      <c r="B342" s="19" t="s">
-        <v>799</v>
-      </c>
-      <c r="C342" s="19" t="s">
-        <v>827</v>
-      </c>
-      <c r="D342" s="31" t="s">
-        <v>828</v>
-      </c>
-      <c r="E342" s="19" t="s">
+      <c r="M341" s="5"/>
+    </row>
+    <row r="342" ht="16.5" customHeight="1">
+      <c r="A342" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B342" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C342" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D342" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E342" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F342" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G342" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H342" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I342" s="12"/>
+      <c r="J342" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K342" s="17"/>
+      <c r="L342" s="4"/>
+      <c r="M342" s="5"/>
+    </row>
+    <row r="343" ht="12.75" customHeight="1">
+      <c r="A343" s="33" t="s">
         <v>829</v>
       </c>
-      <c r="F342" s="19" t="s">
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="2"/>
+      <c r="E343" s="2"/>
+      <c r="F343" s="2"/>
+      <c r="G343" s="2"/>
+      <c r="H343" s="2"/>
+      <c r="I343" s="2"/>
+      <c r="J343" s="2"/>
+      <c r="K343" s="8"/>
+      <c r="L343" s="4"/>
+      <c r="M343" s="4"/>
+      <c r="N343" s="4"/>
+      <c r="O343" s="4"/>
+      <c r="P343" s="4"/>
+      <c r="Q343" s="4"/>
+      <c r="R343" s="4"/>
+      <c r="S343" s="4"/>
+      <c r="T343" s="4"/>
+      <c r="U343" s="4"/>
+      <c r="V343" s="4"/>
+      <c r="W343" s="4"/>
+      <c r="X343" s="4"/>
+      <c r="Y343" s="4"/>
+      <c r="Z343" s="5"/>
+    </row>
+    <row r="344" ht="12.75" customHeight="1">
+      <c r="A344" s="19">
+        <f>A340+1</f>
+        <v>248</v>
+      </c>
+      <c r="B344" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="C344" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="D344" s="31" t="s">
+        <v>831</v>
+      </c>
+      <c r="E344" s="19" t="s">
+        <v>832</v>
+      </c>
+      <c r="F344" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G342" s="19"/>
-      <c r="H342" s="19"/>
-      <c r="I342" s="19"/>
-      <c r="J342" s="31"/>
-      <c r="K342" s="11" t="s">
+      <c r="G344" s="19"/>
+      <c r="H344" s="19"/>
+      <c r="I344" s="19"/>
+      <c r="J344" s="31"/>
+      <c r="K344" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L342" s="4"/>
-      <c r="M342" s="4"/>
-      <c r="N342" s="4"/>
-      <c r="O342" s="4"/>
-      <c r="P342" s="4"/>
-      <c r="Q342" s="4"/>
-      <c r="R342" s="4"/>
-      <c r="S342" s="4"/>
-      <c r="T342" s="4"/>
-      <c r="U342" s="4"/>
-      <c r="V342" s="4"/>
-      <c r="W342" s="4"/>
-      <c r="X342" s="4"/>
-      <c r="Y342" s="4"/>
-      <c r="Z342" s="5"/>
-    </row>
-    <row r="343" ht="12.75" customHeight="1">
-      <c r="A343" s="19">
-        <f>A342+1</f>
-        <v>248</v>
-      </c>
-      <c r="B343" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="C343" s="14" t="s">
+      <c r="L344" s="4"/>
+      <c r="M344" s="4"/>
+      <c r="N344" s="4"/>
+      <c r="O344" s="4"/>
+      <c r="P344" s="4"/>
+      <c r="Q344" s="4"/>
+      <c r="R344" s="4"/>
+      <c r="S344" s="4"/>
+      <c r="T344" s="4"/>
+      <c r="U344" s="4"/>
+      <c r="V344" s="4"/>
+      <c r="W344" s="4"/>
+      <c r="X344" s="4"/>
+      <c r="Y344" s="4"/>
+      <c r="Z344" s="5"/>
+    </row>
+    <row r="345" ht="12.75" customHeight="1">
+      <c r="A345" s="19">
+        <f>A344+1</f>
+        <v>249</v>
+      </c>
+      <c r="B345" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="C345" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="D343" s="15" t="s">
-        <v>831</v>
-      </c>
-      <c r="E343" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F343" s="71" t="s">
-        <v>799</v>
-      </c>
-      <c r="G343" s="14" t="s">
+      <c r="D345" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="E345" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F345" s="71" t="s">
+        <v>802</v>
+      </c>
+      <c r="G345" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="H343" s="16">
+      <c r="H345" s="16">
         <v>44927.0</v>
       </c>
-      <c r="I343" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J343" s="17" t="s">
+      <c r="I345" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J345" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="K343" s="17" t="s">
+      <c r="K345" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="L343" s="4"/>
-    </row>
-    <row r="344" ht="12.75" customHeight="1">
-      <c r="A344" s="19"/>
-      <c r="B344" s="2"/>
-      <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
-      <c r="F344" s="2"/>
-      <c r="G344" s="2"/>
-      <c r="H344" s="2"/>
-      <c r="I344" s="2"/>
-      <c r="J344" s="2"/>
-      <c r="K344" s="17"/>
-      <c r="L344" s="4"/>
-    </row>
-    <row r="345" ht="12.75" customHeight="1">
-      <c r="A345" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B345" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C345" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D345" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E345" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F345" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G345" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H345" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I345" s="12"/>
-      <c r="J345" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K345" s="17"/>
       <c r="L345" s="4"/>
     </row>
     <row r="346" ht="12.75" customHeight="1">
-      <c r="A346" s="45" t="s">
-        <v>832</v>
-      </c>
+      <c r="A346" s="19"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -15074,131 +15083,105 @@
       <c r="H346" s="2"/>
       <c r="I346" s="2"/>
       <c r="J346" s="2"/>
-      <c r="K346" s="8"/>
+      <c r="K346" s="17"/>
       <c r="L346" s="4"/>
     </row>
     <row r="347" ht="12.75" customHeight="1">
-      <c r="A347" s="19">
-        <f>A343+1</f>
-        <v>249</v>
-      </c>
-      <c r="B347" s="46" t="s">
-        <v>833</v>
-      </c>
-      <c r="C347" s="19" t="s">
-        <v>834</v>
-      </c>
-      <c r="D347" s="31" t="s">
+      <c r="A347" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B347" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C347" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D347" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E347" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F347" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G347" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H347" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I347" s="12"/>
+      <c r="J347" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K347" s="17"/>
+      <c r="L347" s="4"/>
+    </row>
+    <row r="348" ht="12.75" customHeight="1">
+      <c r="A348" s="45" t="s">
         <v>835</v>
       </c>
-      <c r="E347" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F347" s="19" t="s">
-        <v>799</v>
-      </c>
-      <c r="G347" s="19"/>
-      <c r="H347" s="19"/>
-      <c r="I347" s="19"/>
-      <c r="J347" s="31"/>
-      <c r="K347" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L347" s="4"/>
-    </row>
-    <row r="348" ht="12.75" customHeight="1">
-      <c r="A348" s="19">
-        <f t="shared" ref="A348:A355" si="35">A347+1</f>
-        <v>250</v>
-      </c>
-      <c r="B348" s="46" t="s">
-        <v>836</v>
-      </c>
-      <c r="C348" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="D348" s="15" t="s">
-        <v>837</v>
-      </c>
-      <c r="E348" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F348" s="46" t="s">
-        <v>833</v>
-      </c>
-      <c r="G348" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="H348" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I348" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J348" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="K348" s="17" t="s">
-        <v>442</v>
-      </c>
+      <c r="B348" s="2"/>
+      <c r="C348" s="2"/>
+      <c r="D348" s="2"/>
+      <c r="E348" s="2"/>
+      <c r="F348" s="2"/>
+      <c r="G348" s="2"/>
+      <c r="H348" s="2"/>
+      <c r="I348" s="2"/>
+      <c r="J348" s="2"/>
+      <c r="K348" s="8"/>
       <c r="L348" s="4"/>
     </row>
     <row r="349" ht="12.75" customHeight="1">
       <c r="A349" s="19">
-        <f t="shared" si="35"/>
-        <v>251</v>
+        <f>A345+1</f>
+        <v>250</v>
       </c>
       <c r="B349" s="46" t="s">
+        <v>836</v>
+      </c>
+      <c r="C349" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="D349" s="31" t="s">
         <v>838</v>
       </c>
-      <c r="C349" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="D349" s="15" t="s">
-        <v>839</v>
-      </c>
-      <c r="E349" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F349" s="46" t="s">
-        <v>833</v>
-      </c>
-      <c r="G349" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="H349" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I349" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J349" s="17" t="s">
-        <v>840</v>
-      </c>
-      <c r="K349" s="17" t="s">
-        <v>442</v>
+      <c r="E349" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F349" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="G349" s="19"/>
+      <c r="H349" s="19"/>
+      <c r="I349" s="19"/>
+      <c r="J349" s="31"/>
+      <c r="K349" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="L349" s="4"/>
     </row>
     <row r="350" ht="12.75" customHeight="1">
       <c r="A350" s="19">
-        <f t="shared" si="35"/>
-        <v>252</v>
+        <f t="shared" ref="A350:A357" si="35">A349+1</f>
+        <v>251</v>
       </c>
       <c r="B350" s="46" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C350" s="14" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="D350" s="15" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E350" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F350" s="46" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="G350" s="14" t="s">
         <v>440</v>
@@ -15220,22 +15203,22 @@
     <row r="351" ht="12.75" customHeight="1">
       <c r="A351" s="19">
         <f t="shared" si="35"/>
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B351" s="46" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C351" s="14" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D351" s="15" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E351" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F351" s="46" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="G351" s="14" t="s">
         <v>440</v>
@@ -15247,7 +15230,7 @@
         <v>19</v>
       </c>
       <c r="J351" s="17" t="s">
-        <v>441</v>
+        <v>843</v>
       </c>
       <c r="K351" s="17" t="s">
         <v>442</v>
@@ -15257,22 +15240,22 @@
     <row r="352" ht="12.75" customHeight="1">
       <c r="A352" s="19">
         <f t="shared" si="35"/>
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B352" s="46" t="s">
+        <v>844</v>
+      </c>
+      <c r="C352" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D352" s="15" t="s">
         <v>845</v>
       </c>
-      <c r="C352" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="D352" s="15" t="s">
-        <v>562</v>
-      </c>
       <c r="E352" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F352" s="19" t="s">
-        <v>799</v>
+      <c r="F352" s="46" t="s">
+        <v>836</v>
       </c>
       <c r="G352" s="14" t="s">
         <v>440</v>
@@ -15289,26 +15272,27 @@
       <c r="K352" s="17" t="s">
         <v>442</v>
       </c>
+      <c r="L352" s="4"/>
     </row>
     <row r="353" ht="12.75" customHeight="1">
       <c r="A353" s="19">
         <f t="shared" si="35"/>
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B353" s="46" t="s">
         <v>846</v>
       </c>
       <c r="C353" s="14" t="s">
-        <v>546</v>
+        <v>487</v>
       </c>
       <c r="D353" s="15" t="s">
-        <v>547</v>
+        <v>847</v>
       </c>
       <c r="E353" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F353" s="19" t="s">
-        <v>799</v>
+      <c r="F353" s="46" t="s">
+        <v>836</v>
       </c>
       <c r="G353" s="14" t="s">
         <v>440</v>
@@ -15325,26 +15309,27 @@
       <c r="K353" s="17" t="s">
         <v>442</v>
       </c>
+      <c r="L353" s="4"/>
     </row>
     <row r="354" ht="12.75" customHeight="1">
       <c r="A354" s="19">
         <f t="shared" si="35"/>
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B354" s="46" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C354" s="14" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="D354" s="15" t="s">
-        <v>848</v>
+        <v>562</v>
       </c>
       <c r="E354" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F354" s="19" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="G354" s="14" t="s">
         <v>440</v>
@@ -15365,22 +15350,22 @@
     <row r="355" ht="12.75" customHeight="1">
       <c r="A355" s="19">
         <f t="shared" si="35"/>
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B355" s="46" t="s">
         <v>849</v>
       </c>
-      <c r="C355" s="72" t="s">
-        <v>573</v>
+      <c r="C355" s="14" t="s">
+        <v>546</v>
       </c>
       <c r="D355" s="15" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="E355" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F355" s="19" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="G355" s="14" t="s">
         <v>440</v>
@@ -15399,53 +15384,79 @@
       </c>
     </row>
     <row r="356" ht="12.75" customHeight="1">
-      <c r="A356" s="19"/>
-      <c r="B356" s="2"/>
-      <c r="C356" s="2"/>
-      <c r="D356" s="2"/>
-      <c r="E356" s="2"/>
-      <c r="F356" s="2"/>
-      <c r="G356" s="2"/>
-      <c r="H356" s="2"/>
-      <c r="I356" s="2"/>
-      <c r="J356" s="8"/>
-      <c r="K356" s="17"/>
+      <c r="A356" s="19">
+        <f t="shared" si="35"/>
+        <v>257</v>
+      </c>
+      <c r="B356" s="46" t="s">
+        <v>850</v>
+      </c>
+      <c r="C356" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="D356" s="15" t="s">
+        <v>851</v>
+      </c>
+      <c r="E356" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F356" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="G356" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="H356" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I356" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J356" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="K356" s="17" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="357" ht="12.75" customHeight="1">
-      <c r="A357" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B357" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C357" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D357" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E357" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F357" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G357" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H357" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I357" s="12"/>
-      <c r="J357" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K357" s="17"/>
+      <c r="A357" s="19">
+        <f t="shared" si="35"/>
+        <v>258</v>
+      </c>
+      <c r="B357" s="46" t="s">
+        <v>852</v>
+      </c>
+      <c r="C357" s="72" t="s">
+        <v>573</v>
+      </c>
+      <c r="D357" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="E357" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F357" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="G357" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="H357" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I357" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J357" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="K357" s="17" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="358" ht="12.75" customHeight="1">
-      <c r="A358" s="45" t="s">
-        <v>850</v>
-      </c>
+      <c r="A358" s="19"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -15454,164 +15465,138 @@
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
       <c r="I358" s="2"/>
-      <c r="J358" s="2"/>
-      <c r="K358" s="8"/>
+      <c r="J358" s="8"/>
+      <c r="K358" s="17"/>
     </row>
     <row r="359" ht="12.75" customHeight="1">
-      <c r="A359" s="19">
-        <f>A355+1</f>
-        <v>258</v>
-      </c>
-      <c r="B359" s="46" t="s">
-        <v>851</v>
-      </c>
-      <c r="C359" s="19" t="s">
-        <v>852</v>
-      </c>
-      <c r="D359" s="31" t="s">
+      <c r="A359" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B359" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C359" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D359" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E359" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F359" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G359" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H359" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I359" s="12"/>
+      <c r="J359" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K359" s="17"/>
+    </row>
+    <row r="360" ht="12.75" customHeight="1">
+      <c r="A360" s="45" t="s">
         <v>853</v>
       </c>
-      <c r="E359" s="19" t="s">
+      <c r="B360" s="2"/>
+      <c r="C360" s="2"/>
+      <c r="D360" s="2"/>
+      <c r="E360" s="2"/>
+      <c r="F360" s="2"/>
+      <c r="G360" s="2"/>
+      <c r="H360" s="2"/>
+      <c r="I360" s="2"/>
+      <c r="J360" s="2"/>
+      <c r="K360" s="8"/>
+    </row>
+    <row r="361" ht="12.75" customHeight="1">
+      <c r="A361" s="19">
+        <f>A357+1</f>
+        <v>259</v>
+      </c>
+      <c r="B361" s="46" t="s">
+        <v>854</v>
+      </c>
+      <c r="C361" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="D361" s="31" t="s">
+        <v>856</v>
+      </c>
+      <c r="E361" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F359" s="19" t="s">
-        <v>799</v>
-      </c>
-      <c r="G359" s="19"/>
-      <c r="H359" s="19"/>
-      <c r="I359" s="19"/>
-      <c r="J359" s="31"/>
-      <c r="K359" s="11" t="s">
+      <c r="F361" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="G361" s="19"/>
+      <c r="H361" s="19"/>
+      <c r="I361" s="19"/>
+      <c r="J361" s="31"/>
+      <c r="K361" s="11" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="360" ht="12.75" customHeight="1">
-      <c r="A360" s="19">
-        <f t="shared" ref="A360:A366" si="36">A359+1</f>
-        <v>259</v>
-      </c>
-      <c r="B360" s="46" t="s">
-        <v>854</v>
-      </c>
-      <c r="C360" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="D360" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="E360" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F360" s="46" t="s">
-        <v>851</v>
-      </c>
-      <c r="G360" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="H360" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I360" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J360" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="K360" s="17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="19">
-        <f t="shared" si="36"/>
-        <v>260</v>
-      </c>
-      <c r="B361" s="46" t="s">
-        <v>855</v>
-      </c>
-      <c r="C361" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="D361" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="E361" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F361" s="46" t="s">
-        <v>851</v>
-      </c>
-      <c r="G361" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="H361" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I361" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J361" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="K361" s="17" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="362" ht="12.75" customHeight="1">
       <c r="A362" s="19">
+        <f t="shared" ref="A362:A368" si="36">A361+1</f>
+        <v>260</v>
+      </c>
+      <c r="B362" s="46" t="s">
+        <v>857</v>
+      </c>
+      <c r="C362" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="D362" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="E362" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F362" s="46" t="s">
+        <v>854</v>
+      </c>
+      <c r="G362" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="H362" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I362" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J362" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="K362" s="17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="19">
         <f t="shared" si="36"/>
         <v>261</v>
       </c>
-      <c r="B362" s="46" t="s">
-        <v>856</v>
-      </c>
-      <c r="C362" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="D362" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="E362" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F362" s="46" t="s">
-        <v>851</v>
-      </c>
-      <c r="G362" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="H362" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I362" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J362" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="K362" s="17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="363" ht="12.75" customHeight="1">
-      <c r="A363" s="19">
-        <f t="shared" si="36"/>
-        <v>262</v>
-      </c>
       <c r="B363" s="46" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C363" s="14" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D363" s="15" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="E363" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F363" s="46" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="G363" s="14" t="s">
         <v>440</v>
@@ -15632,22 +15617,22 @@
     <row r="364" ht="12.75" customHeight="1">
       <c r="A364" s="19">
         <f t="shared" si="36"/>
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B364" s="46" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C364" s="14" t="s">
-        <v>438</v>
+        <v>598</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>859</v>
+        <v>599</v>
       </c>
       <c r="E364" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F364" s="19" t="s">
-        <v>799</v>
+      <c r="F364" s="46" t="s">
+        <v>854</v>
       </c>
       <c r="G364" s="14" t="s">
         <v>440</v>
@@ -15668,22 +15653,22 @@
     <row r="365" ht="12.75" customHeight="1">
       <c r="A365" s="19">
         <f t="shared" si="36"/>
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B365" s="46" t="s">
         <v>860</v>
       </c>
       <c r="C365" s="14" t="s">
-        <v>444</v>
+        <v>604</v>
       </c>
       <c r="D365" s="15" t="s">
-        <v>861</v>
+        <v>605</v>
       </c>
       <c r="E365" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F365" s="19" t="s">
-        <v>799</v>
+      <c r="F365" s="46" t="s">
+        <v>854</v>
       </c>
       <c r="G365" s="14" t="s">
         <v>440</v>
@@ -15704,22 +15689,22 @@
     <row r="366" ht="12.75" customHeight="1">
       <c r="A366" s="19">
         <f t="shared" si="36"/>
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B366" s="46" t="s">
+        <v>861</v>
+      </c>
+      <c r="C366" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D366" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="C366" s="14" t="s">
-        <v>863</v>
-      </c>
-      <c r="D366" s="15" t="s">
-        <v>864</v>
-      </c>
       <c r="E366" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F366" s="19" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="G366" s="14" t="s">
         <v>440</v>
@@ -15733,58 +15718,84 @@
       <c r="J366" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="K366" s="73" t="s">
+      <c r="K366" s="17" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="367" ht="12.75" customHeight="1">
-      <c r="A367" s="19"/>
-      <c r="B367" s="2"/>
-      <c r="C367" s="2"/>
-      <c r="D367" s="2"/>
-      <c r="E367" s="2"/>
-      <c r="F367" s="2"/>
-      <c r="G367" s="2"/>
-      <c r="H367" s="2"/>
-      <c r="I367" s="2"/>
-      <c r="J367" s="8"/>
-      <c r="K367" s="17"/>
+      <c r="A367" s="19">
+        <f t="shared" si="36"/>
+        <v>265</v>
+      </c>
+      <c r="B367" s="46" t="s">
+        <v>863</v>
+      </c>
+      <c r="C367" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="D367" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="E367" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F367" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="G367" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="H367" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I367" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J367" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="K367" s="17" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="368" ht="12.75" customHeight="1">
-      <c r="A368" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B368" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C368" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D368" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E368" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F368" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G368" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H368" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I368" s="12"/>
-      <c r="J368" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K368" s="17"/>
+      <c r="A368" s="19">
+        <f t="shared" si="36"/>
+        <v>266</v>
+      </c>
+      <c r="B368" s="46" t="s">
+        <v>865</v>
+      </c>
+      <c r="C368" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="D368" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="E368" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F368" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="G368" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="H368" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I368" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J368" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="K368" s="73" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="369" ht="12.75" customHeight="1">
-      <c r="A369" s="74" t="s">
-        <v>865</v>
-      </c>
+      <c r="A369" s="19"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
@@ -15793,132 +15804,112 @@
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
       <c r="I369" s="2"/>
-      <c r="J369" s="2"/>
-      <c r="K369" s="8"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="75">
-        <f>A366+1</f>
-        <v>266</v>
-      </c>
-      <c r="B370" s="76" t="s">
-        <v>866</v>
-      </c>
-      <c r="C370" s="77" t="s">
-        <v>867</v>
-      </c>
-      <c r="D370" s="78" t="s">
+      <c r="J369" s="8"/>
+      <c r="K369" s="17"/>
+    </row>
+    <row r="370" ht="12.75" customHeight="1">
+      <c r="A370" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B370" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C370" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D370" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E370" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F370" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G370" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H370" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I370" s="12"/>
+      <c r="J370" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K370" s="17"/>
+    </row>
+    <row r="371" ht="12.75" customHeight="1">
+      <c r="A371" s="74" t="s">
         <v>868</v>
       </c>
-      <c r="E370" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="F370" s="68" t="s">
-        <v>799</v>
-      </c>
-      <c r="G370" s="77"/>
-      <c r="H370" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="I370" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="J370" s="80" t="s">
+      <c r="B371" s="2"/>
+      <c r="C371" s="2"/>
+      <c r="D371" s="2"/>
+      <c r="E371" s="2"/>
+      <c r="F371" s="2"/>
+      <c r="G371" s="2"/>
+      <c r="H371" s="2"/>
+      <c r="I371" s="2"/>
+      <c r="J371" s="2"/>
+      <c r="K371" s="8"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="75">
+        <f>A368+1</f>
+        <v>267</v>
+      </c>
+      <c r="B372" s="76" t="s">
         <v>869</v>
       </c>
-      <c r="K370" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="371" ht="12.75" customHeight="1">
-      <c r="A371" s="75">
-        <f t="shared" ref="A371:A372" si="37">A370+1</f>
-        <v>267</v>
-      </c>
-      <c r="B371" s="76" t="s">
+      <c r="C372" s="77" t="s">
         <v>870</v>
       </c>
-      <c r="C371" s="77" t="s">
+      <c r="D372" s="78" t="s">
         <v>871</v>
-      </c>
-      <c r="D371" s="81" t="s">
-        <v>872</v>
-      </c>
-      <c r="E371" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="F371" s="68" t="s">
-        <v>866</v>
-      </c>
-      <c r="G371" s="77" t="s">
-        <v>716</v>
-      </c>
-      <c r="H371" s="79" t="s">
-        <v>492</v>
-      </c>
-      <c r="I371" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J371" s="83"/>
-      <c r="K371" s="17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="372" ht="12.75" customHeight="1">
-      <c r="A372" s="75">
-        <f t="shared" si="37"/>
-        <v>268</v>
-      </c>
-      <c r="B372" s="76" t="s">
-        <v>873</v>
-      </c>
-      <c r="C372" s="77" t="s">
-        <v>874</v>
-      </c>
-      <c r="D372" s="81" t="s">
-        <v>875</v>
       </c>
       <c r="E372" s="77" t="s">
         <v>16</v>
       </c>
       <c r="F372" s="68" t="s">
-        <v>866</v>
-      </c>
-      <c r="G372" s="77" t="s">
-        <v>876</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="G372" s="77"/>
       <c r="H372" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="I372" s="82" t="s">
+      <c r="I372" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="J372" s="83"/>
-      <c r="K372" s="17" t="s">
-        <v>442</v>
+      <c r="J372" s="80" t="s">
+        <v>872</v>
+      </c>
+      <c r="K372" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="373" ht="12.75" customHeight="1">
       <c r="A373" s="75">
-        <f>A372+1</f>
-        <v>269</v>
+        <f t="shared" ref="A373:A374" si="37">A372+1</f>
+        <v>268</v>
       </c>
       <c r="B373" s="76" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C373" s="77" t="s">
-        <v>626</v>
+        <v>874</v>
       </c>
       <c r="D373" s="81" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E373" s="77" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F373" s="68" t="s">
-        <v>873</v>
-      </c>
-      <c r="G373" s="77"/>
+        <v>869</v>
+      </c>
+      <c r="G373" s="77" t="s">
+        <v>719</v>
+      </c>
       <c r="H373" s="79" t="s">
         <v>492</v>
       </c>
@@ -15932,123 +15923,127 @@
     </row>
     <row r="374" ht="12.75" customHeight="1">
       <c r="A374" s="75">
-        <f t="shared" ref="A374:A380" si="38">A373+1</f>
-        <v>270</v>
+        <f t="shared" si="37"/>
+        <v>269</v>
       </c>
       <c r="B374" s="76" t="s">
+        <v>876</v>
+      </c>
+      <c r="C374" s="77" t="s">
+        <v>877</v>
+      </c>
+      <c r="D374" s="81" t="s">
+        <v>878</v>
+      </c>
+      <c r="E374" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="F374" s="68" t="s">
+        <v>869</v>
+      </c>
+      <c r="G374" s="77" t="s">
         <v>879</v>
       </c>
-      <c r="C374" s="77" t="s">
-        <v>640</v>
-      </c>
-      <c r="D374" s="81" t="s">
-        <v>880</v>
-      </c>
-      <c r="E374" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="F374" s="68" t="s">
-        <v>877</v>
-      </c>
-      <c r="G374" s="77" t="s">
-        <v>716</v>
-      </c>
       <c r="H374" s="79" t="s">
-        <v>492</v>
+        <v>109</v>
       </c>
       <c r="I374" s="82" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="J374" s="83"/>
-      <c r="K374" s="73" t="s">
+      <c r="K374" s="17" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="375" ht="12.75" customHeight="1">
       <c r="A375" s="75">
-        <f t="shared" si="38"/>
-        <v>271</v>
+        <f>A374+1</f>
+        <v>270</v>
       </c>
       <c r="B375" s="76" t="s">
+        <v>880</v>
+      </c>
+      <c r="C375" s="77" t="s">
+        <v>626</v>
+      </c>
+      <c r="D375" s="81" t="s">
         <v>881</v>
       </c>
-      <c r="C375" s="84" t="s">
-        <v>646</v>
-      </c>
-      <c r="D375" s="85" t="s">
-        <v>882</v>
-      </c>
-      <c r="E375" s="84" t="s">
-        <v>24</v>
+      <c r="E375" s="77" t="s">
+        <v>16</v>
       </c>
       <c r="F375" s="68" t="s">
-        <v>877</v>
-      </c>
-      <c r="G375" s="84" t="s">
-        <v>716</v>
-      </c>
+        <v>876</v>
+      </c>
+      <c r="G375" s="77"/>
       <c r="H375" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="I375" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J375" s="86"/>
-      <c r="K375" s="87"/>
+      <c r="I375" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J375" s="83"/>
+      <c r="K375" s="17" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="376" ht="12.75" customHeight="1">
       <c r="A376" s="75">
-        <f t="shared" si="38"/>
-        <v>272</v>
+        <f t="shared" ref="A376:A382" si="38">A375+1</f>
+        <v>271</v>
       </c>
       <c r="B376" s="76" t="s">
+        <v>882</v>
+      </c>
+      <c r="C376" s="77" t="s">
+        <v>640</v>
+      </c>
+      <c r="D376" s="81" t="s">
         <v>883</v>
       </c>
-      <c r="C376" s="84" t="s">
-        <v>658</v>
-      </c>
-      <c r="D376" s="85" t="s">
-        <v>884</v>
-      </c>
-      <c r="E376" s="84" t="s">
+      <c r="E376" s="77" t="s">
         <v>24</v>
       </c>
       <c r="F376" s="68" t="s">
-        <v>877</v>
-      </c>
-      <c r="G376" s="84" t="s">
-        <v>716</v>
+        <v>880</v>
+      </c>
+      <c r="G376" s="77" t="s">
+        <v>719</v>
       </c>
       <c r="H376" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="I376" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J376" s="86"/>
-      <c r="K376" s="87"/>
+      <c r="I376" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J376" s="83"/>
+      <c r="K376" s="73" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="377" ht="12.75" customHeight="1">
       <c r="A377" s="75">
         <f t="shared" si="38"/>
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B377" s="76" t="s">
+        <v>884</v>
+      </c>
+      <c r="C377" s="84" t="s">
+        <v>646</v>
+      </c>
+      <c r="D377" s="85" t="s">
         <v>885</v>
       </c>
-      <c r="C377" s="84" t="s">
-        <v>662</v>
-      </c>
-      <c r="D377" s="85" t="s">
-        <v>886</v>
-      </c>
       <c r="E377" s="84" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F377" s="68" t="s">
-        <v>873</v>
-      </c>
-      <c r="G377" s="84"/>
+        <v>880</v>
+      </c>
+      <c r="G377" s="84" t="s">
+        <v>719</v>
+      </c>
       <c r="H377" s="79" t="s">
         <v>492</v>
       </c>
@@ -16061,25 +16056,25 @@
     <row r="378" ht="12.75" customHeight="1">
       <c r="A378" s="75">
         <f t="shared" si="38"/>
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B378" s="76" t="s">
+        <v>886</v>
+      </c>
+      <c r="C378" s="84" t="s">
+        <v>658</v>
+      </c>
+      <c r="D378" s="85" t="s">
         <v>887</v>
       </c>
-      <c r="C378" s="84" t="s">
-        <v>640</v>
-      </c>
-      <c r="D378" s="85" t="s">
+      <c r="E378" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F378" s="68" t="s">
         <v>880</v>
       </c>
-      <c r="E378" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F378" s="68" t="s">
-        <v>885</v>
-      </c>
       <c r="G378" s="84" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="H378" s="79" t="s">
         <v>492</v>
@@ -16093,26 +16088,24 @@
     <row r="379" ht="12.75" customHeight="1">
       <c r="A379" s="75">
         <f t="shared" si="38"/>
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B379" s="76" t="s">
         <v>888</v>
       </c>
       <c r="C379" s="84" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="D379" s="85" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="E379" s="84" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F379" s="68" t="s">
-        <v>885</v>
-      </c>
-      <c r="G379" s="84" t="s">
-        <v>716</v>
-      </c>
+        <v>876</v>
+      </c>
+      <c r="G379" s="84"/>
       <c r="H379" s="79" t="s">
         <v>492</v>
       </c>
@@ -16125,25 +16118,25 @@
     <row r="380" ht="12.75" customHeight="1">
       <c r="A380" s="75">
         <f t="shared" si="38"/>
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B380" s="76" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C380" s="84" t="s">
-        <v>677</v>
+        <v>640</v>
       </c>
       <c r="D380" s="85" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="E380" s="84" t="s">
         <v>24</v>
       </c>
       <c r="F380" s="68" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="G380" s="84" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="H380" s="79" t="s">
         <v>492</v>
@@ -16156,90 +16149,90 @@
     </row>
     <row r="381" ht="12.75" customHeight="1">
       <c r="A381" s="75">
-        <f>A380+1</f>
-        <v>277</v>
+        <f t="shared" si="38"/>
+        <v>276</v>
       </c>
       <c r="B381" s="76" t="s">
         <v>891</v>
       </c>
-      <c r="C381" s="77" t="s">
-        <v>892</v>
-      </c>
-      <c r="D381" s="81" t="s">
-        <v>893</v>
-      </c>
-      <c r="E381" s="77" t="s">
+      <c r="C381" s="84" t="s">
+        <v>646</v>
+      </c>
+      <c r="D381" s="85" t="s">
+        <v>885</v>
+      </c>
+      <c r="E381" s="84" t="s">
         <v>24</v>
       </c>
       <c r="F381" s="68" t="s">
-        <v>873</v>
-      </c>
-      <c r="G381" s="77" t="s">
-        <v>716</v>
+        <v>888</v>
+      </c>
+      <c r="G381" s="84" t="s">
+        <v>719</v>
       </c>
       <c r="H381" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="I381" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J381" s="83"/>
+      <c r="I381" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="J381" s="86"/>
       <c r="K381" s="87"/>
     </row>
     <row r="382" ht="12.75" customHeight="1">
       <c r="A382" s="75">
-        <f t="shared" ref="A382:A383" si="39">A381+1</f>
-        <v>278</v>
+        <f t="shared" si="38"/>
+        <v>277</v>
       </c>
       <c r="B382" s="76" t="s">
-        <v>894</v>
-      </c>
-      <c r="C382" s="77" t="s">
-        <v>741</v>
-      </c>
-      <c r="D382" s="81" t="s">
-        <v>895</v>
-      </c>
-      <c r="E382" s="77" t="s">
+        <v>892</v>
+      </c>
+      <c r="C382" s="84" t="s">
+        <v>677</v>
+      </c>
+      <c r="D382" s="85" t="s">
+        <v>893</v>
+      </c>
+      <c r="E382" s="84" t="s">
         <v>24</v>
       </c>
       <c r="F382" s="68" t="s">
-        <v>873</v>
-      </c>
-      <c r="G382" s="77" t="s">
-        <v>716</v>
+        <v>888</v>
+      </c>
+      <c r="G382" s="84" t="s">
+        <v>719</v>
       </c>
       <c r="H382" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="I382" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J382" s="83"/>
+      <c r="I382" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="J382" s="86"/>
       <c r="K382" s="87"/>
     </row>
     <row r="383" ht="12.75" customHeight="1">
       <c r="A383" s="75">
-        <f t="shared" si="39"/>
-        <v>279</v>
+        <f>A382+1</f>
+        <v>278</v>
       </c>
       <c r="B383" s="76" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C383" s="77" t="s">
-        <v>744</v>
+        <v>680</v>
       </c>
       <c r="D383" s="81" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E383" s="77" t="s">
         <v>24</v>
       </c>
       <c r="F383" s="68" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="G383" s="77" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="H383" s="79" t="s">
         <v>492</v>
@@ -16252,120 +16245,120 @@
     </row>
     <row r="384" ht="12.75" customHeight="1">
       <c r="A384" s="75">
-        <f>A383+1</f>
-        <v>280</v>
+        <f t="shared" ref="A384:A385" si="39">A383+1</f>
+        <v>279</v>
       </c>
       <c r="B384" s="76" t="s">
-        <v>898</v>
-      </c>
-      <c r="C384" s="84" t="s">
-        <v>681</v>
-      </c>
-      <c r="D384" s="85" t="s">
-        <v>899</v>
-      </c>
-      <c r="E384" s="84" t="s">
-        <v>16</v>
+        <v>896</v>
+      </c>
+      <c r="C384" s="77" t="s">
+        <v>744</v>
+      </c>
+      <c r="D384" s="81" t="s">
+        <v>897</v>
+      </c>
+      <c r="E384" s="77" t="s">
+        <v>24</v>
       </c>
       <c r="F384" s="68" t="s">
-        <v>866</v>
-      </c>
-      <c r="G384" s="84"/>
+        <v>876</v>
+      </c>
+      <c r="G384" s="77" t="s">
+        <v>719</v>
+      </c>
       <c r="H384" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="I384" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="J384" s="86"/>
+        <v>492</v>
+      </c>
+      <c r="I384" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J384" s="83"/>
       <c r="K384" s="87"/>
     </row>
     <row r="385" ht="12.75" customHeight="1">
       <c r="A385" s="75">
-        <f t="shared" ref="A385:A389" si="40">A384+1</f>
-        <v>281</v>
+        <f t="shared" si="39"/>
+        <v>280</v>
       </c>
       <c r="B385" s="76" t="s">
-        <v>900</v>
-      </c>
-      <c r="C385" s="84" t="s">
-        <v>640</v>
-      </c>
-      <c r="D385" s="85" t="s">
-        <v>880</v>
-      </c>
-      <c r="E385" s="84" t="s">
+        <v>898</v>
+      </c>
+      <c r="C385" s="77" t="s">
+        <v>747</v>
+      </c>
+      <c r="D385" s="81" t="s">
+        <v>899</v>
+      </c>
+      <c r="E385" s="77" t="s">
         <v>24</v>
       </c>
       <c r="F385" s="68" t="s">
-        <v>898</v>
-      </c>
-      <c r="G385" s="84" t="s">
-        <v>716</v>
+        <v>876</v>
+      </c>
+      <c r="G385" s="77" t="s">
+        <v>719</v>
       </c>
       <c r="H385" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="I385" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J385" s="86"/>
+      <c r="I385" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J385" s="83"/>
       <c r="K385" s="87"/>
     </row>
     <row r="386" ht="12.75" customHeight="1">
       <c r="A386" s="75">
-        <f t="shared" si="40"/>
-        <v>282</v>
+        <f>A385+1</f>
+        <v>281</v>
       </c>
       <c r="B386" s="76" t="s">
+        <v>900</v>
+      </c>
+      <c r="C386" s="84" t="s">
+        <v>684</v>
+      </c>
+      <c r="D386" s="85" t="s">
         <v>901</v>
       </c>
-      <c r="C386" s="84" t="s">
-        <v>646</v>
-      </c>
-      <c r="D386" s="85" t="s">
-        <v>882</v>
-      </c>
       <c r="E386" s="84" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F386" s="68" t="s">
-        <v>898</v>
-      </c>
-      <c r="G386" s="84" t="s">
-        <v>716</v>
-      </c>
+        <v>869</v>
+      </c>
+      <c r="G386" s="84"/>
       <c r="H386" s="79" t="s">
-        <v>492</v>
+        <v>109</v>
       </c>
       <c r="I386" s="84" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="J386" s="86"/>
       <c r="K386" s="87"/>
     </row>
     <row r="387" ht="12.75" customHeight="1">
       <c r="A387" s="75">
-        <f t="shared" si="40"/>
-        <v>283</v>
+        <f t="shared" ref="A387:A391" si="40">A386+1</f>
+        <v>282</v>
       </c>
       <c r="B387" s="76" t="s">
         <v>902</v>
       </c>
       <c r="C387" s="84" t="s">
-        <v>696</v>
+        <v>640</v>
       </c>
       <c r="D387" s="85" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
       <c r="E387" s="84" t="s">
         <v>24</v>
       </c>
       <c r="F387" s="68" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G387" s="84" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="H387" s="79" t="s">
         <v>492</v>
@@ -16379,25 +16372,25 @@
     <row r="388" ht="12.75" customHeight="1">
       <c r="A388" s="75">
         <f t="shared" si="40"/>
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B388" s="76" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C388" s="84" t="s">
-        <v>741</v>
+        <v>646</v>
       </c>
       <c r="D388" s="85" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="E388" s="84" t="s">
         <v>24</v>
       </c>
       <c r="F388" s="68" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G388" s="84" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="H388" s="79" t="s">
         <v>492</v>
@@ -16411,25 +16404,25 @@
     <row r="389" ht="12.75" customHeight="1">
       <c r="A389" s="75">
         <f t="shared" si="40"/>
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B389" s="76" t="s">
+        <v>904</v>
+      </c>
+      <c r="C389" s="84" t="s">
+        <v>699</v>
+      </c>
+      <c r="D389" s="85" t="s">
         <v>905</v>
       </c>
-      <c r="C389" s="84" t="s">
-        <v>744</v>
-      </c>
-      <c r="D389" s="85" t="s">
-        <v>906</v>
-      </c>
       <c r="E389" s="84" t="s">
         <v>24</v>
       </c>
       <c r="F389" s="68" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G389" s="84" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="H389" s="79" t="s">
         <v>492</v>
@@ -16442,218 +16435,212 @@
     </row>
     <row r="390" ht="12.75" customHeight="1">
       <c r="A390" s="75">
-        <f>A389+1</f>
+        <f t="shared" si="40"/>
+        <v>285</v>
+      </c>
+      <c r="B390" s="76" t="s">
+        <v>906</v>
+      </c>
+      <c r="C390" s="84" t="s">
+        <v>744</v>
+      </c>
+      <c r="D390" s="85" t="s">
+        <v>897</v>
+      </c>
+      <c r="E390" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F390" s="68" t="s">
+        <v>900</v>
+      </c>
+      <c r="G390" s="84" t="s">
+        <v>719</v>
+      </c>
+      <c r="H390" s="79" t="s">
+        <v>492</v>
+      </c>
+      <c r="I390" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="J390" s="86"/>
+      <c r="K390" s="87"/>
+    </row>
+    <row r="391" ht="12.75" customHeight="1">
+      <c r="A391" s="75">
+        <f t="shared" si="40"/>
         <v>286</v>
       </c>
-      <c r="B390" s="76" t="s">
+      <c r="B391" s="76" t="s">
         <v>907</v>
       </c>
-      <c r="C390" s="68" t="s">
+      <c r="C391" s="84" t="s">
+        <v>747</v>
+      </c>
+      <c r="D391" s="85" t="s">
         <v>908</v>
       </c>
-      <c r="D390" s="78" t="s">
+      <c r="E391" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F391" s="68" t="s">
+        <v>900</v>
+      </c>
+      <c r="G391" s="84" t="s">
+        <v>719</v>
+      </c>
+      <c r="H391" s="79" t="s">
+        <v>492</v>
+      </c>
+      <c r="I391" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="J391" s="86"/>
+      <c r="K391" s="87"/>
+    </row>
+    <row r="392" ht="12.75" customHeight="1">
+      <c r="A392" s="75">
+        <f>A391+1</f>
+        <v>287</v>
+      </c>
+      <c r="B392" s="76" t="s">
         <v>909</v>
       </c>
-      <c r="E390" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F390" s="68" t="s">
-        <v>799</v>
-      </c>
-      <c r="G390" s="84" t="s">
-        <v>716</v>
-      </c>
-      <c r="H390" s="88" t="s">
+      <c r="C392" s="68" t="s">
+        <v>910</v>
+      </c>
+      <c r="D392" s="78" t="s">
+        <v>911</v>
+      </c>
+      <c r="E392" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F392" s="68" t="s">
+        <v>802</v>
+      </c>
+      <c r="G392" s="84" t="s">
+        <v>719</v>
+      </c>
+      <c r="H392" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="I390" s="68" t="s">
+      <c r="I392" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="J390" s="89" t="s">
-        <v>910</v>
-      </c>
-      <c r="K390" s="90"/>
-    </row>
-    <row r="391" ht="12.75" customHeight="1">
-      <c r="A391" s="19"/>
-      <c r="B391" s="46"/>
-      <c r="C391" s="47"/>
-      <c r="D391" s="47"/>
-      <c r="E391" s="47"/>
-      <c r="F391" s="47"/>
-      <c r="G391" s="47"/>
-      <c r="H391" s="47"/>
-      <c r="I391" s="47"/>
-      <c r="J391" s="47"/>
-      <c r="K391" s="73"/>
-    </row>
-    <row r="392" ht="12.75" customHeight="1">
-      <c r="A392" s="9" t="s">
+      <c r="J392" s="89" t="s">
+        <v>912</v>
+      </c>
+      <c r="K392" s="90"/>
+    </row>
+    <row r="393" ht="12.75" customHeight="1">
+      <c r="A393" s="19"/>
+      <c r="B393" s="46"/>
+      <c r="C393" s="47"/>
+      <c r="D393" s="47"/>
+      <c r="E393" s="47"/>
+      <c r="F393" s="47"/>
+      <c r="G393" s="47"/>
+      <c r="H393" s="47"/>
+      <c r="I393" s="47"/>
+      <c r="J393" s="47"/>
+      <c r="K393" s="73"/>
+    </row>
+    <row r="394" ht="12.75" customHeight="1">
+      <c r="A394" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B392" s="9" t="s">
+      <c r="B394" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C392" s="10" t="s">
+      <c r="C394" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D392" s="11" t="s">
+      <c r="D394" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E392" s="12" t="s">
+      <c r="E394" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F392" s="12" t="s">
+      <c r="F394" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G392" s="12" t="s">
+      <c r="G394" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H392" s="12" t="s">
+      <c r="H394" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I392" s="12"/>
-      <c r="J392" s="11" t="s">
+      <c r="I394" s="12"/>
+      <c r="J394" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K392" s="73"/>
-    </row>
-    <row r="393" ht="12.75" customHeight="1">
-      <c r="A393" s="33" t="s">
-        <v>911</v>
-      </c>
-      <c r="B393" s="2"/>
-      <c r="C393" s="2"/>
-      <c r="D393" s="2"/>
-      <c r="E393" s="2"/>
-      <c r="F393" s="2"/>
-      <c r="G393" s="2"/>
-      <c r="H393" s="2"/>
-      <c r="I393" s="2"/>
-      <c r="J393" s="2"/>
-      <c r="K393" s="8"/>
-    </row>
-    <row r="394" ht="12.75" customHeight="1">
-      <c r="A394" s="19">
-        <f>A390+1</f>
-        <v>287</v>
-      </c>
-      <c r="B394" s="19" t="s">
-        <v>912</v>
-      </c>
-      <c r="C394" s="19" t="s">
+      <c r="K394" s="73"/>
+    </row>
+    <row r="395" ht="12.75" customHeight="1">
+      <c r="A395" s="33" t="s">
         <v>913</v>
       </c>
-      <c r="D394" s="31" t="s">
-        <v>914</v>
-      </c>
-      <c r="E394" s="19" t="s">
-        <v>829</v>
-      </c>
-      <c r="F394" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G394" s="19"/>
-      <c r="H394" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="I394" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J394" s="15"/>
-      <c r="K394" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="395" ht="12.75" customHeight="1">
-      <c r="A395" s="19">
-        <f t="shared" ref="A395:A398" si="41">A394+1</f>
-        <v>288</v>
-      </c>
-      <c r="B395" s="19" t="s">
-        <v>915</v>
-      </c>
-      <c r="C395" s="14" t="s">
-        <v>916</v>
-      </c>
-      <c r="D395" s="15" t="s">
-        <v>917</v>
-      </c>
-      <c r="E395" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F395" s="14" t="s">
-        <v>912</v>
-      </c>
-      <c r="G395" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="H395" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I395" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J395" s="17"/>
-      <c r="K395" s="17" t="s">
-        <v>279</v>
-      </c>
+      <c r="B395" s="2"/>
+      <c r="C395" s="2"/>
+      <c r="D395" s="2"/>
+      <c r="E395" s="2"/>
+      <c r="F395" s="2"/>
+      <c r="G395" s="2"/>
+      <c r="H395" s="2"/>
+      <c r="I395" s="2"/>
+      <c r="J395" s="2"/>
+      <c r="K395" s="8"/>
     </row>
     <row r="396" ht="12.75" customHeight="1">
       <c r="A396" s="19">
-        <f t="shared" si="41"/>
-        <v>289</v>
+        <f>A392+1</f>
+        <v>288</v>
       </c>
       <c r="B396" s="19" t="s">
-        <v>918</v>
-      </c>
-      <c r="C396" s="14" t="s">
-        <v>919</v>
-      </c>
-      <c r="D396" s="15" t="s">
-        <v>920</v>
-      </c>
-      <c r="E396" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F396" s="14" t="s">
-        <v>912</v>
-      </c>
-      <c r="G396" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="H396" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I396" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J396" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="K396" s="17" t="s">
-        <v>285</v>
+        <v>914</v>
+      </c>
+      <c r="C396" s="19" t="s">
+        <v>915</v>
+      </c>
+      <c r="D396" s="31" t="s">
+        <v>916</v>
+      </c>
+      <c r="E396" s="19" t="s">
+        <v>832</v>
+      </c>
+      <c r="F396" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G396" s="19"/>
+      <c r="H396" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I396" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J396" s="15"/>
+      <c r="K396" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="397" ht="12.75" customHeight="1">
       <c r="A397" s="19">
-        <f t="shared" si="41"/>
-        <v>290</v>
+        <f t="shared" ref="A397:A400" si="41">A396+1</f>
+        <v>289</v>
       </c>
       <c r="B397" s="19" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C397" s="14" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D397" s="15" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E397" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F397" s="14" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="G397" s="14" t="s">
         <v>278</v>
@@ -16672,22 +16659,22 @@
     <row r="398" ht="12.75" customHeight="1">
       <c r="A398" s="19">
         <f t="shared" si="41"/>
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B398" s="19" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C398" s="14" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D398" s="15" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="E398" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F398" s="14" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="G398" s="14" t="s">
         <v>283</v>
@@ -16706,53 +16693,77 @@
       </c>
     </row>
     <row r="399" ht="12.75" customHeight="1">
-      <c r="A399" s="19"/>
-      <c r="B399" s="2"/>
-      <c r="C399" s="2"/>
-      <c r="D399" s="2"/>
-      <c r="E399" s="2"/>
-      <c r="F399" s="2"/>
-      <c r="G399" s="2"/>
-      <c r="H399" s="2"/>
-      <c r="I399" s="2"/>
-      <c r="J399" s="2"/>
-      <c r="K399" s="17"/>
+      <c r="A399" s="19">
+        <f t="shared" si="41"/>
+        <v>291</v>
+      </c>
+      <c r="B399" s="19" t="s">
+        <v>923</v>
+      </c>
+      <c r="C399" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="D399" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="E399" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F399" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="G399" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H399" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I399" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J399" s="17"/>
+      <c r="K399" s="17" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="400" ht="12.75" customHeight="1">
-      <c r="A400" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B400" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C400" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D400" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E400" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F400" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G400" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H400" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I400" s="12"/>
-      <c r="J400" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K400" s="17"/>
+      <c r="A400" s="19">
+        <f t="shared" si="41"/>
+        <v>292</v>
+      </c>
+      <c r="B400" s="19" t="s">
+        <v>926</v>
+      </c>
+      <c r="C400" s="14" t="s">
+        <v>927</v>
+      </c>
+      <c r="D400" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="E400" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F400" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="G400" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="H400" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I400" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J400" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="K400" s="17" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="401" ht="12.75" customHeight="1">
-      <c r="A401" s="33" t="s">
-        <v>927</v>
-      </c>
+      <c r="A401" s="19"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -16762,132 +16773,108 @@
       <c r="H401" s="2"/>
       <c r="I401" s="2"/>
       <c r="J401" s="2"/>
-      <c r="K401" s="8"/>
+      <c r="K401" s="17"/>
     </row>
     <row r="402" ht="12.75" customHeight="1">
-      <c r="A402" s="19">
-        <f>A398+1</f>
-        <v>292</v>
-      </c>
-      <c r="B402" s="19" t="s">
-        <v>928</v>
-      </c>
-      <c r="C402" s="19" t="s">
+      <c r="A402" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B402" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C402" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D402" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E402" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F402" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G402" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H402" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I402" s="12"/>
+      <c r="J402" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K402" s="17"/>
+    </row>
+    <row r="403" ht="12.75" customHeight="1">
+      <c r="A403" s="33" t="s">
         <v>929</v>
       </c>
-      <c r="D402" s="31" t="s">
-        <v>930</v>
-      </c>
-      <c r="E402" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="F402" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G402" s="19"/>
-      <c r="H402" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="I402" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J402" s="31"/>
-      <c r="K402" s="11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="403" ht="12.75" customHeight="1">
-      <c r="A403" s="19">
-        <f t="shared" ref="A403:A410" si="42">A402+1</f>
-        <v>293</v>
-      </c>
-      <c r="B403" s="19" t="s">
-        <v>931</v>
-      </c>
-      <c r="C403" s="14" t="s">
-        <v>932</v>
-      </c>
-      <c r="D403" s="15" t="s">
-        <v>933</v>
-      </c>
-      <c r="E403" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F403" s="14" t="s">
-        <v>928</v>
-      </c>
-      <c r="G403" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="H403" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I403" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J403" s="17"/>
-      <c r="K403" s="17" t="s">
-        <v>343</v>
-      </c>
+      <c r="B403" s="2"/>
+      <c r="C403" s="2"/>
+      <c r="D403" s="2"/>
+      <c r="E403" s="2"/>
+      <c r="F403" s="2"/>
+      <c r="G403" s="2"/>
+      <c r="H403" s="2"/>
+      <c r="I403" s="2"/>
+      <c r="J403" s="2"/>
+      <c r="K403" s="8"/>
     </row>
     <row r="404" ht="12.75" customHeight="1">
       <c r="A404" s="19">
-        <f t="shared" si="42"/>
-        <v>294</v>
+        <f>A400+1</f>
+        <v>293</v>
       </c>
       <c r="B404" s="19" t="s">
-        <v>934</v>
-      </c>
-      <c r="C404" s="14" t="s">
-        <v>935</v>
-      </c>
-      <c r="D404" s="15" t="s">
-        <v>936</v>
-      </c>
-      <c r="E404" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F404" s="14" t="s">
-        <v>928</v>
-      </c>
-      <c r="G404" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="H404" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I404" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J404" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="K404" s="17" t="s">
-        <v>285</v>
+        <v>930</v>
+      </c>
+      <c r="C404" s="19" t="s">
+        <v>931</v>
+      </c>
+      <c r="D404" s="31" t="s">
+        <v>932</v>
+      </c>
+      <c r="E404" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="F404" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G404" s="19"/>
+      <c r="H404" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I404" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J404" s="31"/>
+      <c r="K404" s="11" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="405" ht="12.75" customHeight="1">
       <c r="A405" s="19">
-        <f t="shared" si="42"/>
-        <v>295</v>
+        <f t="shared" ref="A405:A412" si="42">A404+1</f>
+        <v>294</v>
       </c>
       <c r="B405" s="19" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C405" s="14" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D405" s="15" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E405" s="14" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="F405" s="14" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G405" s="14" t="s">
-        <v>283</v>
+        <v>342</v>
       </c>
       <c r="H405" s="16">
         <v>44927.0</v>
@@ -16895,32 +16882,30 @@
       <c r="I405" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J405" s="17" t="s">
-        <v>452</v>
-      </c>
+      <c r="J405" s="17"/>
       <c r="K405" s="17" t="s">
-        <v>453</v>
+        <v>343</v>
       </c>
     </row>
     <row r="406" ht="12.75" customHeight="1">
       <c r="A406" s="19">
         <f t="shared" si="42"/>
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B406" s="19" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C406" s="14" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D406" s="15" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E406" s="14" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="F406" s="14" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G406" s="14" t="s">
         <v>283</v>
@@ -16932,34 +16917,34 @@
         <v>19</v>
       </c>
       <c r="J406" s="17" t="s">
-        <v>452</v>
+        <v>284</v>
       </c>
       <c r="K406" s="17" t="s">
-        <v>453</v>
+        <v>285</v>
       </c>
     </row>
     <row r="407" ht="12.75" customHeight="1">
       <c r="A407" s="19">
         <f t="shared" si="42"/>
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B407" s="19" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C407" s="14" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D407" s="15" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="E407" s="14" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="F407" s="14" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G407" s="14" t="s">
-        <v>946</v>
+        <v>283</v>
       </c>
       <c r="H407" s="16">
         <v>44927.0</v>
@@ -16967,33 +16952,35 @@
       <c r="I407" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J407" s="17"/>
+      <c r="J407" s="17" t="s">
+        <v>452</v>
+      </c>
       <c r="K407" s="17" t="s">
-        <v>947</v>
+        <v>453</v>
       </c>
     </row>
     <row r="408" ht="12.75" customHeight="1">
       <c r="A408" s="19">
         <f t="shared" si="42"/>
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B408" s="19" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="C408" s="14" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="D408" s="15" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="E408" s="14" t="s">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="F408" s="14" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G408" s="14" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H408" s="16">
         <v>44927.0</v>
@@ -17001,33 +16988,35 @@
       <c r="I408" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J408" s="17"/>
+      <c r="J408" s="17" t="s">
+        <v>452</v>
+      </c>
       <c r="K408" s="17" t="s">
-        <v>279</v>
+        <v>453</v>
       </c>
     </row>
     <row r="409" ht="12.75" customHeight="1">
       <c r="A409" s="19">
         <f t="shared" si="42"/>
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B409" s="19" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="C409" s="14" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="D409" s="15" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="E409" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F409" s="14" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G409" s="14" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="H409" s="16">
         <v>44927.0</v>
@@ -17037,31 +17026,31 @@
       </c>
       <c r="J409" s="17"/>
       <c r="K409" s="17" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="410" ht="12.75" customHeight="1">
       <c r="A410" s="19">
         <f t="shared" si="42"/>
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B410" s="19" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="C410" s="14" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D410" s="15" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E410" s="14" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="F410" s="14" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G410" s="14" t="s">
-        <v>959</v>
+        <v>278</v>
       </c>
       <c r="H410" s="16">
         <v>44927.0</v>
@@ -17071,57 +17060,79 @@
       </c>
       <c r="J410" s="17"/>
       <c r="K410" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="411" ht="12.75" customHeight="1">
+      <c r="A411" s="19">
+        <f t="shared" si="42"/>
+        <v>300</v>
+      </c>
+      <c r="B411" s="19" t="s">
+        <v>953</v>
+      </c>
+      <c r="C411" s="14" t="s">
+        <v>954</v>
+      </c>
+      <c r="D411" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="E411" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F411" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="G411" s="14" t="s">
+        <v>956</v>
+      </c>
+      <c r="H411" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I411" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J411" s="17"/>
+      <c r="K411" s="17" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="412" ht="12.75" customHeight="1">
+      <c r="A412" s="19">
+        <f t="shared" si="42"/>
+        <v>301</v>
+      </c>
+      <c r="B412" s="19" t="s">
+        <v>958</v>
+      </c>
+      <c r="C412" s="14" t="s">
+        <v>959</v>
+      </c>
+      <c r="D412" s="15" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="411" ht="12.75" customHeight="1">
-      <c r="A411" s="19"/>
-      <c r="B411" s="2"/>
-      <c r="C411" s="2"/>
-      <c r="D411" s="2"/>
-      <c r="E411" s="2"/>
-      <c r="F411" s="2"/>
-      <c r="G411" s="2"/>
-      <c r="H411" s="2"/>
-      <c r="I411" s="2"/>
-      <c r="J411" s="2"/>
-      <c r="K411" s="17"/>
-    </row>
-    <row r="412" ht="12.75" customHeight="1">
-      <c r="A412" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B412" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C412" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D412" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E412" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F412" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G412" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H412" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I412" s="12"/>
-      <c r="J412" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K412" s="17"/>
+      <c r="E412" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F412" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="G412" s="14" t="s">
+        <v>961</v>
+      </c>
+      <c r="H412" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I412" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J412" s="17"/>
+      <c r="K412" s="17" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="413" ht="12.75" customHeight="1">
-      <c r="A413" s="33" t="s">
-        <v>961</v>
-      </c>
+      <c r="A413" s="19"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -17131,166 +17142,144 @@
       <c r="H413" s="2"/>
       <c r="I413" s="2"/>
       <c r="J413" s="2"/>
-      <c r="K413" s="8"/>
+      <c r="K413" s="17"/>
     </row>
     <row r="414" ht="12.75" customHeight="1">
-      <c r="A414" s="19">
-        <f>A410+1</f>
-        <v>301</v>
-      </c>
-      <c r="B414" s="19" t="s">
-        <v>962</v>
-      </c>
-      <c r="C414" s="19" t="s">
+      <c r="A414" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B414" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C414" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D414" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E414" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F414" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G414" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H414" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I414" s="12"/>
+      <c r="J414" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K414" s="17"/>
+    </row>
+    <row r="415" ht="12.75" customHeight="1">
+      <c r="A415" s="33" t="s">
         <v>963</v>
       </c>
-      <c r="D414" s="31" t="s">
-        <v>964</v>
-      </c>
-      <c r="E414" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F414" s="19" t="s">
-        <v>928</v>
-      </c>
-      <c r="G414" s="19"/>
-      <c r="H414" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="I414" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J414" s="15" t="s">
-        <v>965</v>
-      </c>
-      <c r="K414" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="415" ht="12.75" customHeight="1">
-      <c r="A415" s="19">
-        <f t="shared" ref="A415:A424" si="43">A414+1</f>
-        <v>302</v>
-      </c>
-      <c r="B415" s="19" t="s">
-        <v>966</v>
-      </c>
-      <c r="C415" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D415" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E415" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F415" s="14" t="s">
-        <v>962</v>
-      </c>
-      <c r="G415" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="H415" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I415" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J415" s="17"/>
-      <c r="K415" s="17" t="s">
-        <v>800</v>
-      </c>
+      <c r="B415" s="2"/>
+      <c r="C415" s="2"/>
+      <c r="D415" s="2"/>
+      <c r="E415" s="2"/>
+      <c r="F415" s="2"/>
+      <c r="G415" s="2"/>
+      <c r="H415" s="2"/>
+      <c r="I415" s="2"/>
+      <c r="J415" s="2"/>
+      <c r="K415" s="8"/>
     </row>
     <row r="416" ht="12.75" customHeight="1">
       <c r="A416" s="19">
-        <f t="shared" si="43"/>
-        <v>303</v>
+        <f>A412+1</f>
+        <v>302</v>
       </c>
       <c r="B416" s="19" t="s">
+        <v>964</v>
+      </c>
+      <c r="C416" s="19" t="s">
+        <v>965</v>
+      </c>
+      <c r="D416" s="31" t="s">
+        <v>966</v>
+      </c>
+      <c r="E416" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F416" s="19" t="s">
+        <v>930</v>
+      </c>
+      <c r="G416" s="19"/>
+      <c r="H416" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="I416" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J416" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="C416" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D416" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E416" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F416" s="14" t="s">
-        <v>962</v>
-      </c>
-      <c r="G416" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="H416" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I416" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J416" s="17"/>
-      <c r="K416" s="17" t="s">
-        <v>800</v>
+      <c r="K416" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="417" ht="12.75" customHeight="1">
       <c r="A417" s="19">
-        <f t="shared" si="43"/>
-        <v>304</v>
+        <f t="shared" ref="A417:A426" si="43">A416+1</f>
+        <v>303</v>
       </c>
       <c r="B417" s="19" t="s">
         <v>968</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D417" s="15" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E417" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F417" s="14" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G417" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="H417" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I417" s="14" t="s">
-        <v>110</v>
+        <v>162</v>
+      </c>
+      <c r="H417" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I417" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="J417" s="17"/>
       <c r="K417" s="17" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="418" ht="12.75" customHeight="1">
       <c r="A418" s="19">
         <f t="shared" si="43"/>
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B418" s="19" t="s">
         <v>969</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D418" s="15" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E418" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F418" s="14" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G418" s="14" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H418" s="16">
         <v>44927.0</v>
@@ -17300,62 +17289,62 @@
       </c>
       <c r="J418" s="17"/>
       <c r="K418" s="17" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="419" ht="12.75" customHeight="1">
       <c r="A419" s="19">
         <f t="shared" si="43"/>
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B419" s="19" t="s">
         <v>970</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D419" s="15" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E419" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F419" s="14" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G419" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H419" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I419" s="16" t="s">
-        <v>19</v>
+        <v>167</v>
+      </c>
+      <c r="H419" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I419" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="J419" s="17"/>
       <c r="K419" s="17" t="s">
-        <v>411</v>
+        <v>803</v>
       </c>
     </row>
     <row r="420" ht="12.75" customHeight="1">
       <c r="A420" s="19">
         <f t="shared" si="43"/>
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B420" s="19" t="s">
         <v>971</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D420" s="15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E420" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F420" s="14" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G420" s="14" t="s">
         <v>162</v>
@@ -17368,31 +17357,31 @@
       </c>
       <c r="J420" s="17"/>
       <c r="K420" s="17" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="421" ht="12.75" customHeight="1">
       <c r="A421" s="19">
         <f t="shared" si="43"/>
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B421" s="19" t="s">
         <v>972</v>
       </c>
       <c r="C421" s="14" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D421" s="15" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E421" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F421" s="14" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G421" s="14" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="H421" s="16">
         <v>44927.0</v>
@@ -17400,35 +17389,33 @@
       <c r="I421" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J421" s="17" t="s">
-        <v>146</v>
-      </c>
+      <c r="J421" s="17"/>
       <c r="K421" s="17" t="s">
-        <v>973</v>
+        <v>411</v>
       </c>
     </row>
     <row r="422" ht="12.75" customHeight="1">
       <c r="A422" s="19">
         <f t="shared" si="43"/>
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B422" s="19" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C422" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D422" s="15" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E422" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F422" s="14" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G422" s="14" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="H422" s="16">
         <v>44927.0</v>
@@ -17438,125 +17425,149 @@
       </c>
       <c r="J422" s="17"/>
       <c r="K422" s="17" t="s">
-        <v>975</v>
+        <v>803</v>
       </c>
     </row>
     <row r="423" ht="12.75" customHeight="1">
       <c r="A423" s="19">
         <f t="shared" si="43"/>
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B423" s="19" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D423" s="15" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E423" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F423" s="14" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G423" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H423" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I423" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J423" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="H423" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I423" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J423" s="17" t="s">
+        <v>146</v>
+      </c>
       <c r="K423" s="17" t="s">
-        <v>299</v>
+        <v>975</v>
       </c>
     </row>
     <row r="424" ht="12.75" customHeight="1">
       <c r="A424" s="19">
         <f t="shared" si="43"/>
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B424" s="19" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C424" s="14" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D424" s="15" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E424" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F424" s="14" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G424" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="H424" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I424" s="14" t="s">
-        <v>110</v>
+        <v>197</v>
+      </c>
+      <c r="H424" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I424" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="J424" s="17"/>
       <c r="K424" s="17" t="s">
-        <v>800</v>
+        <v>977</v>
       </c>
     </row>
     <row r="425" ht="12.75" customHeight="1">
-      <c r="A425" s="19"/>
-      <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
-      <c r="D425" s="2"/>
-      <c r="E425" s="2"/>
-      <c r="F425" s="2"/>
-      <c r="G425" s="2"/>
-      <c r="H425" s="2"/>
-      <c r="I425" s="2"/>
-      <c r="J425" s="2"/>
-      <c r="K425" s="17"/>
+      <c r="A425" s="19">
+        <f t="shared" si="43"/>
+        <v>311</v>
+      </c>
+      <c r="B425" s="19" t="s">
+        <v>978</v>
+      </c>
+      <c r="C425" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D425" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E425" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F425" s="14" t="s">
+        <v>964</v>
+      </c>
+      <c r="G425" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="H425" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I425" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J425" s="17"/>
+      <c r="K425" s="17" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="426" ht="12.75" customHeight="1">
-      <c r="A426" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B426" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C426" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D426" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E426" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F426" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G426" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H426" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I426" s="12"/>
-      <c r="J426" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K426" s="17"/>
+      <c r="A426" s="19">
+        <f t="shared" si="43"/>
+        <v>312</v>
+      </c>
+      <c r="B426" s="19" t="s">
+        <v>979</v>
+      </c>
+      <c r="C426" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D426" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E426" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F426" s="14" t="s">
+        <v>964</v>
+      </c>
+      <c r="G426" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H426" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I426" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J426" s="17"/>
+      <c r="K426" s="17" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="427" ht="12.75" customHeight="1">
-      <c r="A427" s="33" t="s">
-        <v>978</v>
-      </c>
+      <c r="A427" s="19"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -17566,122 +17577,122 @@
       <c r="H427" s="2"/>
       <c r="I427" s="2"/>
       <c r="J427" s="2"/>
-      <c r="K427" s="8"/>
+      <c r="K427" s="17"/>
     </row>
     <row r="428" ht="12.75" customHeight="1">
-      <c r="A428" s="19">
-        <f>A424+1</f>
-        <v>312</v>
-      </c>
-      <c r="B428" s="19" t="s">
-        <v>979</v>
-      </c>
-      <c r="C428" s="19" t="s">
+      <c r="A428" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B428" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C428" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D428" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E428" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F428" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G428" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H428" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I428" s="12"/>
+      <c r="J428" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K428" s="17"/>
+    </row>
+    <row r="429" ht="12.75" customHeight="1">
+      <c r="A429" s="33" t="s">
         <v>980</v>
       </c>
-      <c r="D428" s="31" t="s">
+      <c r="B429" s="2"/>
+      <c r="C429" s="2"/>
+      <c r="D429" s="2"/>
+      <c r="E429" s="2"/>
+      <c r="F429" s="2"/>
+      <c r="G429" s="2"/>
+      <c r="H429" s="2"/>
+      <c r="I429" s="2"/>
+      <c r="J429" s="2"/>
+      <c r="K429" s="8"/>
+    </row>
+    <row r="430" ht="12.75" customHeight="1">
+      <c r="A430" s="19">
+        <f>A426+1</f>
+        <v>313</v>
+      </c>
+      <c r="B430" s="19" t="s">
         <v>981</v>
       </c>
-      <c r="E428" s="19" t="s">
+      <c r="C430" s="19" t="s">
+        <v>982</v>
+      </c>
+      <c r="D430" s="31" t="s">
+        <v>983</v>
+      </c>
+      <c r="E430" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F428" s="19" t="s">
-        <v>928</v>
-      </c>
-      <c r="G428" s="19"/>
-      <c r="H428" s="19" t="s">
+      <c r="F430" s="19" t="s">
+        <v>930</v>
+      </c>
+      <c r="G430" s="19"/>
+      <c r="H430" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I428" s="19" t="s">
+      <c r="I430" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="J428" s="31"/>
-      <c r="K428" s="11" t="s">
+      <c r="J430" s="31"/>
+      <c r="K430" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="429" ht="12.75" customHeight="1">
-      <c r="A429" s="19">
-        <f>A428+1</f>
-        <v>313</v>
-      </c>
-      <c r="B429" s="19" t="s">
-        <v>982</v>
-      </c>
-      <c r="C429" s="14" t="s">
-        <v>983</v>
-      </c>
-      <c r="D429" s="15" t="s">
+    <row r="431" ht="12.75" customHeight="1">
+      <c r="A431" s="19">
+        <f>A430+1</f>
+        <v>314</v>
+      </c>
+      <c r="B431" s="19" t="s">
         <v>984</v>
       </c>
-      <c r="E429" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F429" s="14" t="s">
-        <v>979</v>
-      </c>
-      <c r="G429" s="14" t="s">
+      <c r="C431" s="14" t="s">
         <v>985</v>
       </c>
-      <c r="H429" s="16">
+      <c r="D431" s="15" t="s">
+        <v>986</v>
+      </c>
+      <c r="E431" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F431" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="G431" s="14" t="s">
+        <v>987</v>
+      </c>
+      <c r="H431" s="16">
         <v>44927.0</v>
       </c>
-      <c r="I429" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J429" s="17"/>
-      <c r="K429" s="17" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="430" ht="12.75" customHeight="1">
-      <c r="A430" s="33"/>
-      <c r="B430" s="2"/>
-      <c r="C430" s="2"/>
-      <c r="D430" s="2"/>
-      <c r="E430" s="2"/>
-      <c r="F430" s="2"/>
-      <c r="G430" s="2"/>
-      <c r="H430" s="2"/>
-      <c r="I430" s="2"/>
-      <c r="J430" s="2"/>
-      <c r="K430" s="8"/>
-    </row>
-    <row r="431" ht="12.75" customHeight="1">
-      <c r="A431" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B431" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C431" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D431" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E431" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F431" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G431" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H431" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I431" s="12"/>
-      <c r="J431" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K431" s="17"/>
+      <c r="I431" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J431" s="17"/>
+      <c r="K431" s="17" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="432" ht="12.75" customHeight="1">
-      <c r="A432" s="33" t="s">
-        <v>987</v>
-      </c>
+      <c r="A432" s="33"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -17694,157 +17705,157 @@
       <c r="K432" s="8"/>
     </row>
     <row r="433" ht="12.75" customHeight="1">
-      <c r="A433" s="19">
-        <f>A429+1</f>
-        <v>314</v>
-      </c>
-      <c r="B433" s="19" t="s">
-        <v>988</v>
-      </c>
-      <c r="C433" s="19" t="s">
+      <c r="A433" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B433" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C433" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D433" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E433" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F433" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G433" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H433" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I433" s="12"/>
+      <c r="J433" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K433" s="17"/>
+    </row>
+    <row r="434" ht="12.75" customHeight="1">
+      <c r="A434" s="33" t="s">
         <v>989</v>
       </c>
-      <c r="D433" s="31" t="s">
-        <v>990</v>
-      </c>
-      <c r="E433" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="F433" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G433" s="19"/>
-      <c r="H433" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="I433" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J433" s="15"/>
-      <c r="K433" s="11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="434" ht="12.75" customHeight="1">
-      <c r="A434" s="19">
-        <f t="shared" ref="A434:A435" si="44">A433+1</f>
-        <v>315</v>
-      </c>
-      <c r="B434" s="19" t="s">
-        <v>991</v>
-      </c>
-      <c r="C434" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D434" s="15" t="s">
-        <v>992</v>
-      </c>
-      <c r="E434" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F434" s="14" t="s">
-        <v>988</v>
-      </c>
-      <c r="G434" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H434" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I434" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J434" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="K434" s="17" t="s">
-        <v>154</v>
-      </c>
+      <c r="B434" s="2"/>
+      <c r="C434" s="2"/>
+      <c r="D434" s="2"/>
+      <c r="E434" s="2"/>
+      <c r="F434" s="2"/>
+      <c r="G434" s="2"/>
+      <c r="H434" s="2"/>
+      <c r="I434" s="2"/>
+      <c r="J434" s="2"/>
+      <c r="K434" s="8"/>
     </row>
     <row r="435" ht="12.75" customHeight="1">
       <c r="A435" s="19">
+        <f>A431+1</f>
+        <v>315</v>
+      </c>
+      <c r="B435" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="C435" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="D435" s="31" t="s">
+        <v>992</v>
+      </c>
+      <c r="E435" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="F435" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G435" s="19"/>
+      <c r="H435" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I435" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J435" s="15"/>
+      <c r="K435" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="436" ht="12.75" customHeight="1">
+      <c r="A436" s="19">
+        <f t="shared" ref="A436:A437" si="44">A435+1</f>
+        <v>316</v>
+      </c>
+      <c r="B436" s="19" t="s">
+        <v>993</v>
+      </c>
+      <c r="C436" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D436" s="15" t="s">
+        <v>994</v>
+      </c>
+      <c r="E436" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F436" s="14" t="s">
+        <v>990</v>
+      </c>
+      <c r="G436" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H436" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I436" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J436" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="K436" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="437" ht="12.75" customHeight="1">
+      <c r="A437" s="19">
         <f t="shared" si="44"/>
-        <v>316</v>
-      </c>
-      <c r="B435" s="19" t="s">
-        <v>993</v>
-      </c>
-      <c r="C435" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B437" s="19" t="s">
+        <v>995</v>
+      </c>
+      <c r="C437" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D435" s="15" t="s">
-        <v>994</v>
-      </c>
-      <c r="E435" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F435" s="14" t="s">
-        <v>988</v>
-      </c>
-      <c r="G435" s="14" t="s">
+      <c r="D437" s="15" t="s">
+        <v>996</v>
+      </c>
+      <c r="E437" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F437" s="14" t="s">
+        <v>990</v>
+      </c>
+      <c r="G437" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H435" s="16">
+      <c r="H437" s="16">
         <v>44927.0</v>
       </c>
-      <c r="I435" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J435" s="17" t="s">
+      <c r="I437" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J437" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K435" s="17" t="s">
+      <c r="K437" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="436" ht="12.75" customHeight="1">
-      <c r="A436" s="19"/>
-      <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
-      <c r="D436" s="2"/>
-      <c r="E436" s="2"/>
-      <c r="F436" s="2"/>
-      <c r="G436" s="2"/>
-      <c r="H436" s="2"/>
-      <c r="I436" s="2"/>
-      <c r="J436" s="2"/>
-      <c r="K436" s="17"/>
-    </row>
-    <row r="437" ht="12.75" customHeight="1">
-      <c r="A437" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B437" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C437" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D437" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E437" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F437" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G437" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H437" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I437" s="12"/>
-      <c r="J437" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K437" s="17"/>
-    </row>
     <row r="438" ht="12.75" customHeight="1">
-      <c r="A438" s="33" t="s">
-        <v>995</v>
-      </c>
+      <c r="A438" s="19"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -17854,162 +17865,162 @@
       <c r="H438" s="2"/>
       <c r="I438" s="2"/>
       <c r="J438" s="2"/>
-      <c r="K438" s="8"/>
+      <c r="K438" s="17"/>
     </row>
     <row r="439" ht="12.75" customHeight="1">
-      <c r="A439" s="19">
-        <f>A435+1</f>
-        <v>317</v>
-      </c>
-      <c r="B439" s="19" t="s">
-        <v>996</v>
-      </c>
-      <c r="C439" s="19" t="s">
+      <c r="A439" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B439" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C439" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D439" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E439" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F439" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G439" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H439" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I439" s="12"/>
+      <c r="J439" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K439" s="17"/>
+    </row>
+    <row r="440" ht="12.75" customHeight="1">
+      <c r="A440" s="33" t="s">
         <v>997</v>
       </c>
-      <c r="D439" s="31" t="s">
-        <v>998</v>
-      </c>
-      <c r="E439" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F439" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G439" s="19"/>
-      <c r="H439" s="19" t="s">
-        <v>999</v>
-      </c>
-      <c r="I439" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J439" s="31" t="s">
-        <v>1000</v>
-      </c>
-      <c r="K439" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="440" ht="12.75" customHeight="1">
-      <c r="A440" s="19">
-        <f t="shared" ref="A440:A441" si="45">A439+1</f>
-        <v>318</v>
-      </c>
-      <c r="B440" s="19" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C440" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D440" s="15" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E440" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="F440" s="14" t="s">
-        <v>996</v>
-      </c>
-      <c r="G440" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H440" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I440" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J440" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="K440" s="17" t="s">
-        <v>154</v>
-      </c>
+      <c r="B440" s="2"/>
+      <c r="C440" s="2"/>
+      <c r="D440" s="2"/>
+      <c r="E440" s="2"/>
+      <c r="F440" s="2"/>
+      <c r="G440" s="2"/>
+      <c r="H440" s="2"/>
+      <c r="I440" s="2"/>
+      <c r="J440" s="2"/>
+      <c r="K440" s="8"/>
     </row>
     <row r="441" ht="12.75" customHeight="1">
       <c r="A441" s="19">
+        <f>A437+1</f>
+        <v>318</v>
+      </c>
+      <c r="B441" s="19" t="s">
+        <v>998</v>
+      </c>
+      <c r="C441" s="19" t="s">
+        <v>999</v>
+      </c>
+      <c r="D441" s="31" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E441" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F441" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G441" s="19"/>
+      <c r="H441" s="19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I441" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J441" s="31" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K441" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="442" ht="12.75" customHeight="1">
+      <c r="A442" s="19">
+        <f t="shared" ref="A442:A443" si="45">A441+1</f>
+        <v>319</v>
+      </c>
+      <c r="B442" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C442" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D442" s="15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E442" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F442" s="14" t="s">
+        <v>998</v>
+      </c>
+      <c r="G442" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H442" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I442" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J442" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K442" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="443" ht="12.75" customHeight="1">
+      <c r="A443" s="19">
         <f t="shared" si="45"/>
-        <v>319</v>
-      </c>
-      <c r="B441" s="19" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C441" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B443" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C443" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="D441" s="15" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E441" s="14" t="s">
+      <c r="D443" s="15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E443" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="F441" s="14" t="s">
-        <v>996</v>
-      </c>
-      <c r="G441" s="14" t="s">
+      <c r="F443" s="14" t="s">
+        <v>998</v>
+      </c>
+      <c r="G443" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H441" s="16">
+      <c r="H443" s="16">
         <v>44927.0</v>
       </c>
-      <c r="I441" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J441" s="17" t="s">
+      <c r="I443" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J443" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K441" s="17" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="442" ht="12.75" customHeight="1">
-      <c r="A442" s="19"/>
-      <c r="B442" s="2"/>
-      <c r="C442" s="2"/>
-      <c r="D442" s="2"/>
-      <c r="E442" s="2"/>
-      <c r="F442" s="2"/>
-      <c r="G442" s="2"/>
-      <c r="H442" s="2"/>
-      <c r="I442" s="2"/>
-      <c r="J442" s="2"/>
-      <c r="K442" s="17"/>
-    </row>
-    <row r="443" ht="12.75" customHeight="1">
-      <c r="A443" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B443" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C443" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D443" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E443" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F443" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G443" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H443" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I443" s="12"/>
-      <c r="J443" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K443" s="17"/>
+      <c r="K443" s="17" t="s">
+        <v>1007</v>
+      </c>
     </row>
     <row r="444" ht="12.75" customHeight="1">
-      <c r="A444" s="33" t="s">
-        <v>1006</v>
-      </c>
+      <c r="A444" s="19"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -18019,156 +18030,156 @@
       <c r="H444" s="2"/>
       <c r="I444" s="2"/>
       <c r="J444" s="2"/>
-      <c r="K444" s="8"/>
+      <c r="K444" s="17"/>
     </row>
     <row r="445" ht="12.75" customHeight="1">
-      <c r="A445" s="19">
-        <f>A441+1</f>
-        <v>320</v>
-      </c>
-      <c r="B445" s="19"/>
-      <c r="C445" s="19" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D445" s="31" t="s">
+      <c r="A445" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B445" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C445" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D445" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E445" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F445" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G445" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H445" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I445" s="12"/>
+      <c r="J445" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K445" s="17"/>
+    </row>
+    <row r="446" ht="12.75" customHeight="1">
+      <c r="A446" s="33" t="s">
         <v>1008</v>
       </c>
-      <c r="E445" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F445" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G445" s="19"/>
-      <c r="H445" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="I445" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J445" s="31"/>
-      <c r="K445" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="446" ht="12.75" customHeight="1">
-      <c r="A446" s="19">
-        <f t="shared" ref="A446:A447" si="46">A445+1</f>
-        <v>321</v>
-      </c>
-      <c r="B446" s="19" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C446" s="14" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D446" s="15" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E446" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F446" s="14" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G446" s="14" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H446" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I446" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J446" s="17" t="s">
-        <v>1013</v>
-      </c>
-      <c r="K446" s="17" t="s">
-        <v>986</v>
-      </c>
+      <c r="B446" s="2"/>
+      <c r="C446" s="2"/>
+      <c r="D446" s="2"/>
+      <c r="E446" s="2"/>
+      <c r="F446" s="2"/>
+      <c r="G446" s="2"/>
+      <c r="H446" s="2"/>
+      <c r="I446" s="2"/>
+      <c r="J446" s="2"/>
+      <c r="K446" s="8"/>
     </row>
     <row r="447" ht="12.75" customHeight="1">
       <c r="A447" s="19">
+        <f>A443+1</f>
+        <v>321</v>
+      </c>
+      <c r="B447" s="19"/>
+      <c r="C447" s="19" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D447" s="31" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E447" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F447" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G447" s="19"/>
+      <c r="H447" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I447" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J447" s="31"/>
+      <c r="K447" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="448" ht="12.75" customHeight="1">
+      <c r="A448" s="19">
+        <f t="shared" ref="A448:A449" si="46">A447+1</f>
+        <v>322</v>
+      </c>
+      <c r="B448" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C448" s="14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D448" s="15" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E448" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F448" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G448" s="14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H448" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I448" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J448" s="17" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K448" s="17" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="449" ht="12.75" customHeight="1">
+      <c r="A449" s="19">
         <f t="shared" si="46"/>
-        <v>322</v>
-      </c>
-      <c r="B447" s="19" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C447" s="14" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D447" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B449" s="19" t="s">
         <v>1016</v>
       </c>
-      <c r="E447" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F447" s="14" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G447" s="14" t="s">
+      <c r="C449" s="14" t="s">
         <v>1017</v>
       </c>
-      <c r="H447" s="14" t="s">
+      <c r="D449" s="15" t="s">
         <v>1018</v>
       </c>
-      <c r="I447" s="14" t="s">
+      <c r="E449" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F449" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G449" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H449" s="14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I449" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="J447" s="17"/>
-      <c r="K447" s="17" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="448" ht="12.75" customHeight="1">
-      <c r="A448" s="19"/>
-      <c r="B448" s="2"/>
-      <c r="C448" s="2"/>
-      <c r="D448" s="2"/>
-      <c r="E448" s="2"/>
-      <c r="F448" s="2"/>
-      <c r="G448" s="2"/>
-      <c r="H448" s="2"/>
-      <c r="I448" s="2"/>
-      <c r="J448" s="2"/>
-      <c r="K448" s="17"/>
-    </row>
-    <row r="449" ht="12.75" customHeight="1">
-      <c r="A449" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B449" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C449" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D449" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E449" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F449" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G449" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H449" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I449" s="12"/>
-      <c r="J449" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K449" s="17"/>
+      <c r="J449" s="17"/>
+      <c r="K449" s="17" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="450" ht="12.75" customHeight="1">
-      <c r="A450" s="33" t="s">
-        <v>1020</v>
-      </c>
+      <c r="A450" s="19"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -18178,134 +18189,108 @@
       <c r="H450" s="2"/>
       <c r="I450" s="2"/>
       <c r="J450" s="2"/>
-      <c r="K450" s="8"/>
+      <c r="K450" s="17"/>
     </row>
     <row r="451" ht="12.75" customHeight="1">
-      <c r="A451" s="19">
-        <f>A447+1</f>
-        <v>323</v>
-      </c>
-      <c r="B451" s="19" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C451" s="19" t="s">
+      <c r="A451" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B451" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C451" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D451" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E451" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F451" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G451" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H451" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I451" s="12"/>
+      <c r="J451" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K451" s="17"/>
+    </row>
+    <row r="452" ht="12.75" customHeight="1">
+      <c r="A452" s="33" t="s">
         <v>1022</v>
       </c>
-      <c r="D451" s="31" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E451" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F451" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G451" s="19"/>
-      <c r="H451" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="I451" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J451" s="31"/>
-      <c r="K451" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="452" ht="12.75" customHeight="1">
-      <c r="A452" s="19">
-        <f t="shared" ref="A452:A457" si="47">A451+1</f>
-        <v>324</v>
-      </c>
-      <c r="B452" s="19" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C452" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D452" s="15" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E452" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F452" s="14" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G452" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H452" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I452" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J452" s="17" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K452" s="17" t="s">
-        <v>154</v>
-      </c>
+      <c r="B452" s="2"/>
+      <c r="C452" s="2"/>
+      <c r="D452" s="2"/>
+      <c r="E452" s="2"/>
+      <c r="F452" s="2"/>
+      <c r="G452" s="2"/>
+      <c r="H452" s="2"/>
+      <c r="I452" s="2"/>
+      <c r="J452" s="2"/>
+      <c r="K452" s="8"/>
     </row>
     <row r="453" ht="12.75" customHeight="1">
       <c r="A453" s="19">
-        <f t="shared" si="47"/>
-        <v>325</v>
+        <f>A449+1</f>
+        <v>324</v>
       </c>
       <c r="B453" s="19" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C453" s="14" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D453" s="15" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E453" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F453" s="14" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G453" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="H453" s="16">
-        <v>44927.0</v>
-      </c>
-      <c r="I453" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J453" s="17" t="s">
-        <v>1030</v>
-      </c>
-      <c r="K453" s="17" t="s">
-        <v>800</v>
+        <v>1023</v>
+      </c>
+      <c r="C453" s="19" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D453" s="31" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E453" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F453" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G453" s="19"/>
+      <c r="H453" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I453" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J453" s="31"/>
+      <c r="K453" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="454" ht="12.75" customHeight="1">
       <c r="A454" s="19">
-        <f t="shared" si="47"/>
-        <v>326</v>
+        <f t="shared" ref="A454:A459" si="47">A453+1</f>
+        <v>325</v>
       </c>
       <c r="B454" s="19" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C454" s="14" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="D454" s="15" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="E454" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F454" s="14" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="G454" s="14" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="H454" s="16">
         <v>44927.0</v>
@@ -18313,33 +18298,35 @@
       <c r="I454" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J454" s="17"/>
+      <c r="J454" s="17" t="s">
+        <v>1028</v>
+      </c>
       <c r="K454" s="17" t="s">
-        <v>800</v>
+        <v>154</v>
       </c>
     </row>
     <row r="455" ht="12.75" customHeight="1">
       <c r="A455" s="19">
         <f t="shared" si="47"/>
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B455" s="19" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C455" s="14" t="s">
-        <v>199</v>
+        <v>1030</v>
       </c>
       <c r="D455" s="15" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E455" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F455" s="14" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="G455" s="14" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="H455" s="16">
         <v>44927.0</v>
@@ -18348,34 +18335,34 @@
         <v>19</v>
       </c>
       <c r="J455" s="17" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="K455" s="17" t="s">
-        <v>299</v>
+        <v>803</v>
       </c>
     </row>
     <row r="456" ht="12.75" customHeight="1">
       <c r="A456" s="19">
         <f t="shared" si="47"/>
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B456" s="19" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C456" s="14" t="s">
-        <v>1037</v>
+        <v>204</v>
       </c>
       <c r="D456" s="15" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="E456" s="14" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="F456" s="14" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="G456" s="14" t="s">
-        <v>381</v>
+        <v>167</v>
       </c>
       <c r="H456" s="16">
         <v>44927.0</v>
@@ -18383,35 +18370,33 @@
       <c r="I456" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J456" s="17" t="s">
-        <v>1039</v>
-      </c>
+      <c r="J456" s="17"/>
       <c r="K456" s="17" t="s">
-        <v>1040</v>
+        <v>803</v>
       </c>
     </row>
     <row r="457" ht="12.75" customHeight="1">
       <c r="A457" s="19">
         <f t="shared" si="47"/>
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B457" s="19" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="C457" s="14" t="s">
-        <v>1042</v>
+        <v>199</v>
       </c>
       <c r="D457" s="15" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="E457" s="14" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="F457" s="14" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="G457" s="14" t="s">
-        <v>1044</v>
+        <v>201</v>
       </c>
       <c r="H457" s="16">
         <v>44927.0</v>
@@ -18420,60 +18405,86 @@
         <v>19</v>
       </c>
       <c r="J457" s="17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K457" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="458" ht="12.75" customHeight="1">
+      <c r="A458" s="19">
+        <f t="shared" si="47"/>
+        <v>329</v>
+      </c>
+      <c r="B458" s="19" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C458" s="14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D458" s="15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E458" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F458" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G458" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="H458" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I458" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J458" s="17" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K458" s="17" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="459" ht="12.75" customHeight="1">
+      <c r="A459" s="19">
+        <f t="shared" si="47"/>
+        <v>330</v>
+      </c>
+      <c r="B459" s="19" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C459" s="14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D459" s="15" t="s">
         <v>1045</v>
       </c>
-      <c r="K457" s="17" t="s">
+      <c r="E459" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F459" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G459" s="14" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="458" ht="12.75" customHeight="1">
-      <c r="A458" s="19"/>
-      <c r="B458" s="2"/>
-      <c r="C458" s="2"/>
-      <c r="D458" s="2"/>
-      <c r="E458" s="2"/>
-      <c r="F458" s="2"/>
-      <c r="G458" s="2"/>
-      <c r="H458" s="2"/>
-      <c r="I458" s="2"/>
-      <c r="J458" s="2"/>
-      <c r="K458" s="17"/>
-    </row>
-    <row r="459" ht="12.75" customHeight="1">
-      <c r="A459" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B459" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C459" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D459" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E459" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F459" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G459" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H459" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I459" s="12"/>
-      <c r="J459" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K459" s="17"/>
+      <c r="H459" s="16">
+        <v>44927.0</v>
+      </c>
+      <c r="I459" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J459" s="17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K459" s="17" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="460" ht="12.75" customHeight="1">
-      <c r="A460" s="33" t="s">
-        <v>1047</v>
-      </c>
+      <c r="A460" s="19"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -18483,87 +18494,117 @@
       <c r="H460" s="2"/>
       <c r="I460" s="2"/>
       <c r="J460" s="2"/>
-      <c r="K460" s="8"/>
+      <c r="K460" s="17"/>
     </row>
     <row r="461" ht="12.75" customHeight="1">
-      <c r="A461" s="19">
-        <f>A457+1</f>
-        <v>330</v>
-      </c>
-      <c r="B461" s="19" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C461" s="19" t="s">
+      <c r="A461" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B461" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C461" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D461" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E461" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F461" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G461" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H461" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I461" s="12"/>
+      <c r="J461" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K461" s="17"/>
+    </row>
+    <row r="462" ht="12.75" customHeight="1">
+      <c r="A462" s="33" t="s">
         <v>1049</v>
       </c>
-      <c r="D461" s="19" t="s">
+      <c r="B462" s="2"/>
+      <c r="C462" s="2"/>
+      <c r="D462" s="2"/>
+      <c r="E462" s="2"/>
+      <c r="F462" s="2"/>
+      <c r="G462" s="2"/>
+      <c r="H462" s="2"/>
+      <c r="I462" s="2"/>
+      <c r="J462" s="2"/>
+      <c r="K462" s="8"/>
+    </row>
+    <row r="463" ht="12.75" customHeight="1">
+      <c r="A463" s="19">
+        <f>A459+1</f>
+        <v>331</v>
+      </c>
+      <c r="B463" s="19" t="s">
         <v>1050</v>
       </c>
-      <c r="E461" s="19" t="s">
+      <c r="C463" s="19" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D463" s="19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E463" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F461" s="19" t="s">
+      <c r="F463" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G461" s="19"/>
-      <c r="H461" s="19">
+      <c r="G463" s="19"/>
+      <c r="H463" s="19">
         <v>44927.0</v>
       </c>
-      <c r="I461" s="19"/>
-      <c r="J461" s="19"/>
-      <c r="K461" s="91" t="s">
+      <c r="I463" s="19"/>
+      <c r="J463" s="19"/>
+      <c r="K463" s="91" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="462" ht="12.75" customHeight="1">
-      <c r="A462" s="19">
-        <f>A461+1</f>
-        <v>331</v>
-      </c>
-      <c r="B462" s="19" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C462" s="14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D462" s="15" t="s">
+    <row r="464" ht="12.75" customHeight="1">
+      <c r="A464" s="19">
+        <f>A463+1</f>
+        <v>332</v>
+      </c>
+      <c r="B464" s="19" t="s">
         <v>1053</v>
       </c>
-      <c r="E462" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F462" s="14" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G462" s="14" t="s">
+      <c r="C464" s="14" t="s">
         <v>1054</v>
       </c>
-      <c r="H462" s="16">
+      <c r="D464" s="15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E464" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F464" s="14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G464" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H464" s="16">
         <v>44927.0</v>
       </c>
-      <c r="I462" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J462" s="17"/>
-      <c r="K462" s="17" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="463" ht="12.75" customHeight="1">
-      <c r="B463" s="5"/>
-      <c r="C463" s="92"/>
-      <c r="D463" s="93"/>
-      <c r="I463" s="5"/>
-      <c r="J463" s="94"/>
-      <c r="K463" s="93"/>
-    </row>
-    <row r="464" ht="12.75" customHeight="1">
-      <c r="B464" s="5"/>
-      <c r="C464" s="92"/>
-      <c r="D464" s="93"/>
-      <c r="I464" s="5"/>
-      <c r="J464" s="94"/>
-      <c r="K464" s="93"/>
+      <c r="I464" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J464" s="17"/>
+      <c r="K464" s="17" t="s">
+        <v>1057</v>
+      </c>
     </row>
     <row r="465" ht="12.75" customHeight="1">
       <c r="B465" s="5"/>
@@ -19181,8 +19222,22 @@
       <c r="J541" s="94"/>
       <c r="K541" s="93"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1">
+      <c r="B542" s="5"/>
+      <c r="C542" s="92"/>
+      <c r="D542" s="93"/>
+      <c r="I542" s="5"/>
+      <c r="J542" s="94"/>
+      <c r="K542" s="93"/>
+    </row>
+    <row r="543" ht="12.75" customHeight="1">
+      <c r="B543" s="5"/>
+      <c r="C543" s="92"/>
+      <c r="D543" s="93"/>
+      <c r="I543" s="5"/>
+      <c r="J543" s="94"/>
+      <c r="K543" s="93"/>
+    </row>
     <row r="544" ht="15.75" customHeight="1"/>
     <row r="545" ht="15.75" customHeight="1"/>
     <row r="546" ht="15.75" customHeight="1"/>
@@ -19637,45 +19692,47 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A281:J281"/>
-    <mergeCell ref="A283:K283"/>
-    <mergeCell ref="A289:J289"/>
-    <mergeCell ref="A291:K291"/>
-    <mergeCell ref="A297:J297"/>
-    <mergeCell ref="A299:K299"/>
-    <mergeCell ref="A307:J307"/>
-    <mergeCell ref="A309:K309"/>
-    <mergeCell ref="A323:J323"/>
-    <mergeCell ref="A325:K325"/>
-    <mergeCell ref="A329:J329"/>
-    <mergeCell ref="A331:K331"/>
-    <mergeCell ref="A339:J339"/>
-    <mergeCell ref="A341:K341"/>
-    <mergeCell ref="A344:J344"/>
-    <mergeCell ref="A346:K346"/>
-    <mergeCell ref="A356:J356"/>
-    <mergeCell ref="A358:K358"/>
-    <mergeCell ref="A367:J367"/>
-    <mergeCell ref="A369:K369"/>
-    <mergeCell ref="A393:K393"/>
-    <mergeCell ref="A399:J399"/>
-    <mergeCell ref="A401:K401"/>
-    <mergeCell ref="A411:J411"/>
-    <mergeCell ref="A413:K413"/>
-    <mergeCell ref="A425:J425"/>
-    <mergeCell ref="A427:K427"/>
-    <mergeCell ref="A430:K430"/>
-    <mergeCell ref="A458:J458"/>
-    <mergeCell ref="A460:K460"/>
+    <mergeCell ref="A283:J283"/>
+    <mergeCell ref="A285:K285"/>
+    <mergeCell ref="A291:J291"/>
+    <mergeCell ref="A293:K293"/>
+    <mergeCell ref="A299:J299"/>
+    <mergeCell ref="A301:K301"/>
+    <mergeCell ref="A309:J309"/>
+    <mergeCell ref="A311:K311"/>
+    <mergeCell ref="A325:J325"/>
+    <mergeCell ref="A327:K327"/>
+    <mergeCell ref="A331:J331"/>
+    <mergeCell ref="A333:K333"/>
+    <mergeCell ref="A341:J341"/>
+    <mergeCell ref="A343:K343"/>
+    <mergeCell ref="A346:J346"/>
+    <mergeCell ref="A348:K348"/>
+    <mergeCell ref="A358:J358"/>
+    <mergeCell ref="A360:K360"/>
+    <mergeCell ref="A369:J369"/>
+    <mergeCell ref="A371:K371"/>
+    <mergeCell ref="A395:K395"/>
+    <mergeCell ref="A401:J401"/>
+    <mergeCell ref="A403:K403"/>
+    <mergeCell ref="A413:J413"/>
+    <mergeCell ref="A415:K415"/>
+    <mergeCell ref="A427:J427"/>
+    <mergeCell ref="A429:K429"/>
     <mergeCell ref="A432:K432"/>
-    <mergeCell ref="A436:J436"/>
-    <mergeCell ref="A438:K438"/>
-    <mergeCell ref="A442:J442"/>
-    <mergeCell ref="A444:K444"/>
-    <mergeCell ref="A448:J448"/>
-    <mergeCell ref="A450:K450"/>
+    <mergeCell ref="A460:J460"/>
+    <mergeCell ref="A462:K462"/>
+    <mergeCell ref="A434:K434"/>
+    <mergeCell ref="A438:J438"/>
+    <mergeCell ref="A440:K440"/>
+    <mergeCell ref="A444:J444"/>
+    <mergeCell ref="A446:K446"/>
+    <mergeCell ref="A450:J450"/>
+    <mergeCell ref="A452:K452"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="A3:J3"/>
@@ -19721,10 +19778,10 @@
     <mergeCell ref="A229:K229"/>
     <mergeCell ref="A241:J241"/>
     <mergeCell ref="A243:K243"/>
-    <mergeCell ref="A255:J255"/>
-    <mergeCell ref="A257:K257"/>
-    <mergeCell ref="A269:J269"/>
-    <mergeCell ref="A271:K271"/>
+    <mergeCell ref="A257:J257"/>
+    <mergeCell ref="A259:K259"/>
+    <mergeCell ref="A271:J271"/>
+    <mergeCell ref="A273:K273"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>

--- a/Layout Integração - Reforma Tributária/Layout NFCom Reforma Tributária.xlsx
+++ b/Layout Integração - Reforma Tributária/Layout NFCom Reforma Tributária.xlsx
@@ -229,7 +229,7 @@
     <t>Código numérico que compõe a Chave de Acesso.</t>
   </si>
   <si>
-    <t>C(8)</t>
+    <t>C(7)</t>
   </si>
   <si>
     <t>Código aleatório gerado pelo emitente, com o objetivo de evitar acessos indevidos ao documento.</t>
@@ -306,9 +306,6 @@
   </si>
   <si>
     <t>Código do município de ocorrência do fato gerador</t>
-  </si>
-  <si>
-    <t>C(7)</t>
   </si>
   <si>
     <t>Numeric(7)</t>
@@ -610,6 +607,9 @@
   </si>
   <si>
     <t>CEP</t>
+  </si>
+  <si>
+    <t>C(8)</t>
   </si>
   <si>
     <t>VarChar(8)</t>
@@ -3263,7 +3263,7 @@
     <numFmt numFmtId="164" formatCode="d\-m"/>
     <numFmt numFmtId="165" formatCode="d-m"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3327,21 +3327,8 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -3460,7 +3447,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3517,14 +3504,14 @@
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -3546,9 +3533,6 @@
     </xf>
     <xf borderId="6" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -3592,38 +3576,20 @@
     <xf borderId="3" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="4" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3635,35 +3601,14 @@
     <xf borderId="3" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -3677,53 +3622,20 @@
     <xf borderId="3" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="3" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="4" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -3731,7 +3643,7 @@
     <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3956,11 +3868,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
     <col customWidth="1" min="2" max="2" width="13.13"/>
     <col customWidth="1" min="3" max="3" width="19.25"/>
     <col customWidth="1" min="4" max="4" width="53.5"/>
-    <col customWidth="1" min="5" max="6" width="12.63"/>
     <col customWidth="1" min="9" max="9" width="8.5"/>
     <col customWidth="1" min="10" max="10" width="60.25"/>
     <col customWidth="1" hidden="1" min="11" max="11" width="26.13"/>
@@ -4487,7 +4397,7 @@
       <c r="F18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="20" t="s">
         <v>70</v>
       </c>
       <c r="H18" s="16">
@@ -4674,7 +4584,7 @@
         <v>35</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="H23" s="16">
         <v>44927.0</v>
@@ -4684,7 +4594,7 @@
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -4695,13 +4605,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="D24" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>24</v>
@@ -4719,7 +4629,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K24" s="17" t="s">
         <v>43</v>
@@ -4733,13 +4643,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>24</v>
@@ -4757,7 +4667,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>43</v>
@@ -4771,13 +4681,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>24</v>
@@ -4789,13 +4699,13 @@
         <v>47</v>
       </c>
       <c r="H26" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="J26" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>111</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>43</v>
@@ -4809,16 +4719,16 @@
         <v>19</v>
       </c>
       <c r="B27" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="D27" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>35</v>
@@ -4833,7 +4743,7 @@
         <v>19</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>78</v>
@@ -4847,22 +4757,22 @@
         <v>20</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="D28" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>119</v>
-      </c>
       <c r="E28" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H28" s="16">
         <v>44927.0</v>
@@ -4871,10 +4781,10 @@
         <v>19</v>
       </c>
       <c r="J28" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="5"/>
@@ -4926,8 +4836,8 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="20" t="s">
-        <v>123</v>
+      <c r="A31" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4942,30 +4852,30 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="21">
+      <c r="A32" s="22">
         <f>A28+1</f>
         <v>21</v>
       </c>
       <c r="B32" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="D32" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="22"/>
       <c r="J32" s="24"/>
       <c r="K32" s="11" t="s">
         <v>20</v>
@@ -4973,24 +4883,24 @@
       <c r="M32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="21">
+      <c r="A33" s="22">
         <f t="shared" ref="A33:A34" si="3">A32+1</f>
         <v>22</v>
       </c>
       <c r="B33" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="D33" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>130</v>
-      </c>
       <c r="E33" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>47</v>
@@ -5002,35 +4912,35 @@
         <v>19</v>
       </c>
       <c r="J33" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="K33" s="17" t="s">
-        <v>132</v>
-      </c>
       <c r="M33" s="5"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="21">
+      <c r="A34" s="22">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B34" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="D34" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="E34" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="29" t="s">
         <v>135</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>136</v>
       </c>
       <c r="H34" s="27">
         <v>44927.0</v>
@@ -5039,10 +4949,10 @@
         <v>19</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M34" s="5"/>
     </row>
@@ -5095,8 +5005,8 @@
       <c r="M36" s="5"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="30" t="s">
-        <v>138</v>
+      <c r="A37" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -5117,13 +5027,13 @@
         <v>24</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="D38" s="30" t="s">
         <v>140</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>141</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>16</v>
@@ -5133,10 +5043,10 @@
       </c>
       <c r="G38" s="19"/>
       <c r="H38" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I38" s="19"/>
-      <c r="J38" s="31"/>
+      <c r="J38" s="30"/>
       <c r="K38" s="11" t="s">
         <v>20</v>
       </c>
@@ -5149,22 +5059,22 @@
         <v>25</v>
       </c>
       <c r="B39" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="D39" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="E39" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>145</v>
       </c>
       <c r="H39" s="16">
         <v>44927.0</v>
@@ -5173,10 +5083,10 @@
         <v>19</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="5"/>
@@ -5187,22 +5097,22 @@
         <v>26</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="D40" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="E40" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="H40" s="16">
         <v>44927.0</v>
@@ -5212,7 +5122,7 @@
       </c>
       <c r="J40" s="17"/>
       <c r="K40" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="5"/>
@@ -5223,32 +5133,32 @@
         <v>27</v>
       </c>
       <c r="B41" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="D41" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="15" t="s">
-        <v>153</v>
-      </c>
       <c r="E41" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H41" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="5"/>
@@ -5259,19 +5169,19 @@
         <v>28</v>
       </c>
       <c r="B42" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="D42" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>157</v>
-      </c>
       <c r="E42" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>47</v>
@@ -5283,7 +5193,7 @@
         <v>19</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K42" s="17" t="s">
         <v>49</v>
@@ -5297,22 +5207,22 @@
         <v>29</v>
       </c>
       <c r="B43" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="D43" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="E43" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>162</v>
       </c>
       <c r="H43" s="16">
         <v>44927.0</v>
@@ -5322,7 +5232,7 @@
       </c>
       <c r="J43" s="17"/>
       <c r="K43" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="5"/>
@@ -5333,32 +5243,32 @@
         <v>30</v>
       </c>
       <c r="B44" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="D44" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="E44" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>167</v>
-      </c>
       <c r="H44" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J44" s="17"/>
       <c r="K44" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="5"/>
@@ -5413,7 +5323,7 @@
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -5434,26 +5344,26 @@
         <v>31</v>
       </c>
       <c r="B48" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="D48" s="30" t="s">
         <v>170</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>171</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I48" s="19"/>
-      <c r="J48" s="31"/>
+      <c r="J48" s="30"/>
       <c r="K48" s="11" t="s">
         <v>20</v>
       </c>
@@ -5466,22 +5376,22 @@
         <v>32</v>
       </c>
       <c r="B49" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="D49" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>174</v>
-      </c>
       <c r="E49" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H49" s="16">
         <v>44927.0</v>
@@ -5491,7 +5401,7 @@
       </c>
       <c r="J49" s="17"/>
       <c r="K49" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="5"/>
@@ -5502,22 +5412,22 @@
         <v>33</v>
       </c>
       <c r="B50" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="D50" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D50" s="15" t="s">
-        <v>177</v>
-      </c>
       <c r="E50" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H50" s="16">
         <v>44927.0</v>
@@ -5527,7 +5437,7 @@
       </c>
       <c r="J50" s="17"/>
       <c r="K50" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="5"/>
@@ -5538,32 +5448,32 @@
         <v>34</v>
       </c>
       <c r="B51" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="D51" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>180</v>
-      </c>
       <c r="E51" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H51" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J51" s="17"/>
       <c r="K51" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="5"/>
@@ -5574,22 +5484,22 @@
         <v>35</v>
       </c>
       <c r="B52" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="D52" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="E52" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H52" s="16">
         <v>44927.0</v>
@@ -5599,7 +5509,7 @@
       </c>
       <c r="J52" s="17"/>
       <c r="K52" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="5"/>
@@ -5610,22 +5520,22 @@
         <v>36</v>
       </c>
       <c r="B53" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="D53" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D53" s="15" t="s">
-        <v>186</v>
-      </c>
       <c r="E53" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="H53" s="16">
         <v>44927.0</v>
@@ -5635,7 +5545,7 @@
       </c>
       <c r="J53" s="17"/>
       <c r="K53" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="5"/>
@@ -5646,22 +5556,22 @@
         <v>37</v>
       </c>
       <c r="B54" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="D54" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>190</v>
-      </c>
       <c r="E54" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H54" s="16">
         <v>44927.0</v>
@@ -5671,7 +5581,7 @@
       </c>
       <c r="J54" s="17"/>
       <c r="K54" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="5"/>
@@ -5682,22 +5592,22 @@
         <v>38</v>
       </c>
       <c r="B55" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="D55" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G55" s="14" t="s">
         <v>192</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="H55" s="16">
         <v>44927.0</v>
@@ -5706,7 +5616,7 @@
         <v>19</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K55" s="17" t="s">
         <v>193</v>
@@ -5732,7 +5642,7 @@
         <v>24</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>197</v>
@@ -5768,16 +5678,16 @@
         <v>24</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>201</v>
       </c>
       <c r="H57" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I57" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J57" s="17"/>
       <c r="K57" s="17" t="s">
@@ -5804,16 +5714,16 @@
         <v>24</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H58" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I58" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I58" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J58" s="17"/>
       <c r="K58" s="17" t="s">
@@ -5871,7 +5781,7 @@
       <c r="M60" s="5"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="31" t="s">
         <v>207</v>
       </c>
       <c r="B61" s="2"/>
@@ -5898,7 +5808,7 @@
       <c r="C62" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="30" t="s">
         <v>210</v>
       </c>
       <c r="E62" s="19" t="s">
@@ -5912,7 +5822,7 @@
         <v>211</v>
       </c>
       <c r="I62" s="19"/>
-      <c r="J62" s="31"/>
+      <c r="J62" s="30"/>
       <c r="K62" s="11" t="s">
         <v>20</v>
       </c>
@@ -5928,7 +5838,7 @@
         <v>212</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>213</v>
@@ -5940,7 +5850,7 @@
         <v>208</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H63" s="16">
         <v>44927.0</v>
@@ -5950,7 +5860,7 @@
       </c>
       <c r="J63" s="17"/>
       <c r="K63" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L63" s="4"/>
       <c r="M63" s="5"/>
@@ -5964,7 +5874,7 @@
         <v>214</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>215</v>
@@ -5976,7 +5886,7 @@
         <v>208</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H64" s="16">
         <v>44927.0</v>
@@ -5988,7 +5898,7 @@
         <v>217</v>
       </c>
       <c r="K64" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="5"/>
@@ -6116,7 +6026,7 @@
         <v>234</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>235</v>
@@ -6131,14 +6041,14 @@
         <v>236</v>
       </c>
       <c r="H68" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I68" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J68" s="17"/>
       <c r="K68" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="5"/>
@@ -6167,10 +6077,10 @@
         <v>240</v>
       </c>
       <c r="H69" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I69" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I69" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J69" s="17"/>
       <c r="K69" s="17" t="s">
@@ -6228,7 +6138,7 @@
       <c r="M71" s="5"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="32" t="s">
         <v>242</v>
       </c>
       <c r="B72" s="2"/>
@@ -6255,7 +6165,7 @@
       <c r="C73" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="30" t="s">
         <v>245</v>
       </c>
       <c r="E73" s="19" t="s">
@@ -6269,7 +6179,7 @@
         <v>211</v>
       </c>
       <c r="I73" s="19"/>
-      <c r="J73" s="31"/>
+      <c r="J73" s="30"/>
       <c r="K73" s="11" t="s">
         <v>20</v>
       </c>
@@ -6285,10 +6195,10 @@
         <v>246</v>
       </c>
       <c r="C74" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>174</v>
       </c>
       <c r="E74" s="14" t="s">
         <v>24</v>
@@ -6297,7 +6207,7 @@
         <v>243</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H74" s="16">
         <v>44927.0</v>
@@ -6307,7 +6217,7 @@
       </c>
       <c r="J74" s="17"/>
       <c r="K74" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="5"/>
@@ -6321,10 +6231,10 @@
         <v>247</v>
       </c>
       <c r="C75" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>177</v>
       </c>
       <c r="E75" s="14" t="s">
         <v>24</v>
@@ -6333,7 +6243,7 @@
         <v>243</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H75" s="16">
         <v>44927.0</v>
@@ -6343,7 +6253,7 @@
       </c>
       <c r="J75" s="17"/>
       <c r="K75" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L75" s="4"/>
       <c r="M75" s="5"/>
@@ -6357,10 +6267,10 @@
         <v>248</v>
       </c>
       <c r="C76" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="E76" s="14" t="s">
         <v>24</v>
@@ -6369,17 +6279,17 @@
         <v>243</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H76" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I76" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I76" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J76" s="17"/>
       <c r="K76" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L76" s="4"/>
       <c r="M76" s="5"/>
@@ -6393,10 +6303,10 @@
         <v>249</v>
       </c>
       <c r="C77" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>183</v>
       </c>
       <c r="E77" s="14" t="s">
         <v>24</v>
@@ -6405,7 +6315,7 @@
         <v>243</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H77" s="16">
         <v>44927.0</v>
@@ -6415,7 +6325,7 @@
       </c>
       <c r="J77" s="17"/>
       <c r="K77" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L77" s="4"/>
       <c r="M77" s="5"/>
@@ -6429,10 +6339,10 @@
         <v>250</v>
       </c>
       <c r="C78" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>186</v>
       </c>
       <c r="E78" s="14" t="s">
         <v>24</v>
@@ -6441,7 +6351,7 @@
         <v>243</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="H78" s="16">
         <v>44927.0</v>
@@ -6451,7 +6361,7 @@
       </c>
       <c r="J78" s="17"/>
       <c r="K78" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L78" s="4"/>
       <c r="M78" s="5"/>
@@ -6465,10 +6375,10 @@
         <v>251</v>
       </c>
       <c r="C79" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="E79" s="14" t="s">
         <v>24</v>
@@ -6477,7 +6387,7 @@
         <v>243</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H79" s="16">
         <v>44927.0</v>
@@ -6487,7 +6397,7 @@
       </c>
       <c r="J79" s="17"/>
       <c r="K79" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L79" s="4"/>
       <c r="M79" s="5"/>
@@ -6501,10 +6411,10 @@
         <v>252</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E80" s="14" t="s">
         <v>24</v>
@@ -6513,7 +6423,7 @@
         <v>243</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="H80" s="16">
         <v>44927.0</v>
@@ -6522,7 +6432,7 @@
         <v>19</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K80" s="17" t="s">
         <v>253</v>
@@ -6590,10 +6500,10 @@
         <v>201</v>
       </c>
       <c r="H82" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I82" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I82" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J82" s="17"/>
       <c r="K82" s="17" t="s">
@@ -6623,13 +6533,13 @@
         <v>243</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H83" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I83" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I83" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J83" s="17"/>
       <c r="K83" s="17" t="s">
@@ -6687,7 +6597,7 @@
       <c r="M85" s="5"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="32" t="s">
         <v>259</v>
       </c>
       <c r="B86" s="2"/>
@@ -6714,7 +6624,7 @@
       <c r="C87" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="D87" s="31" t="s">
+      <c r="D87" s="30" t="s">
         <v>262</v>
       </c>
       <c r="E87" s="19" t="s">
@@ -6724,11 +6634,11 @@
         <v>13</v>
       </c>
       <c r="G87" s="19"/>
-      <c r="H87" s="34">
+      <c r="H87" s="33">
         <v>45292.0</v>
       </c>
       <c r="I87" s="19"/>
-      <c r="J87" s="31"/>
+      <c r="J87" s="30"/>
       <c r="K87" s="11" t="s">
         <v>20</v>
       </c>
@@ -6945,10 +6855,10 @@
         <v>283</v>
       </c>
       <c r="H93" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I93" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I93" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J93" s="17" t="s">
         <v>284</v>
@@ -7220,7 +7130,7 @@
       <c r="M101" s="5"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="35"/>
+      <c r="A102" s="34"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -7270,8 +7180,8 @@
       <c r="M103" s="5"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
-      <c r="A104" s="36"/>
-      <c r="B104" s="33" t="s">
+      <c r="A104" s="35"/>
+      <c r="B104" s="32" t="s">
         <v>313</v>
       </c>
       <c r="C104" s="2"/>
@@ -7297,7 +7207,7 @@
       <c r="C105" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="D105" s="31" t="s">
+      <c r="D105" s="30" t="s">
         <v>316</v>
       </c>
       <c r="E105" s="19" t="s">
@@ -7311,9 +7221,9 @@
         <v>317</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J105" s="31"/>
+        <v>109</v>
+      </c>
+      <c r="J105" s="30"/>
       <c r="K105" s="11" t="s">
         <v>20</v>
       </c>
@@ -7367,7 +7277,7 @@
       <c r="C107" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="D107" s="31" t="s">
+      <c r="D107" s="30" t="s">
         <v>325</v>
       </c>
       <c r="E107" s="19" t="s">
@@ -7377,13 +7287,13 @@
         <v>314</v>
       </c>
       <c r="G107" s="19"/>
-      <c r="H107" s="34">
+      <c r="H107" s="33">
         <v>45292.0</v>
       </c>
       <c r="I107" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J107" s="31"/>
+      <c r="J107" s="30"/>
       <c r="K107" s="11" t="s">
         <v>326</v>
       </c>
@@ -7399,7 +7309,7 @@
         <v>327</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>328</v>
@@ -7411,7 +7321,7 @@
         <v>329</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H108" s="16">
         <v>44927.0</v>
@@ -7423,7 +7333,7 @@
         <v>330</v>
       </c>
       <c r="K108" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L108" s="4"/>
       <c r="M108" s="5"/>
@@ -7598,10 +7508,10 @@
         <v>347</v>
       </c>
       <c r="H113" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I113" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J113" s="17" t="s">
         <v>348</v>
@@ -7699,7 +7609,7 @@
       <c r="M116" s="5"/>
     </row>
     <row r="117" ht="17.25" customHeight="1">
-      <c r="A117" s="33" t="s">
+      <c r="A117" s="32" t="s">
         <v>354</v>
       </c>
       <c r="B117" s="2"/>
@@ -7726,7 +7636,7 @@
       <c r="C118" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="30" t="s">
         <v>357</v>
       </c>
       <c r="E118" s="19" t="s">
@@ -7737,10 +7647,10 @@
       </c>
       <c r="G118" s="19"/>
       <c r="H118" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I118" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="I118" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="J118" s="15"/>
       <c r="K118" s="11" t="s">
@@ -7802,13 +7712,13 @@
       <c r="E120" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F120" s="37" t="s">
+      <c r="F120" s="36" t="s">
         <v>355</v>
       </c>
       <c r="G120" s="14"/>
       <c r="H120" s="14"/>
       <c r="I120" s="19"/>
-      <c r="J120" s="38"/>
+      <c r="J120" s="37"/>
       <c r="K120" s="17"/>
       <c r="L120" s="4"/>
       <c r="M120" s="5"/>
@@ -7822,7 +7732,7 @@
         <v>362</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D121" s="19" t="s">
         <v>328</v>
@@ -7830,15 +7740,15 @@
       <c r="E121" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F121" s="37" t="s">
+      <c r="F121" s="36" t="s">
         <v>361</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H121" s="14"/>
       <c r="I121" s="19"/>
-      <c r="J121" s="38" t="s">
+      <c r="J121" s="37" t="s">
         <v>330</v>
       </c>
       <c r="K121" s="17"/>
@@ -7862,7 +7772,7 @@
       <c r="E122" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F122" s="37" t="s">
+      <c r="F122" s="36" t="s">
         <v>361</v>
       </c>
       <c r="G122" s="14" t="s">
@@ -7870,7 +7780,7 @@
       </c>
       <c r="H122" s="14"/>
       <c r="I122" s="19"/>
-      <c r="J122" s="38" t="s">
+      <c r="J122" s="37" t="s">
         <v>364</v>
       </c>
       <c r="K122" s="17"/>
@@ -7894,7 +7804,7 @@
       <c r="E123" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F123" s="37" t="s">
+      <c r="F123" s="36" t="s">
         <v>361</v>
       </c>
       <c r="G123" s="14" t="s">
@@ -7924,10 +7834,10 @@
       <c r="E124" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F124" s="37" t="s">
+      <c r="F124" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="G124" s="37" t="s">
+      <c r="G124" s="36" t="s">
         <v>64</v>
       </c>
       <c r="H124" s="14"/>
@@ -7945,7 +7855,7 @@
       <c r="B125" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="C125" s="37" t="s">
+      <c r="C125" s="36" t="s">
         <v>340</v>
       </c>
       <c r="D125" s="14" t="s">
@@ -7954,10 +7864,10 @@
       <c r="E125" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F125" s="37" t="s">
+      <c r="F125" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="G125" s="37" t="s">
+      <c r="G125" s="36" t="s">
         <v>342</v>
       </c>
       <c r="H125" s="14"/>
@@ -7975,7 +7885,7 @@
       <c r="B126" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="C126" s="37" t="s">
+      <c r="C126" s="36" t="s">
         <v>345</v>
       </c>
       <c r="D126" s="14" t="s">
@@ -7984,15 +7894,15 @@
       <c r="E126" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F126" s="37" t="s">
+      <c r="F126" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="G126" s="37" t="s">
+      <c r="G126" s="36" t="s">
         <v>347</v>
       </c>
       <c r="H126" s="14"/>
       <c r="I126" s="19"/>
-      <c r="J126" s="38" t="s">
+      <c r="J126" s="37" t="s">
         <v>369</v>
       </c>
       <c r="K126" s="17"/>
@@ -8048,7 +7958,7 @@
       <c r="M128" s="5"/>
     </row>
     <row r="129" ht="18.0" customHeight="1">
-      <c r="A129" s="33" t="s">
+      <c r="A129" s="32" t="s">
         <v>370</v>
       </c>
       <c r="B129" s="2"/>
@@ -8065,33 +7975,33 @@
       <c r="M129" s="5"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
-      <c r="A130" s="39">
+      <c r="A130" s="38">
         <f>A126+1</f>
         <v>95</v>
       </c>
-      <c r="B130" s="39" t="s">
+      <c r="B130" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="C130" s="39" t="s">
+      <c r="C130" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="D130" s="40" t="s">
+      <c r="D130" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="E130" s="39" t="s">
+      <c r="E130" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F130" s="39" t="s">
+      <c r="F130" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G130" s="39"/>
-      <c r="H130" s="41">
+      <c r="G130" s="38"/>
+      <c r="H130" s="40">
         <v>45292.0</v>
       </c>
-      <c r="I130" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="J130" s="40"/>
+      <c r="I130" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J130" s="39"/>
       <c r="K130" s="11" t="s">
         <v>20</v>
       </c>
@@ -8099,29 +8009,29 @@
       <c r="M130" s="5"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
-      <c r="A131" s="39">
+      <c r="A131" s="38">
         <f t="shared" ref="A131:A135" si="11">A130+1</f>
         <v>96</v>
       </c>
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="C131" s="39" t="s">
+      <c r="C131" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="D131" s="40" t="s">
+      <c r="D131" s="39" t="s">
         <v>376</v>
       </c>
-      <c r="E131" s="39" t="s">
+      <c r="E131" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="39" t="s">
+      <c r="F131" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="G131" s="39"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="39"/>
-      <c r="J131" s="40"/>
+      <c r="G131" s="38"/>
+      <c r="H131" s="38"/>
+      <c r="I131" s="38"/>
+      <c r="J131" s="39"/>
       <c r="K131" s="11"/>
       <c r="L131" s="4"/>
       <c r="M131" s="5"/>
@@ -8255,17 +8165,17 @@
       <c r="E135" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="F135" s="37" t="s">
+      <c r="F135" s="36" t="s">
         <v>374</v>
       </c>
       <c r="G135" s="19" t="s">
         <v>91</v>
       </c>
       <c r="H135" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I135" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="I135" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="J135" s="19" t="s">
         <v>393</v>
@@ -8323,7 +8233,7 @@
       <c r="M137" s="5"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
-      <c r="A138" s="42" t="s">
+      <c r="A138" s="41" t="s">
         <v>394</v>
       </c>
       <c r="B138" s="2"/>
@@ -8335,8 +8245,8 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
       <c r="J138" s="8"/>
-      <c r="K138" s="33"/>
-      <c r="L138" s="43"/>
+      <c r="K138" s="32"/>
+      <c r="L138" s="42"/>
       <c r="M138" s="5"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
@@ -8350,7 +8260,7 @@
       <c r="C139" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="D139" s="31" t="s">
+      <c r="D139" s="30" t="s">
         <v>397</v>
       </c>
       <c r="E139" s="19" t="s">
@@ -8362,7 +8272,7 @@
       <c r="G139" s="19"/>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
-      <c r="J139" s="31"/>
+      <c r="J139" s="30"/>
       <c r="K139" s="11" t="s">
         <v>20</v>
       </c>
@@ -8390,7 +8300,7 @@
         <v>395</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H140" s="16">
         <v>44927.0</v>
@@ -8400,7 +8310,7 @@
       </c>
       <c r="J140" s="17"/>
       <c r="K140" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L140" s="4"/>
       <c r="M140" s="5"/>
@@ -8503,10 +8413,10 @@
         <v>414</v>
       </c>
       <c r="H143" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I143" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I143" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J143" s="17" t="s">
         <v>415</v>
@@ -8538,19 +8448,19 @@
         <v>395</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H144" s="14" t="s">
         <v>317</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J144" s="17" t="s">
         <v>420</v>
       </c>
       <c r="K144" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L144" s="4"/>
       <c r="M144" s="5"/>
@@ -8693,10 +8603,10 @@
         <v>440</v>
       </c>
       <c r="H148" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I148" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I148" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J148" s="17" t="s">
         <v>441</v>
@@ -8731,10 +8641,10 @@
         <v>440</v>
       </c>
       <c r="H149" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I149" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I149" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J149" s="17" t="s">
         <v>441</v>
@@ -8807,10 +8717,10 @@
         <v>283</v>
       </c>
       <c r="H151" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I151" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I151" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J151" s="17" t="s">
         <v>452</v>
@@ -8845,10 +8755,10 @@
         <v>457</v>
       </c>
       <c r="H152" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I152" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I152" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J152" s="17" t="s">
         <v>458</v>
@@ -8908,7 +8818,7 @@
       <c r="M154" s="5"/>
     </row>
     <row r="155" ht="12.75" customHeight="1">
-      <c r="A155" s="33" t="s">
+      <c r="A155" s="32" t="s">
         <v>460</v>
       </c>
       <c r="B155" s="2"/>
@@ -8935,7 +8845,7 @@
       <c r="C156" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="D156" s="31" t="s">
+      <c r="D156" s="30" t="s">
         <v>463</v>
       </c>
       <c r="E156" s="19" t="s">
@@ -8965,7 +8875,7 @@
       <c r="C157" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="D157" s="31" t="s">
+      <c r="D157" s="30" t="s">
         <v>465</v>
       </c>
       <c r="E157" s="19" t="s">
@@ -8977,7 +8887,7 @@
       <c r="G157" s="19"/>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
-      <c r="J157" s="31" t="s">
+      <c r="J157" s="30" t="s">
         <v>465</v>
       </c>
       <c r="K157" s="11" t="s">
@@ -9237,10 +9147,10 @@
       <c r="G164" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="H164" s="44" t="s">
+      <c r="H164" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="I164" s="44" t="s">
+      <c r="I164" s="43" t="s">
         <v>19</v>
       </c>
       <c r="J164" s="17" t="s">
@@ -9413,7 +9323,7 @@
       <c r="M169" s="5"/>
     </row>
     <row r="170" ht="12.75" customHeight="1">
-      <c r="A170" s="45" t="s">
+      <c r="A170" s="32" t="s">
         <v>504</v>
       </c>
       <c r="B170" s="2"/>
@@ -9434,13 +9344,13 @@
         <f>A167+1</f>
         <v>127</v>
       </c>
-      <c r="B171" s="46" t="s">
+      <c r="B171" s="19" t="s">
         <v>505</v>
       </c>
       <c r="C171" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="D171" s="31" t="s">
+      <c r="D171" s="30" t="s">
         <v>507</v>
       </c>
       <c r="E171" s="19" t="s">
@@ -9454,9 +9364,9 @@
         <v>508</v>
       </c>
       <c r="I171" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J171" s="31"/>
+        <v>109</v>
+      </c>
+      <c r="J171" s="30"/>
       <c r="K171" s="11" t="s">
         <v>20</v>
       </c>
@@ -9468,7 +9378,7 @@
         <f t="shared" ref="A172:A179" si="14">A171+1</f>
         <v>128</v>
       </c>
-      <c r="B172" s="46" t="s">
+      <c r="B172" s="19" t="s">
         <v>509</v>
       </c>
       <c r="C172" s="14" t="s">
@@ -9478,7 +9388,7 @@
       <c r="E172" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="F172" s="46" t="s">
+      <c r="F172" s="19" t="s">
         <v>505</v>
       </c>
       <c r="G172" s="14" t="s">
@@ -9502,7 +9412,7 @@
         <f t="shared" si="14"/>
         <v>129</v>
       </c>
-      <c r="B173" s="46" t="s">
+      <c r="B173" s="19" t="s">
         <v>511</v>
       </c>
       <c r="C173" s="14" t="s">
@@ -9514,7 +9424,7 @@
       <c r="E173" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F173" s="46" t="s">
+      <c r="F173" s="19" t="s">
         <v>505</v>
       </c>
       <c r="G173" s="14" t="s">
@@ -9540,7 +9450,7 @@
         <f t="shared" si="14"/>
         <v>130</v>
       </c>
-      <c r="B174" s="46" t="s">
+      <c r="B174" s="19" t="s">
         <v>514</v>
       </c>
       <c r="C174" s="14" t="s">
@@ -9552,7 +9462,7 @@
       <c r="E174" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F174" s="46" t="s">
+      <c r="F174" s="19" t="s">
         <v>505</v>
       </c>
       <c r="G174" s="14" t="s">
@@ -9578,7 +9488,7 @@
         <f t="shared" si="14"/>
         <v>131</v>
       </c>
-      <c r="B175" s="46" t="s">
+      <c r="B175" s="19" t="s">
         <v>518</v>
       </c>
       <c r="C175" s="14" t="s">
@@ -9590,7 +9500,7 @@
       <c r="E175" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F175" s="46" t="s">
+      <c r="F175" s="19" t="s">
         <v>505</v>
       </c>
       <c r="G175" s="14" t="s">
@@ -9616,7 +9526,7 @@
         <f t="shared" si="14"/>
         <v>132</v>
       </c>
-      <c r="B176" s="46" t="s">
+      <c r="B176" s="19" t="s">
         <v>521</v>
       </c>
       <c r="C176" s="14" t="s">
@@ -9628,7 +9538,7 @@
       <c r="E176" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F176" s="46" t="s">
+      <c r="F176" s="19" t="s">
         <v>505</v>
       </c>
       <c r="G176" s="14" t="s">
@@ -9654,7 +9564,7 @@
         <f t="shared" si="14"/>
         <v>133</v>
       </c>
-      <c r="B177" s="46" t="s">
+      <c r="B177" s="19" t="s">
         <v>524</v>
       </c>
       <c r="C177" s="14" t="s">
@@ -9666,7 +9576,7 @@
       <c r="E177" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F177" s="46" t="s">
+      <c r="F177" s="19" t="s">
         <v>505</v>
       </c>
       <c r="G177" s="14" t="s">
@@ -9692,7 +9602,7 @@
         <f t="shared" si="14"/>
         <v>134</v>
       </c>
-      <c r="B178" s="46" t="s">
+      <c r="B178" s="19" t="s">
         <v>527</v>
       </c>
       <c r="C178" s="14" t="s">
@@ -9704,7 +9614,7 @@
       <c r="E178" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F178" s="46" t="s">
+      <c r="F178" s="19" t="s">
         <v>505</v>
       </c>
       <c r="G178" s="14" t="s">
@@ -9730,7 +9640,7 @@
         <f t="shared" si="14"/>
         <v>135</v>
       </c>
-      <c r="B179" s="46" t="s">
+      <c r="B179" s="19" t="s">
         <v>530</v>
       </c>
       <c r="C179" s="14" t="s">
@@ -9742,7 +9652,7 @@
       <c r="E179" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F179" s="46" t="s">
+      <c r="F179" s="19" t="s">
         <v>505</v>
       </c>
       <c r="G179" s="14" t="s">
@@ -9765,15 +9675,15 @@
     </row>
     <row r="180" ht="12.75" customHeight="1">
       <c r="A180" s="19"/>
-      <c r="B180" s="46"/>
-      <c r="C180" s="47"/>
-      <c r="D180" s="47"/>
-      <c r="E180" s="47"/>
-      <c r="F180" s="47"/>
-      <c r="G180" s="47"/>
-      <c r="H180" s="47"/>
-      <c r="I180" s="47"/>
-      <c r="J180" s="47"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="44"/>
+      <c r="D180" s="44"/>
+      <c r="E180" s="44"/>
+      <c r="F180" s="44"/>
+      <c r="G180" s="44"/>
+      <c r="H180" s="44"/>
+      <c r="I180" s="44"/>
+      <c r="J180" s="44"/>
       <c r="K180" s="17"/>
       <c r="L180" s="4"/>
       <c r="M180" s="5"/>
@@ -9812,7 +9722,7 @@
       <c r="M181" s="5"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
-      <c r="A182" s="45" t="s">
+      <c r="A182" s="32" t="s">
         <v>533</v>
       </c>
       <c r="B182" s="2"/>
@@ -9833,13 +9743,13 @@
         <f>A179+1</f>
         <v>136</v>
       </c>
-      <c r="B183" s="46" t="s">
+      <c r="B183" s="19" t="s">
         <v>534</v>
       </c>
       <c r="C183" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="D183" s="31" t="s">
+      <c r="D183" s="30" t="s">
         <v>536</v>
       </c>
       <c r="E183" s="19" t="s">
@@ -9850,12 +9760,12 @@
       </c>
       <c r="G183" s="19"/>
       <c r="H183" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I183" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I183" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J183" s="31"/>
+      <c r="J183" s="30"/>
       <c r="K183" s="11" t="s">
         <v>20</v>
       </c>
@@ -9867,7 +9777,7 @@
         <f t="shared" ref="A184:A187" si="15">A183+1</f>
         <v>137</v>
       </c>
-      <c r="B184" s="46" t="s">
+      <c r="B184" s="19" t="s">
         <v>537</v>
       </c>
       <c r="C184" s="14" t="s">
@@ -9879,7 +9789,7 @@
       <c r="E184" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F184" s="48" t="s">
+      <c r="F184" s="14" t="s">
         <v>534</v>
       </c>
       <c r="G184" s="14" t="s">
@@ -9905,7 +9815,7 @@
         <f t="shared" si="15"/>
         <v>138</v>
       </c>
-      <c r="B185" s="46" t="s">
+      <c r="B185" s="19" t="s">
         <v>540</v>
       </c>
       <c r="C185" s="14" t="s">
@@ -9917,7 +9827,7 @@
       <c r="E185" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F185" s="48" t="s">
+      <c r="F185" s="14" t="s">
         <v>534</v>
       </c>
       <c r="G185" s="14" t="s">
@@ -9943,7 +9853,7 @@
         <f t="shared" si="15"/>
         <v>139</v>
       </c>
-      <c r="B186" s="46" t="s">
+      <c r="B186" s="19" t="s">
         <v>542</v>
       </c>
       <c r="C186" s="14" t="s">
@@ -9955,7 +9865,7 @@
       <c r="E186" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F186" s="48" t="s">
+      <c r="F186" s="14" t="s">
         <v>534</v>
       </c>
       <c r="G186" s="14" t="s">
@@ -9981,7 +9891,7 @@
         <f t="shared" si="15"/>
         <v>140</v>
       </c>
-      <c r="B187" s="46" t="s">
+      <c r="B187" s="19" t="s">
         <v>545</v>
       </c>
       <c r="C187" s="14" t="s">
@@ -9993,7 +9903,7 @@
       <c r="E187" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F187" s="48" t="s">
+      <c r="F187" s="14" t="s">
         <v>534</v>
       </c>
       <c r="G187" s="14" t="s">
@@ -10063,7 +9973,7 @@
       <c r="M189" s="5"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
-      <c r="A190" s="45" t="s">
+      <c r="A190" s="32" t="s">
         <v>548</v>
       </c>
       <c r="B190" s="2"/>
@@ -10084,13 +9994,13 @@
         <f>A187+1</f>
         <v>141</v>
       </c>
-      <c r="B191" s="46" t="s">
+      <c r="B191" s="19" t="s">
         <v>549</v>
       </c>
       <c r="C191" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="D191" s="31" t="s">
+      <c r="D191" s="30" t="s">
         <v>551</v>
       </c>
       <c r="E191" s="19" t="s">
@@ -10101,12 +10011,12 @@
       </c>
       <c r="G191" s="19"/>
       <c r="H191" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I191" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I191" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J191" s="31"/>
+      <c r="J191" s="30"/>
       <c r="K191" s="11" t="s">
         <v>20</v>
       </c>
@@ -10118,7 +10028,7 @@
         <f t="shared" ref="A192:A195" si="16">A191+1</f>
         <v>142</v>
       </c>
-      <c r="B192" s="46" t="s">
+      <c r="B192" s="19" t="s">
         <v>552</v>
       </c>
       <c r="C192" s="14" t="s">
@@ -10130,7 +10040,7 @@
       <c r="E192" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F192" s="46" t="s">
+      <c r="F192" s="19" t="s">
         <v>549</v>
       </c>
       <c r="G192" s="14" t="s">
@@ -10156,7 +10066,7 @@
         <f t="shared" si="16"/>
         <v>143</v>
       </c>
-      <c r="B193" s="46" t="s">
+      <c r="B193" s="19" t="s">
         <v>555</v>
       </c>
       <c r="C193" s="14" t="s">
@@ -10168,7 +10078,7 @@
       <c r="E193" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F193" s="46" t="s">
+      <c r="F193" s="19" t="s">
         <v>549</v>
       </c>
       <c r="G193" s="14" t="s">
@@ -10194,7 +10104,7 @@
         <f t="shared" si="16"/>
         <v>144</v>
       </c>
-      <c r="B194" s="46" t="s">
+      <c r="B194" s="19" t="s">
         <v>557</v>
       </c>
       <c r="C194" s="14" t="s">
@@ -10206,7 +10116,7 @@
       <c r="E194" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F194" s="46" t="s">
+      <c r="F194" s="19" t="s">
         <v>549</v>
       </c>
       <c r="G194" s="14" t="s">
@@ -10232,7 +10142,7 @@
         <f t="shared" si="16"/>
         <v>145</v>
       </c>
-      <c r="B195" s="46" t="s">
+      <c r="B195" s="19" t="s">
         <v>560</v>
       </c>
       <c r="C195" s="14" t="s">
@@ -10244,7 +10154,7 @@
       <c r="E195" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F195" s="46" t="s">
+      <c r="F195" s="19" t="s">
         <v>549</v>
       </c>
       <c r="G195" s="14" t="s">
@@ -10266,7 +10176,7 @@
       <c r="M195" s="5"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
-      <c r="A196" s="42"/>
+      <c r="A196" s="41"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -10314,7 +10224,7 @@
       <c r="M197" s="5"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
-      <c r="A198" s="45" t="s">
+      <c r="A198" s="32" t="s">
         <v>563</v>
       </c>
       <c r="B198" s="2"/>
@@ -10335,13 +10245,13 @@
         <f>A195+1</f>
         <v>146</v>
       </c>
-      <c r="B199" s="46" t="s">
+      <c r="B199" s="19" t="s">
         <v>564</v>
       </c>
       <c r="C199" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="D199" s="31" t="s">
+      <c r="D199" s="30" t="s">
         <v>566</v>
       </c>
       <c r="E199" s="19" t="s">
@@ -10352,12 +10262,12 @@
       </c>
       <c r="G199" s="19"/>
       <c r="H199" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I199" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I199" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J199" s="31"/>
+      <c r="J199" s="30"/>
       <c r="K199" s="11" t="s">
         <v>20</v>
       </c>
@@ -10369,7 +10279,7 @@
         <f t="shared" ref="A200:A202" si="17">A199+1</f>
         <v>147</v>
       </c>
-      <c r="B200" s="46" t="s">
+      <c r="B200" s="19" t="s">
         <v>567</v>
       </c>
       <c r="C200" s="14" t="s">
@@ -10381,7 +10291,7 @@
       <c r="E200" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F200" s="46" t="s">
+      <c r="F200" s="19" t="s">
         <v>564</v>
       </c>
       <c r="G200" s="14" t="s">
@@ -10407,7 +10317,7 @@
         <f t="shared" si="17"/>
         <v>148</v>
       </c>
-      <c r="B201" s="46" t="s">
+      <c r="B201" s="19" t="s">
         <v>569</v>
       </c>
       <c r="C201" s="14" t="s">
@@ -10419,7 +10329,7 @@
       <c r="E201" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F201" s="46" t="s">
+      <c r="F201" s="19" t="s">
         <v>564</v>
       </c>
       <c r="G201" s="14" t="s">
@@ -10445,7 +10355,7 @@
         <f t="shared" si="17"/>
         <v>149</v>
       </c>
-      <c r="B202" s="46" t="s">
+      <c r="B202" s="19" t="s">
         <v>572</v>
       </c>
       <c r="C202" s="14" t="s">
@@ -10457,7 +10367,7 @@
       <c r="E202" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F202" s="46" t="s">
+      <c r="F202" s="19" t="s">
         <v>564</v>
       </c>
       <c r="G202" s="14" t="s">
@@ -10527,7 +10437,7 @@
       <c r="M204" s="5"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
-      <c r="A205" s="45" t="s">
+      <c r="A205" s="32" t="s">
         <v>575</v>
       </c>
       <c r="B205" s="2"/>
@@ -10548,13 +10458,13 @@
         <f>A202+1</f>
         <v>150</v>
       </c>
-      <c r="B206" s="46" t="s">
+      <c r="B206" s="19" t="s">
         <v>576</v>
       </c>
       <c r="C206" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="D206" s="31" t="s">
+      <c r="D206" s="30" t="s">
         <v>578</v>
       </c>
       <c r="E206" s="19" t="s">
@@ -10565,12 +10475,12 @@
       </c>
       <c r="G206" s="19"/>
       <c r="H206" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I206" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I206" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J206" s="31"/>
+      <c r="J206" s="30"/>
       <c r="K206" s="11" t="s">
         <v>20</v>
       </c>
@@ -10582,7 +10492,7 @@
         <f t="shared" ref="A207:A209" si="18">A206+1</f>
         <v>151</v>
       </c>
-      <c r="B207" s="46" t="s">
+      <c r="B207" s="19" t="s">
         <v>579</v>
       </c>
       <c r="C207" s="14" t="s">
@@ -10594,7 +10504,7 @@
       <c r="E207" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F207" s="46" t="s">
+      <c r="F207" s="19" t="s">
         <v>576</v>
       </c>
       <c r="G207" s="14" t="s">
@@ -10620,7 +10530,7 @@
         <f t="shared" si="18"/>
         <v>152</v>
       </c>
-      <c r="B208" s="46" t="s">
+      <c r="B208" s="19" t="s">
         <v>581</v>
       </c>
       <c r="C208" s="14" t="s">
@@ -10632,7 +10542,7 @@
       <c r="E208" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F208" s="46" t="s">
+      <c r="F208" s="19" t="s">
         <v>576</v>
       </c>
       <c r="G208" s="14" t="s">
@@ -10658,7 +10568,7 @@
         <f t="shared" si="18"/>
         <v>153</v>
       </c>
-      <c r="B209" s="46" t="s">
+      <c r="B209" s="19" t="s">
         <v>584</v>
       </c>
       <c r="C209" s="14" t="s">
@@ -10670,7 +10580,7 @@
       <c r="E209" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F209" s="46" t="s">
+      <c r="F209" s="19" t="s">
         <v>576</v>
       </c>
       <c r="G209" s="14" t="s">
@@ -10740,7 +10650,7 @@
       <c r="M211" s="5"/>
     </row>
     <row r="212" ht="17.25" customHeight="1">
-      <c r="A212" s="45" t="s">
+      <c r="A212" s="32" t="s">
         <v>587</v>
       </c>
       <c r="B212" s="2"/>
@@ -10761,13 +10671,13 @@
         <f>A209+1</f>
         <v>154</v>
       </c>
-      <c r="B213" s="46" t="s">
+      <c r="B213" s="19" t="s">
         <v>588</v>
       </c>
       <c r="C213" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="D213" s="31" t="s">
+      <c r="D213" s="30" t="s">
         <v>590</v>
       </c>
       <c r="E213" s="19" t="s">
@@ -10778,12 +10688,12 @@
       </c>
       <c r="G213" s="19"/>
       <c r="H213" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I213" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I213" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J213" s="31"/>
+      <c r="J213" s="30"/>
       <c r="K213" s="11" t="s">
         <v>20</v>
       </c>
@@ -10795,7 +10705,7 @@
         <f t="shared" ref="A214:A218" si="19">A213+1</f>
         <v>155</v>
       </c>
-      <c r="B214" s="46" t="s">
+      <c r="B214" s="19" t="s">
         <v>591</v>
       </c>
       <c r="C214" s="14" t="s">
@@ -10807,7 +10717,7 @@
       <c r="E214" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F214" s="46" t="s">
+      <c r="F214" s="19" t="s">
         <v>588</v>
       </c>
       <c r="G214" s="14" t="s">
@@ -10833,7 +10743,7 @@
         <f t="shared" si="19"/>
         <v>156</v>
       </c>
-      <c r="B215" s="46" t="s">
+      <c r="B215" s="19" t="s">
         <v>594</v>
       </c>
       <c r="C215" s="14" t="s">
@@ -10845,7 +10755,7 @@
       <c r="E215" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F215" s="46" t="s">
+      <c r="F215" s="19" t="s">
         <v>588</v>
       </c>
       <c r="G215" s="14" t="s">
@@ -10871,7 +10781,7 @@
         <f t="shared" si="19"/>
         <v>157</v>
       </c>
-      <c r="B216" s="46" t="s">
+      <c r="B216" s="19" t="s">
         <v>597</v>
       </c>
       <c r="C216" s="14" t="s">
@@ -10883,7 +10793,7 @@
       <c r="E216" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F216" s="46" t="s">
+      <c r="F216" s="19" t="s">
         <v>588</v>
       </c>
       <c r="G216" s="14" t="s">
@@ -10909,7 +10819,7 @@
         <f t="shared" si="19"/>
         <v>158</v>
       </c>
-      <c r="B217" s="46" t="s">
+      <c r="B217" s="19" t="s">
         <v>600</v>
       </c>
       <c r="C217" s="14" t="s">
@@ -10921,7 +10831,7 @@
       <c r="E217" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F217" s="46" t="s">
+      <c r="F217" s="19" t="s">
         <v>588</v>
       </c>
       <c r="G217" s="14" t="s">
@@ -10947,7 +10857,7 @@
         <f t="shared" si="19"/>
         <v>159</v>
       </c>
-      <c r="B218" s="46" t="s">
+      <c r="B218" s="19" t="s">
         <v>603</v>
       </c>
       <c r="C218" s="14" t="s">
@@ -10959,7 +10869,7 @@
       <c r="E218" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F218" s="46" t="s">
+      <c r="F218" s="19" t="s">
         <v>588</v>
       </c>
       <c r="G218" s="14" t="s">
@@ -11029,7 +10939,7 @@
       <c r="M220" s="5"/>
     </row>
     <row r="221" ht="12.75" customHeight="1">
-      <c r="A221" s="49" t="s">
+      <c r="A221" s="45" t="s">
         <v>606</v>
       </c>
       <c r="B221" s="2"/>
@@ -11046,7 +10956,7 @@
       <c r="M221" s="5"/>
     </row>
     <row r="222" ht="12.75" customHeight="1">
-      <c r="A222" s="21">
+      <c r="A222" s="22">
         <f>A218+1</f>
         <v>160</v>
       </c>
@@ -11056,21 +10966,21 @@
       <c r="C222" s="22" t="s">
         <v>608</v>
       </c>
-      <c r="D222" s="50" t="s">
+      <c r="D222" s="24" t="s">
         <v>609</v>
       </c>
-      <c r="E222" s="21" t="s">
+      <c r="E222" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F222" s="21" t="s">
+      <c r="F222" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="G222" s="21"/>
-      <c r="H222" s="21" t="s">
+      <c r="G222" s="22"/>
+      <c r="H222" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I222" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="I222" s="21" t="s">
-        <v>110</v>
       </c>
       <c r="J222" s="24"/>
       <c r="K222" s="11" t="s">
@@ -11080,17 +10990,17 @@
       <c r="M222" s="5"/>
     </row>
     <row r="223" ht="12.75" customHeight="1">
-      <c r="A223" s="21">
-        <f t="shared" ref="A223:A224" si="20">A222+1</f>
+      <c r="A223" s="22">
+        <f t="shared" ref="A223:A226" si="20">A222+1</f>
         <v>161</v>
       </c>
       <c r="B223" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="C223" s="51" t="s">
+      <c r="C223" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="D223" s="52" t="s">
+      <c r="D223" s="46" t="s">
         <v>611</v>
       </c>
       <c r="E223" s="25" t="s">
@@ -11099,7 +11009,7 @@
       <c r="F223" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="G223" s="51" t="s">
+      <c r="G223" s="25" t="s">
         <v>612</v>
       </c>
       <c r="H223" s="27">
@@ -11108,7 +11018,7 @@
       <c r="I223" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J223" s="53"/>
+      <c r="J223" s="47"/>
       <c r="K223" s="17" t="s">
         <v>436</v>
       </c>
@@ -11116,17 +11026,17 @@
       <c r="M223" s="5"/>
     </row>
     <row r="224" ht="12.75" customHeight="1">
-      <c r="A224" s="21">
+      <c r="A224" s="22">
         <f t="shared" si="20"/>
         <v>162</v>
       </c>
       <c r="B224" s="22" t="s">
         <v>613</v>
       </c>
-      <c r="C224" s="51" t="s">
+      <c r="C224" s="25" t="s">
         <v>614</v>
       </c>
-      <c r="D224" s="52" t="s">
+      <c r="D224" s="46" t="s">
         <v>615</v>
       </c>
       <c r="E224" s="25" t="s">
@@ -11135,7 +11045,7 @@
       <c r="F224" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="G224" s="51" t="s">
+      <c r="G224" s="25" t="s">
         <v>616</v>
       </c>
       <c r="H224" s="27">
@@ -11144,7 +11054,7 @@
       <c r="I224" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J224" s="53"/>
+      <c r="J224" s="47"/>
       <c r="K224" s="17" t="s">
         <v>436</v>
       </c>
@@ -11152,8 +11062,8 @@
       <c r="M224" s="5"/>
     </row>
     <row r="225" ht="12.75" customHeight="1">
-      <c r="A225" s="21">
-        <f>A224+1</f>
+      <c r="A225" s="22">
+        <f t="shared" si="20"/>
         <v>163</v>
       </c>
       <c r="B225" s="22" t="s">
@@ -11162,21 +11072,21 @@
       <c r="C225" s="22" t="s">
         <v>618</v>
       </c>
-      <c r="D225" s="50" t="s">
+      <c r="D225" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="E225" s="21" t="s">
+      <c r="E225" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F225" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="G225" s="21"/>
-      <c r="H225" s="21" t="s">
+      <c r="G225" s="22"/>
+      <c r="H225" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I225" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="I225" s="21" t="s">
-        <v>110</v>
       </c>
       <c r="J225" s="24"/>
       <c r="K225" s="17" t="s">
@@ -11186,17 +11096,17 @@
       <c r="M225" s="5"/>
     </row>
     <row r="226" ht="12.75" customHeight="1">
-      <c r="A226" s="21">
-        <f>A225+1</f>
+      <c r="A226" s="22">
+        <f t="shared" si="20"/>
         <v>164</v>
       </c>
       <c r="B226" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="C226" s="51" t="s">
+      <c r="C226" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="D226" s="52" t="s">
+      <c r="D226" s="46" t="s">
         <v>621</v>
       </c>
       <c r="E226" s="25" t="s">
@@ -11205,7 +11115,7 @@
       <c r="F226" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="G226" s="51" t="s">
+      <c r="G226" s="25" t="s">
         <v>622</v>
       </c>
       <c r="H226" s="27">
@@ -11214,7 +11124,7 @@
       <c r="I226" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J226" s="54" t="s">
+      <c r="J226" s="47" t="s">
         <v>623</v>
       </c>
       <c r="K226" s="17" t="s">
@@ -11272,7 +11182,7 @@
       <c r="M228" s="5"/>
     </row>
     <row r="229" ht="12.75" customHeight="1">
-      <c r="A229" s="49" t="s">
+      <c r="A229" s="45" t="s">
         <v>624</v>
       </c>
       <c r="B229" s="2"/>
@@ -11289,7 +11199,7 @@
       <c r="M229" s="5"/>
     </row>
     <row r="230" ht="12.75" customHeight="1">
-      <c r="A230" s="21">
+      <c r="A230" s="22">
         <f>A226+1</f>
         <v>165</v>
       </c>
@@ -11299,17 +11209,17 @@
       <c r="C230" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="D230" s="50" t="s">
+      <c r="D230" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="E230" s="21" t="s">
+      <c r="E230" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F230" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="G230" s="21"/>
-      <c r="H230" s="55">
+      <c r="G230" s="22"/>
+      <c r="H230" s="48">
         <v>45658.0</v>
       </c>
       <c r="I230" s="22" t="s">
@@ -11323,17 +11233,17 @@
       <c r="M230" s="5"/>
     </row>
     <row r="231" ht="12.75" customHeight="1">
-      <c r="A231" s="21">
+      <c r="A231" s="22">
         <f t="shared" ref="A231:A240" si="21">A230+1</f>
         <v>166</v>
       </c>
       <c r="B231" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="C231" s="51" t="s">
+      <c r="C231" s="25" t="s">
         <v>629</v>
       </c>
-      <c r="D231" s="52" t="s">
+      <c r="D231" s="46" t="s">
         <v>630</v>
       </c>
       <c r="E231" s="25" t="s">
@@ -11342,7 +11252,7 @@
       <c r="F231" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="G231" s="51" t="s">
+      <c r="G231" s="25" t="s">
         <v>631</v>
       </c>
       <c r="H231" s="27">
@@ -11351,7 +11261,7 @@
       <c r="I231" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J231" s="54" t="s">
+      <c r="J231" s="47" t="s">
         <v>632</v>
       </c>
       <c r="K231" s="17" t="s">
@@ -11361,7 +11271,7 @@
       <c r="M231" s="5"/>
     </row>
     <row r="232" ht="12.75" customHeight="1">
-      <c r="A232" s="21">
+      <c r="A232" s="22">
         <f t="shared" si="21"/>
         <v>167</v>
       </c>
@@ -11371,21 +11281,21 @@
       <c r="C232" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="D232" s="50" t="s">
+      <c r="D232" s="24" t="s">
         <v>635</v>
       </c>
-      <c r="E232" s="21" t="s">
+      <c r="E232" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F232" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="G232" s="21"/>
-      <c r="H232" s="21" t="s">
+      <c r="G232" s="22"/>
+      <c r="H232" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I232" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="I232" s="21" t="s">
-        <v>110</v>
       </c>
       <c r="J232" s="24"/>
       <c r="K232" s="17" t="s">
@@ -11395,17 +11305,17 @@
       <c r="M232" s="5"/>
     </row>
     <row r="233" ht="12.75" customHeight="1">
-      <c r="A233" s="21">
+      <c r="A233" s="22">
         <f t="shared" si="21"/>
         <v>168</v>
       </c>
       <c r="B233" s="22" t="s">
         <v>636</v>
       </c>
-      <c r="C233" s="51" t="s">
+      <c r="C233" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="D233" s="52" t="s">
+      <c r="D233" s="46" t="s">
         <v>638</v>
       </c>
       <c r="E233" s="25" t="s">
@@ -11414,7 +11324,7 @@
       <c r="F233" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="G233" s="51" t="s">
+      <c r="G233" s="25" t="s">
         <v>631</v>
       </c>
       <c r="H233" s="27">
@@ -11423,7 +11333,7 @@
       <c r="I233" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J233" s="54" t="s">
+      <c r="J233" s="47" t="s">
         <v>632</v>
       </c>
       <c r="K233" s="17" t="s">
@@ -11433,17 +11343,17 @@
       <c r="M233" s="5"/>
     </row>
     <row r="234" ht="12.75" customHeight="1">
-      <c r="A234" s="21">
+      <c r="A234" s="22">
         <f t="shared" si="21"/>
         <v>169</v>
       </c>
       <c r="B234" s="22" t="s">
         <v>639</v>
       </c>
-      <c r="C234" s="51" t="s">
+      <c r="C234" s="25" t="s">
         <v>640</v>
       </c>
-      <c r="D234" s="52" t="s">
+      <c r="D234" s="46" t="s">
         <v>641</v>
       </c>
       <c r="E234" s="25" t="s">
@@ -11452,7 +11362,7 @@
       <c r="F234" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="G234" s="51" t="s">
+      <c r="G234" s="25" t="s">
         <v>622</v>
       </c>
       <c r="H234" s="27">
@@ -11461,15 +11371,15 @@
       <c r="I234" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J234" s="54" t="s">
+      <c r="J234" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="K234" s="56"/>
+      <c r="K234" s="49"/>
       <c r="L234" s="4"/>
       <c r="M234" s="5"/>
     </row>
     <row r="235" ht="12.75" customHeight="1">
-      <c r="A235" s="21">
+      <c r="A235" s="22">
         <f t="shared" si="21"/>
         <v>170</v>
       </c>
@@ -11479,39 +11389,39 @@
       <c r="C235" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="D235" s="50" t="s">
+      <c r="D235" s="24" t="s">
         <v>644</v>
       </c>
-      <c r="E235" s="21" t="s">
+      <c r="E235" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F235" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="G235" s="21"/>
-      <c r="H235" s="21" t="s">
+      <c r="G235" s="22"/>
+      <c r="H235" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I235" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="I235" s="21" t="s">
-        <v>110</v>
-      </c>
       <c r="J235" s="24"/>
-      <c r="K235" s="56"/>
+      <c r="K235" s="49"/>
       <c r="L235" s="4"/>
       <c r="M235" s="5"/>
     </row>
     <row r="236" ht="12.75" customHeight="1">
-      <c r="A236" s="21">
+      <c r="A236" s="22">
         <f t="shared" si="21"/>
         <v>171</v>
       </c>
       <c r="B236" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="C236" s="51" t="s">
+      <c r="C236" s="25" t="s">
         <v>646</v>
       </c>
-      <c r="D236" s="52" t="s">
+      <c r="D236" s="46" t="s">
         <v>647</v>
       </c>
       <c r="E236" s="25" t="s">
@@ -11520,7 +11430,7 @@
       <c r="F236" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="G236" s="51" t="s">
+      <c r="G236" s="25" t="s">
         <v>622</v>
       </c>
       <c r="H236" s="27">
@@ -11529,15 +11439,15 @@
       <c r="I236" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J236" s="54" t="s">
+      <c r="J236" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="K236" s="56"/>
+      <c r="K236" s="49"/>
       <c r="L236" s="4"/>
       <c r="M236" s="5"/>
     </row>
     <row r="237" ht="12.75" customHeight="1">
-      <c r="A237" s="21">
+      <c r="A237" s="22">
         <f t="shared" si="21"/>
         <v>172</v>
       </c>
@@ -11547,39 +11457,39 @@
       <c r="C237" s="22" t="s">
         <v>649</v>
       </c>
-      <c r="D237" s="50" t="s">
+      <c r="D237" s="24" t="s">
         <v>650</v>
       </c>
-      <c r="E237" s="21" t="s">
+      <c r="E237" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F237" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="G237" s="21"/>
-      <c r="H237" s="21" t="s">
+      <c r="G237" s="22"/>
+      <c r="H237" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I237" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="I237" s="21" t="s">
-        <v>110</v>
-      </c>
       <c r="J237" s="24"/>
-      <c r="K237" s="56"/>
+      <c r="K237" s="49"/>
       <c r="L237" s="4"/>
       <c r="M237" s="5"/>
     </row>
     <row r="238" ht="12.75" customHeight="1">
-      <c r="A238" s="21">
+      <c r="A238" s="22">
         <f t="shared" si="21"/>
         <v>173</v>
       </c>
       <c r="B238" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="C238" s="51" t="s">
+      <c r="C238" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="D238" s="52" t="s">
+      <c r="D238" s="46" t="s">
         <v>653</v>
       </c>
       <c r="E238" s="25" t="s">
@@ -11588,7 +11498,7 @@
       <c r="F238" s="22" t="s">
         <v>648</v>
       </c>
-      <c r="G238" s="51" t="s">
+      <c r="G238" s="25" t="s">
         <v>631</v>
       </c>
       <c r="H238" s="27">
@@ -11597,25 +11507,25 @@
       <c r="I238" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J238" s="54" t="s">
+      <c r="J238" s="47" t="s">
         <v>632</v>
       </c>
-      <c r="K238" s="56"/>
+      <c r="K238" s="49"/>
       <c r="L238" s="4"/>
       <c r="M238" s="5"/>
     </row>
     <row r="239" ht="12.75" customHeight="1">
-      <c r="A239" s="21">
+      <c r="A239" s="22">
         <f t="shared" si="21"/>
         <v>174</v>
       </c>
       <c r="B239" s="22" t="s">
         <v>654</v>
       </c>
-      <c r="C239" s="51" t="s">
+      <c r="C239" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="D239" s="52" t="s">
+      <c r="D239" s="46" t="s">
         <v>656</v>
       </c>
       <c r="E239" s="25" t="s">
@@ -11624,7 +11534,7 @@
       <c r="F239" s="22" t="s">
         <v>648</v>
       </c>
-      <c r="G239" s="51" t="s">
+      <c r="G239" s="25" t="s">
         <v>622</v>
       </c>
       <c r="H239" s="27">
@@ -11633,25 +11543,25 @@
       <c r="I239" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J239" s="54" t="s">
+      <c r="J239" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="K239" s="56"/>
+      <c r="K239" s="49"/>
       <c r="L239" s="4"/>
       <c r="M239" s="5"/>
     </row>
     <row r="240" ht="12.75" customHeight="1">
-      <c r="A240" s="21">
+      <c r="A240" s="22">
         <f t="shared" si="21"/>
         <v>175</v>
       </c>
       <c r="B240" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="C240" s="51" t="s">
+      <c r="C240" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="D240" s="52" t="s">
+      <c r="D240" s="46" t="s">
         <v>659</v>
       </c>
       <c r="E240" s="25" t="s">
@@ -11660,7 +11570,7 @@
       <c r="F240" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="G240" s="51" t="s">
+      <c r="G240" s="25" t="s">
         <v>622</v>
       </c>
       <c r="H240" s="27">
@@ -11669,10 +11579,10 @@
       <c r="I240" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J240" s="54" t="s">
+      <c r="J240" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="K240" s="57"/>
+      <c r="K240" s="50"/>
       <c r="L240" s="4"/>
       <c r="M240" s="5"/>
     </row>
@@ -11725,7 +11635,7 @@
       <c r="M242" s="5"/>
     </row>
     <row r="243" ht="12.75" customHeight="1">
-      <c r="A243" s="49" t="s">
+      <c r="A243" s="45" t="s">
         <v>660</v>
       </c>
       <c r="B243" s="2"/>
@@ -11742,7 +11652,7 @@
       <c r="M243" s="5"/>
     </row>
     <row r="244" ht="12.75" customHeight="1">
-      <c r="A244" s="21">
+      <c r="A244" s="22">
         <f>A240+1</f>
         <v>176</v>
       </c>
@@ -11752,17 +11662,17 @@
       <c r="C244" s="22" t="s">
         <v>662</v>
       </c>
-      <c r="D244" s="50" t="s">
+      <c r="D244" s="24" t="s">
         <v>663</v>
       </c>
-      <c r="E244" s="21" t="s">
+      <c r="E244" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F244" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="G244" s="21"/>
-      <c r="H244" s="55">
+      <c r="G244" s="22"/>
+      <c r="H244" s="48">
         <v>45658.0</v>
       </c>
       <c r="I244" s="22" t="s">
@@ -11776,17 +11686,17 @@
       <c r="M244" s="5"/>
     </row>
     <row r="245" ht="12.75" customHeight="1">
-      <c r="A245" s="21">
-        <f>A244+1</f>
+      <c r="A245" s="22">
+        <f t="shared" ref="A245:A254" si="22">A244+1</f>
         <v>177</v>
       </c>
       <c r="B245" s="22" t="s">
         <v>664</v>
       </c>
-      <c r="C245" s="51" t="s">
+      <c r="C245" s="25" t="s">
         <v>665</v>
       </c>
-      <c r="D245" s="52" t="s">
+      <c r="D245" s="46" t="s">
         <v>666</v>
       </c>
       <c r="E245" s="25" t="s">
@@ -11795,7 +11705,7 @@
       <c r="F245" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="G245" s="51" t="s">
+      <c r="G245" s="25" t="s">
         <v>631</v>
       </c>
       <c r="H245" s="27">
@@ -11804,7 +11714,7 @@
       <c r="I245" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J245" s="54" t="s">
+      <c r="J245" s="47" t="s">
         <v>632</v>
       </c>
       <c r="K245" s="17" t="s">
@@ -11814,8 +11724,8 @@
       <c r="M245" s="5"/>
     </row>
     <row r="246" ht="12.75" customHeight="1">
-      <c r="A246" s="21">
-        <f>A245+1</f>
+      <c r="A246" s="22">
+        <f t="shared" si="22"/>
         <v>178</v>
       </c>
       <c r="B246" s="22" t="s">
@@ -11824,21 +11734,21 @@
       <c r="C246" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="D246" s="50" t="s">
+      <c r="D246" s="24" t="s">
         <v>635</v>
       </c>
-      <c r="E246" s="21" t="s">
+      <c r="E246" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F246" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="G246" s="21"/>
-      <c r="H246" s="21" t="s">
+      <c r="G246" s="22"/>
+      <c r="H246" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I246" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="I246" s="21" t="s">
-        <v>110</v>
       </c>
       <c r="J246" s="24"/>
       <c r="K246" s="17" t="s">
@@ -11848,17 +11758,17 @@
       <c r="M246" s="5"/>
     </row>
     <row r="247" ht="12.75" customHeight="1">
-      <c r="A247" s="21">
-        <f t="shared" ref="A247:A248" si="22">A246+1</f>
+      <c r="A247" s="22">
+        <f t="shared" si="22"/>
         <v>179</v>
       </c>
       <c r="B247" s="22" t="s">
         <v>668</v>
       </c>
-      <c r="C247" s="51" t="s">
+      <c r="C247" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="D247" s="52" t="s">
+      <c r="D247" s="46" t="s">
         <v>638</v>
       </c>
       <c r="E247" s="25" t="s">
@@ -11867,7 +11777,7 @@
       <c r="F247" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="G247" s="51" t="s">
+      <c r="G247" s="25" t="s">
         <v>631</v>
       </c>
       <c r="H247" s="27">
@@ -11876,7 +11786,7 @@
       <c r="I247" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J247" s="54" t="s">
+      <c r="J247" s="47" t="s">
         <v>632</v>
       </c>
       <c r="K247" s="17" t="s">
@@ -11886,17 +11796,17 @@
       <c r="M247" s="5"/>
     </row>
     <row r="248" ht="12.75" customHeight="1">
-      <c r="A248" s="21">
+      <c r="A248" s="22">
         <f t="shared" si="22"/>
         <v>180</v>
       </c>
       <c r="B248" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="C248" s="51" t="s">
+      <c r="C248" s="25" t="s">
         <v>640</v>
       </c>
-      <c r="D248" s="52" t="s">
+      <c r="D248" s="46" t="s">
         <v>641</v>
       </c>
       <c r="E248" s="25" t="s">
@@ -11905,7 +11815,7 @@
       <c r="F248" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="G248" s="51" t="s">
+      <c r="G248" s="25" t="s">
         <v>622</v>
       </c>
       <c r="H248" s="27">
@@ -11914,16 +11824,16 @@
       <c r="I248" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J248" s="54" t="s">
+      <c r="J248" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="K248" s="56"/>
+      <c r="K248" s="49"/>
       <c r="L248" s="4"/>
       <c r="M248" s="5"/>
     </row>
     <row r="249" ht="18.0" customHeight="1">
-      <c r="A249" s="21">
-        <f>A248+1</f>
+      <c r="A249" s="22">
+        <f t="shared" si="22"/>
         <v>181</v>
       </c>
       <c r="B249" s="22" t="s">
@@ -11932,39 +11842,39 @@
       <c r="C249" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="D249" s="50" t="s">
+      <c r="D249" s="24" t="s">
         <v>644</v>
       </c>
-      <c r="E249" s="21" t="s">
+      <c r="E249" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F249" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="G249" s="21"/>
-      <c r="H249" s="21" t="s">
+      <c r="G249" s="22"/>
+      <c r="H249" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I249" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="I249" s="21" t="s">
-        <v>110</v>
-      </c>
       <c r="J249" s="24"/>
-      <c r="K249" s="56"/>
+      <c r="K249" s="49"/>
       <c r="L249" s="4"/>
       <c r="M249" s="5"/>
     </row>
     <row r="250" ht="18.0" customHeight="1">
-      <c r="A250" s="21">
-        <f>A249+1</f>
+      <c r="A250" s="22">
+        <f t="shared" si="22"/>
         <v>182</v>
       </c>
       <c r="B250" s="22" t="s">
         <v>671</v>
       </c>
-      <c r="C250" s="51" t="s">
+      <c r="C250" s="25" t="s">
         <v>646</v>
       </c>
-      <c r="D250" s="52" t="s">
+      <c r="D250" s="46" t="s">
         <v>647</v>
       </c>
       <c r="E250" s="25" t="s">
@@ -11973,7 +11883,7 @@
       <c r="F250" s="22" t="s">
         <v>670</v>
       </c>
-      <c r="G250" s="51" t="s">
+      <c r="G250" s="25" t="s">
         <v>622</v>
       </c>
       <c r="H250" s="27">
@@ -11982,16 +11892,16 @@
       <c r="I250" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J250" s="54" t="s">
+      <c r="J250" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="K250" s="56"/>
+      <c r="K250" s="49"/>
       <c r="L250" s="4"/>
       <c r="M250" s="5"/>
     </row>
     <row r="251" ht="18.0" customHeight="1">
-      <c r="A251" s="21">
-        <f>A250+1</f>
+      <c r="A251" s="22">
+        <f t="shared" si="22"/>
         <v>183</v>
       </c>
       <c r="B251" s="22" t="s">
@@ -12000,39 +11910,39 @@
       <c r="C251" s="22" t="s">
         <v>649</v>
       </c>
-      <c r="D251" s="50" t="s">
+      <c r="D251" s="24" t="s">
         <v>650</v>
       </c>
-      <c r="E251" s="21" t="s">
+      <c r="E251" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F251" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="G251" s="21"/>
-      <c r="H251" s="21" t="s">
+      <c r="G251" s="22"/>
+      <c r="H251" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I251" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="I251" s="21" t="s">
-        <v>110</v>
-      </c>
       <c r="J251" s="24"/>
-      <c r="K251" s="56"/>
+      <c r="K251" s="49"/>
       <c r="L251" s="4"/>
       <c r="M251" s="5"/>
     </row>
     <row r="252" ht="12.75" customHeight="1">
-      <c r="A252" s="21">
-        <f t="shared" ref="A252:A253" si="23">A251+1</f>
+      <c r="A252" s="22">
+        <f t="shared" si="22"/>
         <v>184</v>
       </c>
       <c r="B252" s="22" t="s">
         <v>673</v>
       </c>
-      <c r="C252" s="51" t="s">
+      <c r="C252" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="D252" s="52" t="s">
+      <c r="D252" s="46" t="s">
         <v>653</v>
       </c>
       <c r="E252" s="25" t="s">
@@ -12041,7 +11951,7 @@
       <c r="F252" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="G252" s="51" t="s">
+      <c r="G252" s="25" t="s">
         <v>631</v>
       </c>
       <c r="H252" s="27">
@@ -12050,25 +11960,25 @@
       <c r="I252" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J252" s="54" t="s">
+      <c r="J252" s="47" t="s">
         <v>632</v>
       </c>
-      <c r="K252" s="56"/>
+      <c r="K252" s="49"/>
       <c r="L252" s="4"/>
       <c r="M252" s="5"/>
     </row>
     <row r="253" ht="12.75" customHeight="1">
-      <c r="A253" s="21">
-        <f t="shared" si="23"/>
+      <c r="A253" s="22">
+        <f t="shared" si="22"/>
         <v>185</v>
       </c>
       <c r="B253" s="22" t="s">
         <v>674</v>
       </c>
-      <c r="C253" s="51" t="s">
+      <c r="C253" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="D253" s="52" t="s">
+      <c r="D253" s="46" t="s">
         <v>675</v>
       </c>
       <c r="E253" s="25" t="s">
@@ -12077,7 +11987,7 @@
       <c r="F253" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="G253" s="51" t="s">
+      <c r="G253" s="25" t="s">
         <v>622</v>
       </c>
       <c r="H253" s="27">
@@ -12086,25 +11996,25 @@
       <c r="I253" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J253" s="54" t="s">
+      <c r="J253" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="K253" s="56"/>
+      <c r="K253" s="49"/>
       <c r="L253" s="4"/>
       <c r="M253" s="5"/>
     </row>
     <row r="254" ht="17.25" customHeight="1">
-      <c r="A254" s="21">
-        <f>A253+1</f>
+      <c r="A254" s="22">
+        <f t="shared" si="22"/>
         <v>186</v>
       </c>
       <c r="B254" s="22" t="s">
         <v>676</v>
       </c>
-      <c r="C254" s="51" t="s">
+      <c r="C254" s="25" t="s">
         <v>677</v>
       </c>
-      <c r="D254" s="52" t="s">
+      <c r="D254" s="46" t="s">
         <v>678</v>
       </c>
       <c r="E254" s="25" t="s">
@@ -12113,7 +12023,7 @@
       <c r="F254" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="G254" s="51" t="s">
+      <c r="G254" s="25" t="s">
         <v>622</v>
       </c>
       <c r="H254" s="27">
@@ -12122,10 +12032,10 @@
       <c r="I254" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J254" s="54" t="s">
+      <c r="J254" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="K254" s="57"/>
+      <c r="K254" s="50"/>
       <c r="L254" s="4"/>
       <c r="M254" s="5"/>
     </row>
@@ -12140,22 +12050,22 @@
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
       <c r="J255" s="19"/>
-      <c r="K255" s="57"/>
+      <c r="K255" s="50"/>
       <c r="L255" s="4"/>
       <c r="M255" s="5"/>
     </row>
     <row r="256" ht="17.25" customHeight="1">
-      <c r="A256" s="21">
+      <c r="A256" s="22">
         <f>A254+1</f>
         <v>187</v>
       </c>
       <c r="B256" s="22" t="s">
         <v>679</v>
       </c>
-      <c r="C256" s="51" t="s">
+      <c r="C256" s="25" t="s">
         <v>680</v>
       </c>
-      <c r="D256" s="52" t="s">
+      <c r="D256" s="46" t="s">
         <v>681</v>
       </c>
       <c r="E256" s="25" t="s">
@@ -12164,7 +12074,7 @@
       <c r="F256" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="G256" s="51" t="s">
+      <c r="G256" s="25" t="s">
         <v>622</v>
       </c>
       <c r="H256" s="27">
@@ -12173,10 +12083,10 @@
       <c r="I256" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J256" s="54" t="s">
+      <c r="J256" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="K256" s="57"/>
+      <c r="K256" s="50"/>
       <c r="L256" s="4"/>
       <c r="M256" s="5"/>
     </row>
@@ -12229,7 +12139,7 @@
       <c r="M258" s="5"/>
     </row>
     <row r="259" ht="17.25" customHeight="1">
-      <c r="A259" s="49" t="s">
+      <c r="A259" s="45" t="s">
         <v>682</v>
       </c>
       <c r="B259" s="2"/>
@@ -12246,7 +12156,7 @@
       <c r="M259" s="5"/>
     </row>
     <row r="260" ht="12.75" customHeight="1">
-      <c r="A260" s="21">
+      <c r="A260" s="22">
         <f>A256+1</f>
         <v>188</v>
       </c>
@@ -12256,17 +12166,17 @@
       <c r="C260" s="22" t="s">
         <v>684</v>
       </c>
-      <c r="D260" s="50" t="s">
+      <c r="D260" s="24" t="s">
         <v>685</v>
       </c>
-      <c r="E260" s="21" t="s">
+      <c r="E260" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F260" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="G260" s="21"/>
-      <c r="H260" s="55">
+      <c r="G260" s="22"/>
+      <c r="H260" s="48">
         <v>45658.0</v>
       </c>
       <c r="I260" s="22" t="s">
@@ -12280,17 +12190,17 @@
       <c r="M260" s="5"/>
     </row>
     <row r="261" ht="12.75" customHeight="1">
-      <c r="A261" s="21">
-        <f>A260+1</f>
+      <c r="A261" s="22">
+        <f t="shared" ref="A261:A270" si="23">A260+1</f>
         <v>189</v>
       </c>
       <c r="B261" s="22" t="s">
         <v>686</v>
       </c>
-      <c r="C261" s="51" t="s">
+      <c r="C261" s="25" t="s">
         <v>687</v>
       </c>
-      <c r="D261" s="52" t="s">
+      <c r="D261" s="46" t="s">
         <v>688</v>
       </c>
       <c r="E261" s="25" t="s">
@@ -12299,7 +12209,7 @@
       <c r="F261" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="G261" s="51" t="s">
+      <c r="G261" s="25" t="s">
         <v>631</v>
       </c>
       <c r="H261" s="27">
@@ -12308,7 +12218,7 @@
       <c r="I261" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J261" s="54" t="s">
+      <c r="J261" s="47" t="s">
         <v>632</v>
       </c>
       <c r="K261" s="17" t="s">
@@ -12318,8 +12228,8 @@
       <c r="M261" s="5"/>
     </row>
     <row r="262" ht="12.75" customHeight="1">
-      <c r="A262" s="21">
-        <f>A261+1</f>
+      <c r="A262" s="22">
+        <f t="shared" si="23"/>
         <v>190</v>
       </c>
       <c r="B262" s="22" t="s">
@@ -12328,21 +12238,21 @@
       <c r="C262" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="D262" s="50" t="s">
+      <c r="D262" s="24" t="s">
         <v>635</v>
       </c>
-      <c r="E262" s="21" t="s">
+      <c r="E262" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F262" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="G262" s="21"/>
-      <c r="H262" s="21" t="s">
+      <c r="G262" s="22"/>
+      <c r="H262" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I262" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="I262" s="21" t="s">
-        <v>110</v>
       </c>
       <c r="J262" s="24"/>
       <c r="K262" s="17" t="s">
@@ -12352,17 +12262,17 @@
       <c r="M262" s="5"/>
     </row>
     <row r="263" ht="12.75" customHeight="1">
-      <c r="A263" s="21">
-        <f t="shared" ref="A263:A264" si="24">A262+1</f>
+      <c r="A263" s="22">
+        <f t="shared" si="23"/>
         <v>191</v>
       </c>
       <c r="B263" s="22" t="s">
         <v>690</v>
       </c>
-      <c r="C263" s="51" t="s">
+      <c r="C263" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="D263" s="52" t="s">
+      <c r="D263" s="46" t="s">
         <v>638</v>
       </c>
       <c r="E263" s="25" t="s">
@@ -12371,7 +12281,7 @@
       <c r="F263" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="G263" s="51" t="s">
+      <c r="G263" s="25" t="s">
         <v>631</v>
       </c>
       <c r="H263" s="27">
@@ -12380,7 +12290,7 @@
       <c r="I263" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J263" s="54" t="s">
+      <c r="J263" s="47" t="s">
         <v>632</v>
       </c>
       <c r="K263" s="17" t="s">
@@ -12390,17 +12300,17 @@
       <c r="M263" s="5"/>
     </row>
     <row r="264" ht="12.75" customHeight="1">
-      <c r="A264" s="21">
-        <f t="shared" si="24"/>
+      <c r="A264" s="22">
+        <f t="shared" si="23"/>
         <v>192</v>
       </c>
       <c r="B264" s="22" t="s">
         <v>691</v>
       </c>
-      <c r="C264" s="51" t="s">
+      <c r="C264" s="25" t="s">
         <v>640</v>
       </c>
-      <c r="D264" s="52" t="s">
+      <c r="D264" s="46" t="s">
         <v>641</v>
       </c>
       <c r="E264" s="25" t="s">
@@ -12409,7 +12319,7 @@
       <c r="F264" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="G264" s="51" t="s">
+      <c r="G264" s="25" t="s">
         <v>622</v>
       </c>
       <c r="H264" s="27">
@@ -12418,16 +12328,16 @@
       <c r="I264" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J264" s="54" t="s">
+      <c r="J264" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="K264" s="56"/>
+      <c r="K264" s="49"/>
       <c r="L264" s="4"/>
       <c r="M264" s="5"/>
     </row>
     <row r="265" ht="12.75" customHeight="1">
-      <c r="A265" s="21">
-        <f>A264+1</f>
+      <c r="A265" s="22">
+        <f t="shared" si="23"/>
         <v>193</v>
       </c>
       <c r="B265" s="22" t="s">
@@ -12436,39 +12346,39 @@
       <c r="C265" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="D265" s="50" t="s">
+      <c r="D265" s="24" t="s">
         <v>644</v>
       </c>
-      <c r="E265" s="21" t="s">
+      <c r="E265" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F265" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="G265" s="21"/>
-      <c r="H265" s="21" t="s">
+      <c r="G265" s="22"/>
+      <c r="H265" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I265" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="I265" s="21" t="s">
-        <v>110</v>
-      </c>
       <c r="J265" s="24"/>
-      <c r="K265" s="56"/>
+      <c r="K265" s="49"/>
       <c r="L265" s="4"/>
       <c r="M265" s="5"/>
     </row>
     <row r="266" ht="12.75" customHeight="1">
-      <c r="A266" s="21">
-        <f>A265+1</f>
+      <c r="A266" s="22">
+        <f t="shared" si="23"/>
         <v>194</v>
       </c>
       <c r="B266" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="C266" s="51" t="s">
+      <c r="C266" s="25" t="s">
         <v>646</v>
       </c>
-      <c r="D266" s="52" t="s">
+      <c r="D266" s="46" t="s">
         <v>647</v>
       </c>
       <c r="E266" s="25" t="s">
@@ -12477,7 +12387,7 @@
       <c r="F266" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="G266" s="51" t="s">
+      <c r="G266" s="25" t="s">
         <v>622</v>
       </c>
       <c r="H266" s="27">
@@ -12486,16 +12396,16 @@
       <c r="I266" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J266" s="54" t="s">
+      <c r="J266" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="K266" s="56"/>
+      <c r="K266" s="49"/>
       <c r="L266" s="4"/>
       <c r="M266" s="5"/>
     </row>
     <row r="267" ht="12.75" customHeight="1">
-      <c r="A267" s="21">
-        <f>A266+1</f>
+      <c r="A267" s="22">
+        <f t="shared" si="23"/>
         <v>195</v>
       </c>
       <c r="B267" s="22" t="s">
@@ -12504,39 +12414,39 @@
       <c r="C267" s="22" t="s">
         <v>649</v>
       </c>
-      <c r="D267" s="50" t="s">
+      <c r="D267" s="24" t="s">
         <v>650</v>
       </c>
-      <c r="E267" s="21" t="s">
+      <c r="E267" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F267" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="G267" s="21"/>
-      <c r="H267" s="21" t="s">
+      <c r="G267" s="22"/>
+      <c r="H267" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I267" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="I267" s="21" t="s">
-        <v>110</v>
-      </c>
       <c r="J267" s="24"/>
-      <c r="K267" s="56"/>
+      <c r="K267" s="49"/>
       <c r="L267" s="4"/>
       <c r="M267" s="5"/>
     </row>
     <row r="268" ht="12.75" customHeight="1">
-      <c r="A268" s="21">
-        <f t="shared" ref="A268:A269" si="25">A267+1</f>
+      <c r="A268" s="22">
+        <f t="shared" si="23"/>
         <v>196</v>
       </c>
       <c r="B268" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="C268" s="51" t="s">
+      <c r="C268" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="D268" s="52" t="s">
+      <c r="D268" s="46" t="s">
         <v>653</v>
       </c>
       <c r="E268" s="25" t="s">
@@ -12545,7 +12455,7 @@
       <c r="F268" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="G268" s="51" t="s">
+      <c r="G268" s="25" t="s">
         <v>631</v>
       </c>
       <c r="H268" s="27">
@@ -12554,25 +12464,25 @@
       <c r="I268" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J268" s="54" t="s">
+      <c r="J268" s="47" t="s">
         <v>632</v>
       </c>
-      <c r="K268" s="56"/>
+      <c r="K268" s="49"/>
       <c r="L268" s="4"/>
       <c r="M268" s="5"/>
     </row>
     <row r="269" ht="12.75" customHeight="1">
-      <c r="A269" s="21">
-        <f t="shared" si="25"/>
+      <c r="A269" s="22">
+        <f t="shared" si="23"/>
         <v>197</v>
       </c>
       <c r="B269" s="22" t="s">
         <v>696</v>
       </c>
-      <c r="C269" s="51" t="s">
+      <c r="C269" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="D269" s="52" t="s">
+      <c r="D269" s="46" t="s">
         <v>697</v>
       </c>
       <c r="E269" s="25" t="s">
@@ -12581,7 +12491,7 @@
       <c r="F269" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="G269" s="51" t="s">
+      <c r="G269" s="25" t="s">
         <v>622</v>
       </c>
       <c r="H269" s="27">
@@ -12590,25 +12500,25 @@
       <c r="I269" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J269" s="54" t="s">
+      <c r="J269" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="K269" s="56"/>
+      <c r="K269" s="49"/>
       <c r="L269" s="4"/>
       <c r="M269" s="5"/>
     </row>
     <row r="270" ht="12.75" customHeight="1">
-      <c r="A270" s="21">
-        <f>A269+1</f>
+      <c r="A270" s="22">
+        <f t="shared" si="23"/>
         <v>198</v>
       </c>
       <c r="B270" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="C270" s="51" t="s">
+      <c r="C270" s="25" t="s">
         <v>699</v>
       </c>
-      <c r="D270" s="52" t="s">
+      <c r="D270" s="46" t="s">
         <v>700</v>
       </c>
       <c r="E270" s="25" t="s">
@@ -12617,7 +12527,7 @@
       <c r="F270" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="G270" s="51" t="s">
+      <c r="G270" s="25" t="s">
         <v>622</v>
       </c>
       <c r="H270" s="27">
@@ -12626,10 +12536,10 @@
       <c r="I270" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J270" s="54" t="s">
+      <c r="J270" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="K270" s="57"/>
+      <c r="K270" s="50"/>
       <c r="L270" s="4"/>
       <c r="M270" s="5"/>
     </row>
@@ -12682,7 +12592,7 @@
       <c r="M272" s="5"/>
     </row>
     <row r="273" ht="12.75" customHeight="1">
-      <c r="A273" s="49" t="s">
+      <c r="A273" s="45" t="s">
         <v>701</v>
       </c>
       <c r="B273" s="2"/>
@@ -12699,28 +12609,28 @@
       <c r="M273" s="5"/>
     </row>
     <row r="274" ht="12.75" customHeight="1">
-      <c r="A274" s="21">
+      <c r="A274" s="22">
         <f>A270+1</f>
         <v>199</v>
       </c>
       <c r="B274" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="C274" s="58" t="s">
+      <c r="C274" s="51" t="s">
         <v>703</v>
       </c>
-      <c r="D274" s="59" t="s">
+      <c r="D274" s="52" t="s">
         <v>704</v>
       </c>
-      <c r="E274" s="21" t="s">
+      <c r="E274" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F274" s="22" t="s">
         <v>617</v>
       </c>
       <c r="G274" s="26"/>
-      <c r="H274" s="21" t="s">
-        <v>109</v>
+      <c r="H274" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="I274" s="22" t="s">
         <v>19</v>
@@ -12733,17 +12643,17 @@
       <c r="M274" s="5"/>
     </row>
     <row r="275" ht="12.75" customHeight="1">
-      <c r="A275" s="21">
-        <f t="shared" ref="A275:A276" si="26">A274+1</f>
+      <c r="A275" s="22">
+        <f t="shared" ref="A275:A282" si="24">A274+1</f>
         <v>200</v>
       </c>
       <c r="B275" s="22" t="s">
         <v>705</v>
       </c>
-      <c r="C275" s="58" t="s">
+      <c r="C275" s="51" t="s">
         <v>706</v>
       </c>
-      <c r="D275" s="59" t="s">
+      <c r="D275" s="52" t="s">
         <v>707</v>
       </c>
       <c r="E275" s="25" t="s">
@@ -12752,7 +12662,7 @@
       <c r="F275" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="G275" s="60" t="s">
+      <c r="G275" s="26" t="s">
         <v>708</v>
       </c>
       <c r="H275" s="27">
@@ -12769,17 +12679,17 @@
       <c r="M275" s="5"/>
     </row>
     <row r="276" ht="12.75" customHeight="1">
-      <c r="A276" s="21">
-        <f t="shared" si="26"/>
+      <c r="A276" s="22">
+        <f t="shared" si="24"/>
         <v>201</v>
       </c>
       <c r="B276" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C276" s="58" t="s">
+      <c r="C276" s="51" t="s">
         <v>710</v>
       </c>
-      <c r="D276" s="59" t="s">
+      <c r="D276" s="52" t="s">
         <v>711</v>
       </c>
       <c r="E276" s="25" t="s">
@@ -12788,7 +12698,7 @@
       <c r="F276" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="G276" s="60" t="s">
+      <c r="G276" s="26" t="s">
         <v>712</v>
       </c>
       <c r="H276" s="27">
@@ -12805,17 +12715,17 @@
       <c r="M276" s="5"/>
     </row>
     <row r="277" ht="12.75" customHeight="1">
-      <c r="A277" s="21">
-        <f>A276+1</f>
+      <c r="A277" s="22">
+        <f t="shared" si="24"/>
         <v>202</v>
       </c>
       <c r="B277" s="22" t="s">
         <v>713</v>
       </c>
-      <c r="C277" s="58" t="s">
+      <c r="C277" s="51" t="s">
         <v>714</v>
       </c>
-      <c r="D277" s="59" t="s">
+      <c r="D277" s="52" t="s">
         <v>715</v>
       </c>
       <c r="E277" s="25" t="s">
@@ -12825,45 +12735,45 @@
         <v>702</v>
       </c>
       <c r="G277" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H277" s="27">
         <v>44927.0</v>
       </c>
-      <c r="I277" s="21" t="s">
-        <v>110</v>
+      <c r="I277" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="J277" s="24"/>
       <c r="K277" s="17" t="s">
         <v>436</v>
       </c>
       <c r="L277" s="4"/>
-      <c r="M277" s="61"/>
-      <c r="N277" s="61"/>
-      <c r="O277" s="61"/>
-      <c r="P277" s="61"/>
-      <c r="Q277" s="61"/>
-      <c r="R277" s="61"/>
-      <c r="S277" s="61"/>
-      <c r="T277" s="61"/>
-      <c r="U277" s="61"/>
-      <c r="V277" s="61"/>
-      <c r="W277" s="61"/>
-      <c r="X277" s="61"/>
-      <c r="Y277" s="61"/>
+      <c r="M277" s="53"/>
+      <c r="N277" s="53"/>
+      <c r="O277" s="53"/>
+      <c r="P277" s="53"/>
+      <c r="Q277" s="53"/>
+      <c r="R277" s="53"/>
+      <c r="S277" s="53"/>
+      <c r="T277" s="53"/>
+      <c r="U277" s="53"/>
+      <c r="V277" s="53"/>
+      <c r="W277" s="53"/>
+      <c r="X277" s="53"/>
+      <c r="Y277" s="53"/>
     </row>
     <row r="278" ht="12.75" customHeight="1">
-      <c r="A278" s="21">
-        <f t="shared" ref="A278:A279" si="27">A277+1</f>
+      <c r="A278" s="22">
+        <f t="shared" si="24"/>
         <v>203</v>
       </c>
       <c r="B278" s="22" t="s">
         <v>716</v>
       </c>
-      <c r="C278" s="58" t="s">
+      <c r="C278" s="51" t="s">
         <v>717</v>
       </c>
-      <c r="D278" s="59" t="s">
+      <c r="D278" s="52" t="s">
         <v>718</v>
       </c>
       <c r="E278" s="25" t="s">
@@ -12872,7 +12782,7 @@
       <c r="F278" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="G278" s="60" t="s">
+      <c r="G278" s="26" t="s">
         <v>719</v>
       </c>
       <c r="H278" s="27">
@@ -12886,32 +12796,32 @@
         <v>436</v>
       </c>
       <c r="L278" s="4"/>
-      <c r="M278" s="61"/>
-      <c r="N278" s="61"/>
-      <c r="O278" s="61"/>
-      <c r="P278" s="61"/>
-      <c r="Q278" s="61"/>
-      <c r="R278" s="61"/>
-      <c r="S278" s="61"/>
-      <c r="T278" s="61"/>
-      <c r="U278" s="61"/>
-      <c r="V278" s="61"/>
-      <c r="W278" s="61"/>
-      <c r="X278" s="61"/>
-      <c r="Y278" s="61"/>
+      <c r="M278" s="53"/>
+      <c r="N278" s="53"/>
+      <c r="O278" s="53"/>
+      <c r="P278" s="53"/>
+      <c r="Q278" s="53"/>
+      <c r="R278" s="53"/>
+      <c r="S278" s="53"/>
+      <c r="T278" s="53"/>
+      <c r="U278" s="53"/>
+      <c r="V278" s="53"/>
+      <c r="W278" s="53"/>
+      <c r="X278" s="53"/>
+      <c r="Y278" s="53"/>
     </row>
     <row r="279" ht="12.75" customHeight="1">
-      <c r="A279" s="21">
-        <f t="shared" si="27"/>
+      <c r="A279" s="22">
+        <f t="shared" si="24"/>
         <v>204</v>
       </c>
       <c r="B279" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="C279" s="58" t="s">
+      <c r="C279" s="51" t="s">
         <v>721</v>
       </c>
-      <c r="D279" s="59" t="s">
+      <c r="D279" s="52" t="s">
         <v>722</v>
       </c>
       <c r="E279" s="25" t="s">
@@ -12920,8 +12830,8 @@
       <c r="F279" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="G279" s="60" t="s">
-        <v>136</v>
+      <c r="G279" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="H279" s="27">
         <v>44927.0</v>
@@ -12930,34 +12840,34 @@
         <v>19</v>
       </c>
       <c r="J279" s="24"/>
-      <c r="K279" s="56"/>
+      <c r="K279" s="49"/>
       <c r="L279" s="4"/>
-      <c r="M279" s="61"/>
-      <c r="N279" s="61"/>
-      <c r="O279" s="61"/>
-      <c r="P279" s="61"/>
-      <c r="Q279" s="61"/>
-      <c r="R279" s="61"/>
-      <c r="S279" s="61"/>
-      <c r="T279" s="61"/>
-      <c r="U279" s="61"/>
-      <c r="V279" s="61"/>
-      <c r="W279" s="61"/>
-      <c r="X279" s="61"/>
-      <c r="Y279" s="61"/>
+      <c r="M279" s="53"/>
+      <c r="N279" s="53"/>
+      <c r="O279" s="53"/>
+      <c r="P279" s="53"/>
+      <c r="Q279" s="53"/>
+      <c r="R279" s="53"/>
+      <c r="S279" s="53"/>
+      <c r="T279" s="53"/>
+      <c r="U279" s="53"/>
+      <c r="V279" s="53"/>
+      <c r="W279" s="53"/>
+      <c r="X279" s="53"/>
+      <c r="Y279" s="53"/>
     </row>
     <row r="280" ht="12.75" customHeight="1">
-      <c r="A280" s="21">
-        <f>A279+1</f>
+      <c r="A280" s="22">
+        <f t="shared" si="24"/>
         <v>205</v>
       </c>
       <c r="B280" s="22" t="s">
         <v>723</v>
       </c>
-      <c r="C280" s="58" t="s">
+      <c r="C280" s="51" t="s">
         <v>724</v>
       </c>
-      <c r="D280" s="59" t="s">
+      <c r="D280" s="52" t="s">
         <v>725</v>
       </c>
       <c r="E280" s="25" t="s">
@@ -12972,38 +12882,38 @@
       <c r="H280" s="27">
         <v>44927.0</v>
       </c>
-      <c r="I280" s="21" t="s">
-        <v>110</v>
+      <c r="I280" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="J280" s="24"/>
-      <c r="K280" s="56"/>
+      <c r="K280" s="49"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="61"/>
-      <c r="N280" s="61"/>
-      <c r="O280" s="61"/>
-      <c r="P280" s="61"/>
-      <c r="Q280" s="61"/>
-      <c r="R280" s="61"/>
-      <c r="S280" s="61"/>
-      <c r="T280" s="61"/>
-      <c r="U280" s="61"/>
-      <c r="V280" s="61"/>
-      <c r="W280" s="61"/>
-      <c r="X280" s="61"/>
-      <c r="Y280" s="61"/>
+      <c r="M280" s="53"/>
+      <c r="N280" s="53"/>
+      <c r="O280" s="53"/>
+      <c r="P280" s="53"/>
+      <c r="Q280" s="53"/>
+      <c r="R280" s="53"/>
+      <c r="S280" s="53"/>
+      <c r="T280" s="53"/>
+      <c r="U280" s="53"/>
+      <c r="V280" s="53"/>
+      <c r="W280" s="53"/>
+      <c r="X280" s="53"/>
+      <c r="Y280" s="53"/>
     </row>
     <row r="281" ht="12.75" customHeight="1">
-      <c r="A281" s="21">
-        <f>A280+1</f>
+      <c r="A281" s="22">
+        <f t="shared" si="24"/>
         <v>206</v>
       </c>
       <c r="B281" s="22" t="s">
         <v>726</v>
       </c>
-      <c r="C281" s="58" t="s">
+      <c r="C281" s="51" t="s">
         <v>727</v>
       </c>
-      <c r="D281" s="59" t="s">
+      <c r="D281" s="52" t="s">
         <v>728</v>
       </c>
       <c r="E281" s="25" t="s">
@@ -13012,8 +12922,8 @@
       <c r="F281" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="G281" s="60" t="s">
-        <v>136</v>
+      <c r="G281" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="H281" s="27">
         <v>44927.0</v>
@@ -13022,22 +12932,22 @@
         <v>19</v>
       </c>
       <c r="J281" s="24"/>
-      <c r="K281" s="56"/>
+      <c r="K281" s="49"/>
       <c r="L281" s="4"/>
       <c r="M281" s="5"/>
     </row>
     <row r="282" ht="12.75" customHeight="1">
-      <c r="A282" s="21">
-        <f>A281+1</f>
+      <c r="A282" s="22">
+        <f t="shared" si="24"/>
         <v>207</v>
       </c>
       <c r="B282" s="22" t="s">
         <v>729</v>
       </c>
-      <c r="C282" s="58" t="s">
+      <c r="C282" s="51" t="s">
         <v>730</v>
       </c>
-      <c r="D282" s="59" t="s">
+      <c r="D282" s="52" t="s">
         <v>731</v>
       </c>
       <c r="E282" s="25" t="s">
@@ -13052,11 +12962,11 @@
       <c r="H282" s="27">
         <v>44927.0</v>
       </c>
-      <c r="I282" s="21" t="s">
-        <v>110</v>
+      <c r="I282" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="J282" s="24"/>
-      <c r="K282" s="56"/>
+      <c r="K282" s="49"/>
       <c r="L282" s="4"/>
       <c r="M282" s="5"/>
     </row>
@@ -13109,7 +13019,7 @@
       <c r="M284" s="5"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="49" t="s">
+      <c r="A285" s="45" t="s">
         <v>732</v>
       </c>
       <c r="B285" s="2"/>
@@ -13126,28 +13036,28 @@
       <c r="M285" s="5"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="21">
+      <c r="A286" s="22">
         <f>A282+1</f>
         <v>208</v>
       </c>
       <c r="B286" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="C286" s="62" t="s">
+      <c r="C286" s="51" t="s">
         <v>734</v>
       </c>
-      <c r="D286" s="63" t="s">
+      <c r="D286" s="54" t="s">
         <v>735</v>
       </c>
-      <c r="E286" s="21" t="s">
+      <c r="E286" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F286" s="22" t="s">
         <v>617</v>
       </c>
       <c r="G286" s="26"/>
-      <c r="H286" s="21" t="s">
-        <v>109</v>
+      <c r="H286" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="I286" s="22" t="s">
         <v>19</v>
@@ -13160,17 +13070,17 @@
       <c r="M286" s="5"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="21">
-        <f t="shared" ref="A287:A288" si="28">A286+1</f>
+      <c r="A287" s="22">
+        <f t="shared" ref="A287:A290" si="25">A286+1</f>
         <v>209</v>
       </c>
       <c r="B287" s="22" t="s">
         <v>736</v>
       </c>
-      <c r="C287" s="62" t="s">
+      <c r="C287" s="51" t="s">
         <v>737</v>
       </c>
-      <c r="D287" s="63" t="s">
+      <c r="D287" s="54" t="s">
         <v>738</v>
       </c>
       <c r="E287" s="25" t="s">
@@ -13179,7 +13089,7 @@
       <c r="F287" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="G287" s="58" t="s">
+      <c r="G287" s="51" t="s">
         <v>739</v>
       </c>
       <c r="H287" s="27">
@@ -13196,17 +13106,17 @@
       <c r="M287" s="5"/>
     </row>
     <row r="288" ht="12.75" customHeight="1">
-      <c r="A288" s="21">
-        <f t="shared" si="28"/>
+      <c r="A288" s="22">
+        <f t="shared" si="25"/>
         <v>210</v>
       </c>
       <c r="B288" s="22" t="s">
         <v>740</v>
       </c>
-      <c r="C288" s="62" t="s">
+      <c r="C288" s="51" t="s">
         <v>741</v>
       </c>
-      <c r="D288" s="63" t="s">
+      <c r="D288" s="54" t="s">
         <v>742</v>
       </c>
       <c r="E288" s="25" t="s">
@@ -13215,8 +13125,8 @@
       <c r="F288" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="G288" s="58" t="s">
-        <v>136</v>
+      <c r="G288" s="51" t="s">
+        <v>135</v>
       </c>
       <c r="H288" s="27">
         <v>44927.0</v>
@@ -13232,17 +13142,17 @@
       <c r="M288" s="5"/>
     </row>
     <row r="289" ht="12.75" customHeight="1">
-      <c r="A289" s="21">
-        <f>A288+1</f>
+      <c r="A289" s="22">
+        <f t="shared" si="25"/>
         <v>211</v>
       </c>
       <c r="B289" s="22" t="s">
         <v>743</v>
       </c>
-      <c r="C289" s="62" t="s">
+      <c r="C289" s="51" t="s">
         <v>744</v>
       </c>
-      <c r="D289" s="63" t="s">
+      <c r="D289" s="54" t="s">
         <v>745</v>
       </c>
       <c r="E289" s="25" t="s">
@@ -13251,7 +13161,7 @@
       <c r="F289" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="G289" s="64" t="s">
+      <c r="G289" s="51" t="s">
         <v>719</v>
       </c>
       <c r="H289" s="27">
@@ -13268,17 +13178,17 @@
       <c r="M289" s="5"/>
     </row>
     <row r="290" ht="12.75" customHeight="1">
-      <c r="A290" s="21">
-        <f>A289+1</f>
+      <c r="A290" s="22">
+        <f t="shared" si="25"/>
         <v>212</v>
       </c>
       <c r="B290" s="22" t="s">
         <v>746</v>
       </c>
-      <c r="C290" s="62" t="s">
+      <c r="C290" s="51" t="s">
         <v>747</v>
       </c>
-      <c r="D290" s="63" t="s">
+      <c r="D290" s="54" t="s">
         <v>748</v>
       </c>
       <c r="E290" s="25" t="s">
@@ -13287,7 +13197,7 @@
       <c r="F290" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="G290" s="58" t="s">
+      <c r="G290" s="51" t="s">
         <v>719</v>
       </c>
       <c r="H290" s="27">
@@ -13352,7 +13262,7 @@
       <c r="M292" s="5"/>
     </row>
     <row r="293">
-      <c r="A293" s="49" t="s">
+      <c r="A293" s="45" t="s">
         <v>732</v>
       </c>
       <c r="B293" s="2"/>
@@ -13369,28 +13279,28 @@
       <c r="M293" s="5"/>
     </row>
     <row r="294" ht="12.75" customHeight="1">
-      <c r="A294" s="21">
+      <c r="A294" s="22">
         <f>A290+1</f>
         <v>213</v>
       </c>
       <c r="B294" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="C294" s="65" t="s">
+      <c r="C294" s="51" t="s">
         <v>749</v>
       </c>
-      <c r="D294" s="66" t="s">
+      <c r="D294" s="54" t="s">
         <v>750</v>
       </c>
-      <c r="E294" s="21" t="s">
+      <c r="E294" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F294" s="22" t="s">
         <v>617</v>
       </c>
       <c r="G294" s="26"/>
-      <c r="H294" s="21" t="s">
-        <v>109</v>
+      <c r="H294" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="I294" s="22" t="s">
         <v>19</v>
@@ -13403,17 +13313,17 @@
       <c r="M294" s="5"/>
     </row>
     <row r="295" ht="12.75" customHeight="1">
-      <c r="A295" s="21">
-        <f t="shared" ref="A295:A296" si="29">A294+1</f>
+      <c r="A295" s="22">
+        <f t="shared" ref="A295:A298" si="26">A294+1</f>
         <v>214</v>
       </c>
       <c r="B295" s="22" t="s">
         <v>736</v>
       </c>
-      <c r="C295" s="62" t="s">
+      <c r="C295" s="51" t="s">
         <v>737</v>
       </c>
-      <c r="D295" s="63" t="s">
+      <c r="D295" s="54" t="s">
         <v>738</v>
       </c>
       <c r="E295" s="25" t="s">
@@ -13422,7 +13332,7 @@
       <c r="F295" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="G295" s="58" t="s">
+      <c r="G295" s="51" t="s">
         <v>739</v>
       </c>
       <c r="H295" s="27">
@@ -13439,17 +13349,17 @@
       <c r="M295" s="5"/>
     </row>
     <row r="296" ht="12.75" customHeight="1">
-      <c r="A296" s="21">
-        <f t="shared" si="29"/>
+      <c r="A296" s="22">
+        <f t="shared" si="26"/>
         <v>215</v>
       </c>
       <c r="B296" s="22" t="s">
         <v>740</v>
       </c>
-      <c r="C296" s="62" t="s">
+      <c r="C296" s="51" t="s">
         <v>741</v>
       </c>
-      <c r="D296" s="63" t="s">
+      <c r="D296" s="54" t="s">
         <v>742</v>
       </c>
       <c r="E296" s="25" t="s">
@@ -13458,8 +13368,8 @@
       <c r="F296" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="G296" s="58" t="s">
-        <v>136</v>
+      <c r="G296" s="51" t="s">
+        <v>135</v>
       </c>
       <c r="H296" s="27">
         <v>44927.0</v>
@@ -13475,17 +13385,17 @@
       <c r="M296" s="5"/>
     </row>
     <row r="297" ht="15.0" customHeight="1">
-      <c r="A297" s="21">
-        <f>A296+1</f>
+      <c r="A297" s="22">
+        <f t="shared" si="26"/>
         <v>216</v>
       </c>
       <c r="B297" s="22" t="s">
         <v>743</v>
       </c>
-      <c r="C297" s="62" t="s">
+      <c r="C297" s="51" t="s">
         <v>744</v>
       </c>
-      <c r="D297" s="63" t="s">
+      <c r="D297" s="54" t="s">
         <v>745</v>
       </c>
       <c r="E297" s="25" t="s">
@@ -13494,7 +13404,7 @@
       <c r="F297" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="G297" s="64" t="s">
+      <c r="G297" s="51" t="s">
         <v>719</v>
       </c>
       <c r="H297" s="27">
@@ -13511,17 +13421,17 @@
       <c r="M297" s="5"/>
     </row>
     <row r="298" ht="13.5" customHeight="1">
-      <c r="A298" s="21">
-        <f>A297+1</f>
+      <c r="A298" s="22">
+        <f t="shared" si="26"/>
         <v>217</v>
       </c>
       <c r="B298" s="22" t="s">
         <v>746</v>
       </c>
-      <c r="C298" s="62" t="s">
+      <c r="C298" s="51" t="s">
         <v>747</v>
       </c>
-      <c r="D298" s="63" t="s">
+      <c r="D298" s="54" t="s">
         <v>748</v>
       </c>
       <c r="E298" s="25" t="s">
@@ -13530,7 +13440,7 @@
       <c r="F298" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="G298" s="58" t="s">
+      <c r="G298" s="51" t="s">
         <v>719</v>
       </c>
       <c r="H298" s="27">
@@ -13595,7 +13505,7 @@
       <c r="M300" s="5"/>
     </row>
     <row r="301" ht="12.75" customHeight="1">
-      <c r="A301" s="49" t="s">
+      <c r="A301" s="45" t="s">
         <v>751</v>
       </c>
       <c r="B301" s="2"/>
@@ -13612,27 +13522,27 @@
       <c r="M301" s="5"/>
     </row>
     <row r="302" ht="12.75" customHeight="1">
-      <c r="A302" s="21">
+      <c r="A302" s="22">
         <f>A298+1</f>
         <v>218</v>
       </c>
       <c r="B302" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="C302" s="67" t="s">
+      <c r="C302" s="55" t="s">
         <v>753</v>
       </c>
-      <c r="D302" s="50" t="s">
+      <c r="D302" s="24" t="s">
         <v>754</v>
       </c>
-      <c r="E302" s="21" t="s">
+      <c r="E302" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F302" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="G302" s="21"/>
-      <c r="H302" s="55">
+      <c r="G302" s="22"/>
+      <c r="H302" s="48">
         <v>45658.0</v>
       </c>
       <c r="I302" s="22" t="s">
@@ -13646,17 +13556,17 @@
       <c r="M302" s="5"/>
     </row>
     <row r="303" ht="12.75" customHeight="1">
-      <c r="A303" s="21">
-        <f t="shared" ref="A303:A304" si="30">A302+1</f>
+      <c r="A303" s="22">
+        <f t="shared" ref="A303:A308" si="27">A302+1</f>
         <v>219</v>
       </c>
       <c r="B303" s="22" t="s">
         <v>755</v>
       </c>
-      <c r="C303" s="68" t="s">
+      <c r="C303" s="55" t="s">
         <v>756</v>
       </c>
-      <c r="D303" s="52" t="s">
+      <c r="D303" s="46" t="s">
         <v>757</v>
       </c>
       <c r="E303" s="25" t="s">
@@ -13665,8 +13575,8 @@
       <c r="F303" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="G303" s="62" t="s">
-        <v>136</v>
+      <c r="G303" s="51" t="s">
+        <v>135</v>
       </c>
       <c r="H303" s="27">
         <v>44927.0</v>
@@ -13674,7 +13584,7 @@
       <c r="I303" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J303" s="54" t="s">
+      <c r="J303" s="47" t="s">
         <v>632</v>
       </c>
       <c r="K303" s="17" t="s">
@@ -13684,17 +13594,17 @@
       <c r="M303" s="5"/>
     </row>
     <row r="304" ht="12.75" customHeight="1">
-      <c r="A304" s="21">
-        <f t="shared" si="30"/>
+      <c r="A304" s="22">
+        <f t="shared" si="27"/>
         <v>220</v>
       </c>
       <c r="B304" s="22" t="s">
         <v>758</v>
       </c>
-      <c r="C304" s="68" t="s">
+      <c r="C304" s="55" t="s">
         <v>759</v>
       </c>
-      <c r="D304" s="52" t="s">
+      <c r="D304" s="46" t="s">
         <v>760</v>
       </c>
       <c r="E304" s="25" t="s">
@@ -13703,7 +13613,7 @@
       <c r="F304" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="G304" s="62" t="s">
+      <c r="G304" s="51" t="s">
         <v>719</v>
       </c>
       <c r="H304" s="27">
@@ -13712,7 +13622,7 @@
       <c r="I304" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J304" s="54" t="s">
+      <c r="J304" s="47" t="s">
         <v>623</v>
       </c>
       <c r="K304" s="17" t="s">
@@ -13722,17 +13632,17 @@
       <c r="M304" s="5"/>
     </row>
     <row r="305" ht="12.75" customHeight="1">
-      <c r="A305" s="21">
-        <f>A304+1</f>
+      <c r="A305" s="22">
+        <f t="shared" si="27"/>
         <v>221</v>
       </c>
       <c r="B305" s="22" t="s">
         <v>761</v>
       </c>
-      <c r="C305" s="68" t="s">
+      <c r="C305" s="55" t="s">
         <v>762</v>
       </c>
-      <c r="D305" s="50" t="s">
+      <c r="D305" s="24" t="s">
         <v>763</v>
       </c>
       <c r="E305" s="25" t="s">
@@ -13741,16 +13651,16 @@
       <c r="F305" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="G305" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="H305" s="21" t="s">
+      <c r="G305" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="H305" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I305" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="I305" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="J305" s="54" t="s">
+      <c r="J305" s="47" t="s">
         <v>632</v>
       </c>
       <c r="K305" s="17" t="s">
@@ -13760,17 +13670,17 @@
       <c r="M305" s="5"/>
     </row>
     <row r="306" ht="12.75" customHeight="1">
-      <c r="A306" s="21">
-        <f t="shared" ref="A306:A307" si="31">A305+1</f>
+      <c r="A306" s="22">
+        <f t="shared" si="27"/>
         <v>222</v>
       </c>
       <c r="B306" s="22" t="s">
         <v>764</v>
       </c>
-      <c r="C306" s="68" t="s">
+      <c r="C306" s="55" t="s">
         <v>765</v>
       </c>
-      <c r="D306" s="52" t="s">
+      <c r="D306" s="46" t="s">
         <v>766</v>
       </c>
       <c r="E306" s="25" t="s">
@@ -13779,7 +13689,7 @@
       <c r="F306" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="G306" s="62" t="s">
+      <c r="G306" s="51" t="s">
         <v>719</v>
       </c>
       <c r="H306" s="27">
@@ -13788,7 +13698,7 @@
       <c r="I306" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J306" s="54" t="s">
+      <c r="J306" s="47" t="s">
         <v>623</v>
       </c>
       <c r="K306" s="17" t="s">
@@ -13798,17 +13708,17 @@
       <c r="M306" s="5"/>
     </row>
     <row r="307" ht="12.75" customHeight="1">
-      <c r="A307" s="21">
-        <f t="shared" si="31"/>
+      <c r="A307" s="22">
+        <f t="shared" si="27"/>
         <v>223</v>
       </c>
       <c r="B307" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="C307" s="68" t="s">
+      <c r="C307" s="55" t="s">
         <v>768</v>
       </c>
-      <c r="D307" s="52" t="s">
+      <c r="D307" s="46" t="s">
         <v>688</v>
       </c>
       <c r="E307" s="25" t="s">
@@ -13817,8 +13727,8 @@
       <c r="F307" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="G307" s="62" t="s">
-        <v>136</v>
+      <c r="G307" s="51" t="s">
+        <v>135</v>
       </c>
       <c r="H307" s="27">
         <v>44927.0</v>
@@ -13826,25 +13736,25 @@
       <c r="I307" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J307" s="54" t="s">
+      <c r="J307" s="47" t="s">
         <v>632</v>
       </c>
-      <c r="K307" s="56"/>
+      <c r="K307" s="49"/>
       <c r="L307" s="4"/>
       <c r="M307" s="5"/>
     </row>
     <row r="308" ht="12.75" customHeight="1">
-      <c r="A308" s="21">
-        <f>A307+1</f>
+      <c r="A308" s="22">
+        <f t="shared" si="27"/>
         <v>224</v>
       </c>
       <c r="B308" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="C308" s="68" t="s">
+      <c r="C308" s="55" t="s">
         <v>770</v>
       </c>
-      <c r="D308" s="50" t="s">
+      <c r="D308" s="24" t="s">
         <v>771</v>
       </c>
       <c r="E308" s="25" t="s">
@@ -13853,19 +13763,19 @@
       <c r="F308" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="G308" s="69" t="s">
+      <c r="G308" s="51" t="s">
         <v>719</v>
       </c>
-      <c r="H308" s="21" t="s">
+      <c r="H308" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I308" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="I308" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="J308" s="54" t="s">
+      <c r="J308" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="K308" s="56"/>
+      <c r="K308" s="49"/>
       <c r="L308" s="4"/>
       <c r="M308" s="5"/>
     </row>
@@ -13918,7 +13828,7 @@
       <c r="M310" s="5"/>
     </row>
     <row r="311" ht="12.75" customHeight="1">
-      <c r="A311" s="33" t="s">
+      <c r="A311" s="32" t="s">
         <v>772</v>
       </c>
       <c r="B311" s="2"/>
@@ -13945,7 +13855,7 @@
       <c r="C312" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="D312" s="31" t="s">
+      <c r="D312" s="30" t="s">
         <v>775</v>
       </c>
       <c r="E312" s="19" t="s">
@@ -13956,12 +13866,12 @@
       </c>
       <c r="G312" s="19"/>
       <c r="H312" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I312" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I312" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J312" s="31" t="s">
+      <c r="J312" s="30" t="s">
         <v>776</v>
       </c>
       <c r="K312" s="11" t="s">
@@ -13972,7 +13882,7 @@
     </row>
     <row r="313" ht="17.25" customHeight="1">
       <c r="A313" s="19">
-        <f t="shared" ref="A313:A324" si="32">A312+1</f>
+        <f t="shared" ref="A313:A324" si="28">A312+1</f>
         <v>226</v>
       </c>
       <c r="B313" s="19" t="s">
@@ -14010,7 +13920,7 @@
     </row>
     <row r="314" ht="17.25" customHeight="1">
       <c r="A314" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>227</v>
       </c>
       <c r="B314" s="19" t="s">
@@ -14048,7 +13958,7 @@
     </row>
     <row r="315" ht="12.75" customHeight="1">
       <c r="A315" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>228</v>
       </c>
       <c r="B315" s="19" t="s">
@@ -14086,7 +13996,7 @@
     </row>
     <row r="316" ht="12.75" customHeight="1">
       <c r="A316" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>229</v>
       </c>
       <c r="B316" s="19" t="s">
@@ -14108,10 +14018,10 @@
         <v>440</v>
       </c>
       <c r="H316" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I316" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I316" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J316" s="17" t="s">
         <v>441</v>
@@ -14124,7 +14034,7 @@
     </row>
     <row r="317" ht="12.75" customHeight="1">
       <c r="A317" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>230</v>
       </c>
       <c r="B317" s="19" t="s">
@@ -14146,10 +14056,10 @@
         <v>440</v>
       </c>
       <c r="H317" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I317" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I317" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J317" s="17" t="s">
         <v>441</v>
@@ -14162,7 +14072,7 @@
     </row>
     <row r="318" ht="14.25" customHeight="1">
       <c r="A318" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>231</v>
       </c>
       <c r="B318" s="19" t="s">
@@ -14184,10 +14094,10 @@
         <v>457</v>
       </c>
       <c r="H318" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I318" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I318" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J318" s="17" t="s">
         <v>458</v>
@@ -14200,7 +14110,7 @@
     </row>
     <row r="319" ht="14.25" customHeight="1">
       <c r="A319" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>232</v>
       </c>
       <c r="B319" s="19" t="s">
@@ -14222,10 +14132,10 @@
         <v>440</v>
       </c>
       <c r="H319" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I319" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I319" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J319" s="17" t="s">
         <v>441</v>
@@ -14238,7 +14148,7 @@
     </row>
     <row r="320" ht="14.25" customHeight="1">
       <c r="A320" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>233</v>
       </c>
       <c r="B320" s="19" t="s">
@@ -14260,10 +14170,10 @@
         <v>477</v>
       </c>
       <c r="H320" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I320" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I320" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J320" s="17" t="s">
         <v>478</v>
@@ -14276,7 +14186,7 @@
     </row>
     <row r="321" ht="12.75" customHeight="1">
       <c r="A321" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>234</v>
       </c>
       <c r="B321" s="19" t="s">
@@ -14298,10 +14208,10 @@
         <v>440</v>
       </c>
       <c r="H321" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I321" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I321" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J321" s="17" t="s">
         <v>441</v>
@@ -14314,7 +14224,7 @@
     </row>
     <row r="322" ht="12.75" customHeight="1">
       <c r="A322" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>235</v>
       </c>
       <c r="B322" s="19" t="s">
@@ -14336,10 +14246,10 @@
         <v>440</v>
       </c>
       <c r="H322" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I322" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I322" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J322" s="17" t="s">
         <v>441</v>
@@ -14352,7 +14262,7 @@
     </row>
     <row r="323" ht="12.75" customHeight="1">
       <c r="A323" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>236</v>
       </c>
       <c r="B323" s="19" t="s">
@@ -14374,10 +14284,10 @@
         <v>440</v>
       </c>
       <c r="H323" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I323" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I323" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J323" s="17" t="s">
         <v>441</v>
@@ -14390,7 +14300,7 @@
     </row>
     <row r="324" ht="12.75" customHeight="1">
       <c r="A324" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>237</v>
       </c>
       <c r="B324" s="19" t="s">
@@ -14399,7 +14309,7 @@
       <c r="C324" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="D324" s="31" t="s">
+      <c r="D324" s="30" t="s">
         <v>790</v>
       </c>
       <c r="E324" s="19" t="s">
@@ -14412,12 +14322,12 @@
         <v>440</v>
       </c>
       <c r="H324" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I324" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I324" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J324" s="70" t="s">
+      <c r="J324" s="56" t="s">
         <v>441</v>
       </c>
       <c r="K324" s="17"/>
@@ -14473,7 +14383,7 @@
       <c r="M326" s="5"/>
     </row>
     <row r="327" ht="12.75" customHeight="1">
-      <c r="A327" s="33" t="s">
+      <c r="A327" s="32" t="s">
         <v>791</v>
       </c>
       <c r="B327" s="2"/>
@@ -14500,7 +14410,7 @@
       <c r="C328" s="19" t="s">
         <v>793</v>
       </c>
-      <c r="D328" s="31" t="s">
+      <c r="D328" s="30" t="s">
         <v>794</v>
       </c>
       <c r="E328" s="19" t="s">
@@ -14512,7 +14422,7 @@
       <c r="G328" s="19"/>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
-      <c r="J328" s="31"/>
+      <c r="J328" s="30"/>
       <c r="K328" s="11" t="s">
         <v>20</v>
       </c>
@@ -14521,7 +14431,7 @@
     </row>
     <row r="329" ht="12.75" customHeight="1">
       <c r="A329" s="19">
-        <f t="shared" ref="A329:A330" si="33">A328+1</f>
+        <f t="shared" ref="A329:A330" si="29">A328+1</f>
         <v>239</v>
       </c>
       <c r="B329" s="19" t="s">
@@ -14559,7 +14469,7 @@
     </row>
     <row r="330" ht="17.25" customHeight="1">
       <c r="A330" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>240</v>
       </c>
       <c r="B330" s="19" t="s">
@@ -14578,7 +14488,7 @@
         <v>802</v>
       </c>
       <c r="G330" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H330" s="16">
         <v>44927.0</v>
@@ -14642,7 +14552,7 @@
       <c r="M332" s="5"/>
     </row>
     <row r="333" ht="12.75" customHeight="1">
-      <c r="A333" s="33" t="s">
+      <c r="A333" s="32" t="s">
         <v>804</v>
       </c>
       <c r="B333" s="2"/>
@@ -14669,7 +14579,7 @@
       <c r="C334" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="D334" s="31" t="s">
+      <c r="D334" s="30" t="s">
         <v>807</v>
       </c>
       <c r="E334" s="19" t="s">
@@ -14683,7 +14593,7 @@
         <v>317</v>
       </c>
       <c r="I334" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J334" s="15" t="s">
         <v>776</v>
@@ -14696,7 +14606,7 @@
     </row>
     <row r="335" ht="12.75" customHeight="1">
       <c r="A335" s="19">
-        <f t="shared" ref="A335:A340" si="34">A334+1</f>
+        <f t="shared" ref="A335:A340" si="30">A334+1</f>
         <v>242</v>
       </c>
       <c r="B335" s="19" t="s">
@@ -14734,7 +14644,7 @@
     </row>
     <row r="336" ht="12.75" customHeight="1">
       <c r="A336" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>243</v>
       </c>
       <c r="B336" s="19" t="s">
@@ -14772,7 +14682,7 @@
     </row>
     <row r="337" ht="12.75" customHeight="1">
       <c r="A337" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>244</v>
       </c>
       <c r="B337" s="19" t="s">
@@ -14791,13 +14701,13 @@
         <v>805</v>
       </c>
       <c r="G337" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H337" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I337" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I337" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J337" s="17"/>
       <c r="K337" s="17" t="s">
@@ -14808,7 +14718,7 @@
     </row>
     <row r="338" ht="12.75" customHeight="1">
       <c r="A338" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>245</v>
       </c>
       <c r="B338" s="19" t="s">
@@ -14827,13 +14737,13 @@
         <v>805</v>
       </c>
       <c r="G338" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H338" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I338" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I338" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J338" s="17"/>
       <c r="K338" s="17" t="s">
@@ -14844,7 +14754,7 @@
     </row>
     <row r="339" ht="12.75" customHeight="1">
       <c r="A339" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>246</v>
       </c>
       <c r="B339" s="19" t="s">
@@ -14866,10 +14776,10 @@
         <v>822</v>
       </c>
       <c r="H339" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I339" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I339" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J339" s="17"/>
       <c r="K339" s="17" t="s">
@@ -14880,7 +14790,7 @@
     </row>
     <row r="340" ht="16.5" customHeight="1">
       <c r="A340" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>247</v>
       </c>
       <c r="B340" s="19" t="s">
@@ -14902,10 +14812,10 @@
         <v>827</v>
       </c>
       <c r="H340" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I340" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I340" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J340" s="17"/>
       <c r="K340" s="17" t="s">
@@ -14963,7 +14873,7 @@
       <c r="M342" s="5"/>
     </row>
     <row r="343" ht="12.75" customHeight="1">
-      <c r="A343" s="33" t="s">
+      <c r="A343" s="32" t="s">
         <v>829</v>
       </c>
       <c r="B343" s="2"/>
@@ -15003,7 +14913,7 @@
       <c r="C344" s="19" t="s">
         <v>830</v>
       </c>
-      <c r="D344" s="31" t="s">
+      <c r="D344" s="30" t="s">
         <v>831</v>
       </c>
       <c r="E344" s="19" t="s">
@@ -15015,7 +14925,7 @@
       <c r="G344" s="19"/>
       <c r="H344" s="19"/>
       <c r="I344" s="19"/>
-      <c r="J344" s="31"/>
+      <c r="J344" s="30"/>
       <c r="K344" s="11" t="s">
         <v>20</v>
       </c>
@@ -15052,7 +14962,7 @@
       <c r="E345" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F345" s="71" t="s">
+      <c r="F345" s="57" t="s">
         <v>802</v>
       </c>
       <c r="G345" s="14" t="s">
@@ -15119,7 +15029,7 @@
       <c r="L347" s="4"/>
     </row>
     <row r="348" ht="12.75" customHeight="1">
-      <c r="A348" s="45" t="s">
+      <c r="A348" s="32" t="s">
         <v>835</v>
       </c>
       <c r="B348" s="2"/>
@@ -15139,13 +15049,13 @@
         <f>A345+1</f>
         <v>250</v>
       </c>
-      <c r="B349" s="46" t="s">
+      <c r="B349" s="19" t="s">
         <v>836</v>
       </c>
       <c r="C349" s="19" t="s">
         <v>837</v>
       </c>
-      <c r="D349" s="31" t="s">
+      <c r="D349" s="30" t="s">
         <v>838</v>
       </c>
       <c r="E349" s="19" t="s">
@@ -15157,7 +15067,7 @@
       <c r="G349" s="19"/>
       <c r="H349" s="19"/>
       <c r="I349" s="19"/>
-      <c r="J349" s="31"/>
+      <c r="J349" s="30"/>
       <c r="K349" s="11" t="s">
         <v>20</v>
       </c>
@@ -15165,10 +15075,10 @@
     </row>
     <row r="350" ht="12.75" customHeight="1">
       <c r="A350" s="19">
-        <f t="shared" ref="A350:A357" si="35">A349+1</f>
+        <f t="shared" ref="A350:A357" si="31">A349+1</f>
         <v>251</v>
       </c>
-      <c r="B350" s="46" t="s">
+      <c r="B350" s="19" t="s">
         <v>839</v>
       </c>
       <c r="C350" s="14" t="s">
@@ -15180,7 +15090,7 @@
       <c r="E350" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F350" s="46" t="s">
+      <c r="F350" s="19" t="s">
         <v>836</v>
       </c>
       <c r="G350" s="14" t="s">
@@ -15202,10 +15112,10 @@
     </row>
     <row r="351" ht="12.75" customHeight="1">
       <c r="A351" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>252</v>
       </c>
-      <c r="B351" s="46" t="s">
+      <c r="B351" s="19" t="s">
         <v>841</v>
       </c>
       <c r="C351" s="14" t="s">
@@ -15217,7 +15127,7 @@
       <c r="E351" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F351" s="46" t="s">
+      <c r="F351" s="19" t="s">
         <v>836</v>
       </c>
       <c r="G351" s="14" t="s">
@@ -15239,10 +15149,10 @@
     </row>
     <row r="352" ht="12.75" customHeight="1">
       <c r="A352" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>253</v>
       </c>
-      <c r="B352" s="46" t="s">
+      <c r="B352" s="19" t="s">
         <v>844</v>
       </c>
       <c r="C352" s="14" t="s">
@@ -15254,7 +15164,7 @@
       <c r="E352" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F352" s="46" t="s">
+      <c r="F352" s="19" t="s">
         <v>836</v>
       </c>
       <c r="G352" s="14" t="s">
@@ -15276,10 +15186,10 @@
     </row>
     <row r="353" ht="12.75" customHeight="1">
       <c r="A353" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>254</v>
       </c>
-      <c r="B353" s="46" t="s">
+      <c r="B353" s="19" t="s">
         <v>846</v>
       </c>
       <c r="C353" s="14" t="s">
@@ -15291,7 +15201,7 @@
       <c r="E353" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F353" s="46" t="s">
+      <c r="F353" s="19" t="s">
         <v>836</v>
       </c>
       <c r="G353" s="14" t="s">
@@ -15313,10 +15223,10 @@
     </row>
     <row r="354" ht="12.75" customHeight="1">
       <c r="A354" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>255</v>
       </c>
-      <c r="B354" s="46" t="s">
+      <c r="B354" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C354" s="14" t="s">
@@ -15349,10 +15259,10 @@
     </row>
     <row r="355" ht="12.75" customHeight="1">
       <c r="A355" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>256</v>
       </c>
-      <c r="B355" s="46" t="s">
+      <c r="B355" s="19" t="s">
         <v>849</v>
       </c>
       <c r="C355" s="14" t="s">
@@ -15385,10 +15295,10 @@
     </row>
     <row r="356" ht="12.75" customHeight="1">
       <c r="A356" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>257</v>
       </c>
-      <c r="B356" s="46" t="s">
+      <c r="B356" s="19" t="s">
         <v>850</v>
       </c>
       <c r="C356" s="14" t="s">
@@ -15421,13 +15331,13 @@
     </row>
     <row r="357" ht="12.75" customHeight="1">
       <c r="A357" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>258</v>
       </c>
-      <c r="B357" s="46" t="s">
+      <c r="B357" s="19" t="s">
         <v>852</v>
       </c>
-      <c r="C357" s="72" t="s">
+      <c r="C357" s="58" t="s">
         <v>573</v>
       </c>
       <c r="D357" s="15" t="s">
@@ -15500,7 +15410,7 @@
       <c r="K359" s="17"/>
     </row>
     <row r="360" ht="12.75" customHeight="1">
-      <c r="A360" s="45" t="s">
+      <c r="A360" s="32" t="s">
         <v>853</v>
       </c>
       <c r="B360" s="2"/>
@@ -15519,13 +15429,13 @@
         <f>A357+1</f>
         <v>259</v>
       </c>
-      <c r="B361" s="46" t="s">
+      <c r="B361" s="19" t="s">
         <v>854</v>
       </c>
       <c r="C361" s="19" t="s">
         <v>855</v>
       </c>
-      <c r="D361" s="31" t="s">
+      <c r="D361" s="30" t="s">
         <v>856</v>
       </c>
       <c r="E361" s="19" t="s">
@@ -15537,17 +15447,17 @@
       <c r="G361" s="19"/>
       <c r="H361" s="19"/>
       <c r="I361" s="19"/>
-      <c r="J361" s="31"/>
+      <c r="J361" s="30"/>
       <c r="K361" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="362" ht="12.75" customHeight="1">
       <c r="A362" s="19">
-        <f t="shared" ref="A362:A368" si="36">A361+1</f>
+        <f t="shared" ref="A362:A368" si="32">A361+1</f>
         <v>260</v>
       </c>
-      <c r="B362" s="46" t="s">
+      <c r="B362" s="19" t="s">
         <v>857</v>
       </c>
       <c r="C362" s="14" t="s">
@@ -15559,7 +15469,7 @@
       <c r="E362" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F362" s="46" t="s">
+      <c r="F362" s="19" t="s">
         <v>854</v>
       </c>
       <c r="G362" s="14" t="s">
@@ -15580,10 +15490,10 @@
     </row>
     <row r="363">
       <c r="A363" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>261</v>
       </c>
-      <c r="B363" s="46" t="s">
+      <c r="B363" s="19" t="s">
         <v>858</v>
       </c>
       <c r="C363" s="14" t="s">
@@ -15595,7 +15505,7 @@
       <c r="E363" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F363" s="46" t="s">
+      <c r="F363" s="19" t="s">
         <v>854</v>
       </c>
       <c r="G363" s="14" t="s">
@@ -15616,10 +15526,10 @@
     </row>
     <row r="364" ht="12.75" customHeight="1">
       <c r="A364" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>262</v>
       </c>
-      <c r="B364" s="46" t="s">
+      <c r="B364" s="19" t="s">
         <v>859</v>
       </c>
       <c r="C364" s="14" t="s">
@@ -15631,7 +15541,7 @@
       <c r="E364" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F364" s="46" t="s">
+      <c r="F364" s="19" t="s">
         <v>854</v>
       </c>
       <c r="G364" s="14" t="s">
@@ -15652,10 +15562,10 @@
     </row>
     <row r="365" ht="12.75" customHeight="1">
       <c r="A365" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>263</v>
       </c>
-      <c r="B365" s="46" t="s">
+      <c r="B365" s="19" t="s">
         <v>860</v>
       </c>
       <c r="C365" s="14" t="s">
@@ -15667,7 +15577,7 @@
       <c r="E365" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F365" s="46" t="s">
+      <c r="F365" s="19" t="s">
         <v>854</v>
       </c>
       <c r="G365" s="14" t="s">
@@ -15688,10 +15598,10 @@
     </row>
     <row r="366" ht="12.75" customHeight="1">
       <c r="A366" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>264</v>
       </c>
-      <c r="B366" s="46" t="s">
+      <c r="B366" s="19" t="s">
         <v>861</v>
       </c>
       <c r="C366" s="14" t="s">
@@ -15724,10 +15634,10 @@
     </row>
     <row r="367" ht="12.75" customHeight="1">
       <c r="A367" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>265</v>
       </c>
-      <c r="B367" s="46" t="s">
+      <c r="B367" s="19" t="s">
         <v>863</v>
       </c>
       <c r="C367" s="14" t="s">
@@ -15760,10 +15670,10 @@
     </row>
     <row r="368" ht="12.75" customHeight="1">
       <c r="A368" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>266</v>
       </c>
-      <c r="B368" s="46" t="s">
+      <c r="B368" s="19" t="s">
         <v>865</v>
       </c>
       <c r="C368" s="14" t="s">
@@ -15790,7 +15700,7 @@
       <c r="J368" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="K368" s="73" t="s">
+      <c r="K368" s="59" t="s">
         <v>442</v>
       </c>
     </row>
@@ -15839,7 +15749,7 @@
       <c r="K370" s="17"/>
     </row>
     <row r="371" ht="12.75" customHeight="1">
-      <c r="A371" s="74" t="s">
+      <c r="A371" s="13" t="s">
         <v>868</v>
       </c>
       <c r="B371" s="2"/>
@@ -15854,33 +15764,33 @@
       <c r="K371" s="8"/>
     </row>
     <row r="372">
-      <c r="A372" s="75">
+      <c r="A372" s="22">
         <f>A368+1</f>
         <v>267</v>
       </c>
-      <c r="B372" s="76" t="s">
+      <c r="B372" s="22" t="s">
         <v>869</v>
       </c>
-      <c r="C372" s="77" t="s">
+      <c r="C372" s="55" t="s">
         <v>870</v>
       </c>
-      <c r="D372" s="78" t="s">
+      <c r="D372" s="60" t="s">
         <v>871</v>
       </c>
-      <c r="E372" s="77" t="s">
+      <c r="E372" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F372" s="68" t="s">
+      <c r="F372" s="55" t="s">
         <v>802</v>
       </c>
-      <c r="G372" s="77"/>
-      <c r="H372" s="79" t="s">
+      <c r="G372" s="55"/>
+      <c r="H372" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I372" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="I372" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="J372" s="80" t="s">
+      <c r="J372" s="24" t="s">
         <v>872</v>
       </c>
       <c r="K372" s="11" t="s">
@@ -15888,661 +15798,661 @@
       </c>
     </row>
     <row r="373" ht="12.75" customHeight="1">
-      <c r="A373" s="75">
-        <f t="shared" ref="A373:A374" si="37">A372+1</f>
+      <c r="A373" s="22">
+        <f t="shared" ref="A373:A392" si="33">A372+1</f>
         <v>268</v>
       </c>
-      <c r="B373" s="76" t="s">
+      <c r="B373" s="22" t="s">
         <v>873</v>
       </c>
-      <c r="C373" s="77" t="s">
+      <c r="C373" s="55" t="s">
         <v>874</v>
       </c>
-      <c r="D373" s="81" t="s">
+      <c r="D373" s="60" t="s">
         <v>875</v>
       </c>
-      <c r="E373" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="F373" s="68" t="s">
+      <c r="E373" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F373" s="55" t="s">
         <v>869</v>
       </c>
-      <c r="G373" s="77" t="s">
+      <c r="G373" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="H373" s="79" t="s">
+      <c r="H373" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I373" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J373" s="83"/>
+      <c r="I373" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J373" s="46"/>
       <c r="K373" s="17" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="374" ht="12.75" customHeight="1">
-      <c r="A374" s="75">
-        <f t="shared" si="37"/>
+      <c r="A374" s="22">
+        <f t="shared" si="33"/>
         <v>269</v>
       </c>
-      <c r="B374" s="76" t="s">
+      <c r="B374" s="22" t="s">
         <v>876</v>
       </c>
-      <c r="C374" s="77" t="s">
+      <c r="C374" s="55" t="s">
         <v>877</v>
       </c>
-      <c r="D374" s="81" t="s">
+      <c r="D374" s="60" t="s">
         <v>878</v>
       </c>
-      <c r="E374" s="77" t="s">
+      <c r="E374" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F374" s="68" t="s">
+      <c r="F374" s="55" t="s">
         <v>869</v>
       </c>
-      <c r="G374" s="77" t="s">
+      <c r="G374" s="55" t="s">
         <v>879</v>
       </c>
-      <c r="H374" s="79" t="s">
+      <c r="H374" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I374" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="I374" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="J374" s="83"/>
+      <c r="J374" s="46"/>
       <c r="K374" s="17" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="375" ht="12.75" customHeight="1">
-      <c r="A375" s="75">
-        <f>A374+1</f>
+      <c r="A375" s="22">
+        <f t="shared" si="33"/>
         <v>270</v>
       </c>
-      <c r="B375" s="76" t="s">
+      <c r="B375" s="22" t="s">
         <v>880</v>
       </c>
-      <c r="C375" s="77" t="s">
+      <c r="C375" s="55" t="s">
         <v>626</v>
       </c>
-      <c r="D375" s="81" t="s">
+      <c r="D375" s="60" t="s">
         <v>881</v>
       </c>
-      <c r="E375" s="77" t="s">
+      <c r="E375" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F375" s="68" t="s">
+      <c r="F375" s="55" t="s">
         <v>876</v>
       </c>
-      <c r="G375" s="77"/>
-      <c r="H375" s="79" t="s">
+      <c r="G375" s="55"/>
+      <c r="H375" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I375" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J375" s="83"/>
+      <c r="I375" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J375" s="46"/>
       <c r="K375" s="17" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="376" ht="12.75" customHeight="1">
-      <c r="A376" s="75">
-        <f t="shared" ref="A376:A382" si="38">A375+1</f>
+      <c r="A376" s="22">
+        <f t="shared" si="33"/>
         <v>271</v>
       </c>
-      <c r="B376" s="76" t="s">
+      <c r="B376" s="22" t="s">
         <v>882</v>
       </c>
-      <c r="C376" s="77" t="s">
+      <c r="C376" s="55" t="s">
         <v>640</v>
       </c>
-      <c r="D376" s="81" t="s">
+      <c r="D376" s="60" t="s">
         <v>883</v>
       </c>
-      <c r="E376" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="F376" s="68" t="s">
+      <c r="E376" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F376" s="55" t="s">
         <v>880</v>
       </c>
-      <c r="G376" s="77" t="s">
+      <c r="G376" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="H376" s="79" t="s">
+      <c r="H376" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I376" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J376" s="83"/>
-      <c r="K376" s="73" t="s">
+      <c r="I376" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J376" s="46"/>
+      <c r="K376" s="59" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="377" ht="12.75" customHeight="1">
-      <c r="A377" s="75">
-        <f t="shared" si="38"/>
+      <c r="A377" s="22">
+        <f t="shared" si="33"/>
         <v>272</v>
       </c>
-      <c r="B377" s="76" t="s">
+      <c r="B377" s="22" t="s">
         <v>884</v>
       </c>
-      <c r="C377" s="84" t="s">
+      <c r="C377" s="55" t="s">
         <v>646</v>
       </c>
-      <c r="D377" s="85" t="s">
+      <c r="D377" s="60" t="s">
         <v>885</v>
       </c>
-      <c r="E377" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F377" s="68" t="s">
+      <c r="E377" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F377" s="55" t="s">
         <v>880</v>
       </c>
-      <c r="G377" s="84" t="s">
+      <c r="G377" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="H377" s="79" t="s">
+      <c r="H377" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I377" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J377" s="86"/>
-      <c r="K377" s="87"/>
+      <c r="I377" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J377" s="63"/>
+      <c r="K377" s="64"/>
     </row>
     <row r="378" ht="12.75" customHeight="1">
-      <c r="A378" s="75">
-        <f t="shared" si="38"/>
+      <c r="A378" s="22">
+        <f t="shared" si="33"/>
         <v>273</v>
       </c>
-      <c r="B378" s="76" t="s">
+      <c r="B378" s="22" t="s">
         <v>886</v>
       </c>
-      <c r="C378" s="84" t="s">
+      <c r="C378" s="55" t="s">
         <v>658</v>
       </c>
-      <c r="D378" s="85" t="s">
+      <c r="D378" s="60" t="s">
         <v>887</v>
       </c>
-      <c r="E378" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F378" s="68" t="s">
+      <c r="E378" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F378" s="55" t="s">
         <v>880</v>
       </c>
-      <c r="G378" s="84" t="s">
+      <c r="G378" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="H378" s="79" t="s">
+      <c r="H378" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I378" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J378" s="86"/>
-      <c r="K378" s="87"/>
+      <c r="I378" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J378" s="63"/>
+      <c r="K378" s="64"/>
     </row>
     <row r="379" ht="12.75" customHeight="1">
-      <c r="A379" s="75">
-        <f t="shared" si="38"/>
+      <c r="A379" s="22">
+        <f t="shared" si="33"/>
         <v>274</v>
       </c>
-      <c r="B379" s="76" t="s">
+      <c r="B379" s="22" t="s">
         <v>888</v>
       </c>
-      <c r="C379" s="84" t="s">
+      <c r="C379" s="55" t="s">
         <v>662</v>
       </c>
-      <c r="D379" s="85" t="s">
+      <c r="D379" s="60" t="s">
         <v>889</v>
       </c>
-      <c r="E379" s="84" t="s">
+      <c r="E379" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F379" s="68" t="s">
+      <c r="F379" s="55" t="s">
         <v>876</v>
       </c>
-      <c r="G379" s="84"/>
-      <c r="H379" s="79" t="s">
+      <c r="G379" s="55"/>
+      <c r="H379" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I379" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J379" s="86"/>
-      <c r="K379" s="87"/>
+      <c r="I379" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J379" s="63"/>
+      <c r="K379" s="64"/>
     </row>
     <row r="380" ht="12.75" customHeight="1">
-      <c r="A380" s="75">
-        <f t="shared" si="38"/>
+      <c r="A380" s="22">
+        <f t="shared" si="33"/>
         <v>275</v>
       </c>
-      <c r="B380" s="76" t="s">
+      <c r="B380" s="22" t="s">
         <v>890</v>
       </c>
-      <c r="C380" s="84" t="s">
+      <c r="C380" s="55" t="s">
         <v>640</v>
       </c>
-      <c r="D380" s="85" t="s">
+      <c r="D380" s="60" t="s">
         <v>883</v>
       </c>
-      <c r="E380" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F380" s="68" t="s">
+      <c r="E380" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F380" s="55" t="s">
         <v>888</v>
       </c>
-      <c r="G380" s="84" t="s">
+      <c r="G380" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="H380" s="79" t="s">
+      <c r="H380" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I380" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J380" s="86"/>
-      <c r="K380" s="87"/>
+      <c r="I380" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J380" s="63"/>
+      <c r="K380" s="64"/>
     </row>
     <row r="381" ht="12.75" customHeight="1">
-      <c r="A381" s="75">
-        <f t="shared" si="38"/>
+      <c r="A381" s="22">
+        <f t="shared" si="33"/>
         <v>276</v>
       </c>
-      <c r="B381" s="76" t="s">
+      <c r="B381" s="22" t="s">
         <v>891</v>
       </c>
-      <c r="C381" s="84" t="s">
+      <c r="C381" s="55" t="s">
         <v>646</v>
       </c>
-      <c r="D381" s="85" t="s">
+      <c r="D381" s="60" t="s">
         <v>885</v>
       </c>
-      <c r="E381" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F381" s="68" t="s">
+      <c r="E381" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F381" s="55" t="s">
         <v>888</v>
       </c>
-      <c r="G381" s="84" t="s">
+      <c r="G381" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="H381" s="79" t="s">
+      <c r="H381" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I381" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J381" s="86"/>
-      <c r="K381" s="87"/>
+      <c r="I381" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J381" s="63"/>
+      <c r="K381" s="64"/>
     </row>
     <row r="382" ht="12.75" customHeight="1">
-      <c r="A382" s="75">
-        <f t="shared" si="38"/>
+      <c r="A382" s="22">
+        <f t="shared" si="33"/>
         <v>277</v>
       </c>
-      <c r="B382" s="76" t="s">
+      <c r="B382" s="22" t="s">
         <v>892</v>
       </c>
-      <c r="C382" s="84" t="s">
+      <c r="C382" s="55" t="s">
         <v>677</v>
       </c>
-      <c r="D382" s="85" t="s">
+      <c r="D382" s="60" t="s">
         <v>893</v>
       </c>
-      <c r="E382" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F382" s="68" t="s">
+      <c r="E382" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F382" s="55" t="s">
         <v>888</v>
       </c>
-      <c r="G382" s="84" t="s">
+      <c r="G382" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="H382" s="79" t="s">
+      <c r="H382" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I382" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J382" s="86"/>
-      <c r="K382" s="87"/>
+      <c r="I382" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J382" s="63"/>
+      <c r="K382" s="64"/>
     </row>
     <row r="383" ht="12.75" customHeight="1">
-      <c r="A383" s="75">
-        <f>A382+1</f>
+      <c r="A383" s="22">
+        <f t="shared" si="33"/>
         <v>278</v>
       </c>
-      <c r="B383" s="76" t="s">
+      <c r="B383" s="22" t="s">
         <v>894</v>
       </c>
-      <c r="C383" s="77" t="s">
+      <c r="C383" s="55" t="s">
         <v>680</v>
       </c>
-      <c r="D383" s="81" t="s">
+      <c r="D383" s="60" t="s">
         <v>895</v>
       </c>
-      <c r="E383" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="F383" s="68" t="s">
+      <c r="E383" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F383" s="55" t="s">
         <v>876</v>
       </c>
-      <c r="G383" s="77" t="s">
+      <c r="G383" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="H383" s="79" t="s">
+      <c r="H383" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I383" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J383" s="83"/>
-      <c r="K383" s="87"/>
+      <c r="I383" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J383" s="46"/>
+      <c r="K383" s="64"/>
     </row>
     <row r="384" ht="12.75" customHeight="1">
-      <c r="A384" s="75">
-        <f t="shared" ref="A384:A385" si="39">A383+1</f>
+      <c r="A384" s="22">
+        <f t="shared" si="33"/>
         <v>279</v>
       </c>
-      <c r="B384" s="76" t="s">
+      <c r="B384" s="22" t="s">
         <v>896</v>
       </c>
-      <c r="C384" s="77" t="s">
+      <c r="C384" s="55" t="s">
         <v>744</v>
       </c>
-      <c r="D384" s="81" t="s">
+      <c r="D384" s="60" t="s">
         <v>897</v>
       </c>
-      <c r="E384" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="F384" s="68" t="s">
+      <c r="E384" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F384" s="55" t="s">
         <v>876</v>
       </c>
-      <c r="G384" s="77" t="s">
+      <c r="G384" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="H384" s="79" t="s">
+      <c r="H384" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I384" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J384" s="83"/>
-      <c r="K384" s="87"/>
+      <c r="I384" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J384" s="46"/>
+      <c r="K384" s="64"/>
     </row>
     <row r="385" ht="12.75" customHeight="1">
-      <c r="A385" s="75">
-        <f t="shared" si="39"/>
+      <c r="A385" s="22">
+        <f t="shared" si="33"/>
         <v>280</v>
       </c>
-      <c r="B385" s="76" t="s">
+      <c r="B385" s="22" t="s">
         <v>898</v>
       </c>
-      <c r="C385" s="77" t="s">
+      <c r="C385" s="55" t="s">
         <v>747</v>
       </c>
-      <c r="D385" s="81" t="s">
+      <c r="D385" s="60" t="s">
         <v>899</v>
       </c>
-      <c r="E385" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="F385" s="68" t="s">
+      <c r="E385" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F385" s="55" t="s">
         <v>876</v>
       </c>
-      <c r="G385" s="77" t="s">
+      <c r="G385" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="H385" s="79" t="s">
+      <c r="H385" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I385" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J385" s="83"/>
-      <c r="K385" s="87"/>
+      <c r="I385" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J385" s="46"/>
+      <c r="K385" s="64"/>
     </row>
     <row r="386" ht="12.75" customHeight="1">
-      <c r="A386" s="75">
-        <f>A385+1</f>
+      <c r="A386" s="22">
+        <f t="shared" si="33"/>
         <v>281</v>
       </c>
-      <c r="B386" s="76" t="s">
+      <c r="B386" s="22" t="s">
         <v>900</v>
       </c>
-      <c r="C386" s="84" t="s">
+      <c r="C386" s="55" t="s">
         <v>684</v>
       </c>
-      <c r="D386" s="85" t="s">
+      <c r="D386" s="60" t="s">
         <v>901</v>
       </c>
-      <c r="E386" s="84" t="s">
+      <c r="E386" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F386" s="68" t="s">
+      <c r="F386" s="55" t="s">
         <v>869</v>
       </c>
-      <c r="G386" s="84"/>
-      <c r="H386" s="79" t="s">
+      <c r="G386" s="55"/>
+      <c r="H386" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I386" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="I386" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="J386" s="86"/>
-      <c r="K386" s="87"/>
+      <c r="J386" s="63"/>
+      <c r="K386" s="64"/>
     </row>
     <row r="387" ht="12.75" customHeight="1">
-      <c r="A387" s="75">
-        <f t="shared" ref="A387:A391" si="40">A386+1</f>
+      <c r="A387" s="22">
+        <f t="shared" si="33"/>
         <v>282</v>
       </c>
-      <c r="B387" s="76" t="s">
+      <c r="B387" s="22" t="s">
         <v>902</v>
       </c>
-      <c r="C387" s="84" t="s">
+      <c r="C387" s="55" t="s">
         <v>640</v>
       </c>
-      <c r="D387" s="85" t="s">
+      <c r="D387" s="60" t="s">
         <v>883</v>
       </c>
-      <c r="E387" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F387" s="68" t="s">
+      <c r="E387" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F387" s="55" t="s">
         <v>900</v>
       </c>
-      <c r="G387" s="84" t="s">
+      <c r="G387" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="H387" s="79" t="s">
+      <c r="H387" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I387" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J387" s="86"/>
-      <c r="K387" s="87"/>
+      <c r="I387" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J387" s="63"/>
+      <c r="K387" s="64"/>
     </row>
     <row r="388" ht="12.75" customHeight="1">
-      <c r="A388" s="75">
-        <f t="shared" si="40"/>
+      <c r="A388" s="22">
+        <f t="shared" si="33"/>
         <v>283</v>
       </c>
-      <c r="B388" s="76" t="s">
+      <c r="B388" s="22" t="s">
         <v>903</v>
       </c>
-      <c r="C388" s="84" t="s">
+      <c r="C388" s="55" t="s">
         <v>646</v>
       </c>
-      <c r="D388" s="85" t="s">
+      <c r="D388" s="60" t="s">
         <v>885</v>
       </c>
-      <c r="E388" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F388" s="68" t="s">
+      <c r="E388" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F388" s="55" t="s">
         <v>900</v>
       </c>
-      <c r="G388" s="84" t="s">
+      <c r="G388" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="H388" s="79" t="s">
+      <c r="H388" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I388" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J388" s="86"/>
-      <c r="K388" s="87"/>
+      <c r="I388" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J388" s="63"/>
+      <c r="K388" s="64"/>
     </row>
     <row r="389" ht="12.75" customHeight="1">
-      <c r="A389" s="75">
-        <f t="shared" si="40"/>
+      <c r="A389" s="22">
+        <f t="shared" si="33"/>
         <v>284</v>
       </c>
-      <c r="B389" s="76" t="s">
+      <c r="B389" s="22" t="s">
         <v>904</v>
       </c>
-      <c r="C389" s="84" t="s">
+      <c r="C389" s="55" t="s">
         <v>699</v>
       </c>
-      <c r="D389" s="85" t="s">
+      <c r="D389" s="60" t="s">
         <v>905</v>
       </c>
-      <c r="E389" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F389" s="68" t="s">
+      <c r="E389" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F389" s="55" t="s">
         <v>900</v>
       </c>
-      <c r="G389" s="84" t="s">
+      <c r="G389" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="H389" s="79" t="s">
+      <c r="H389" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I389" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J389" s="86"/>
-      <c r="K389" s="87"/>
+      <c r="I389" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J389" s="63"/>
+      <c r="K389" s="64"/>
     </row>
     <row r="390" ht="12.75" customHeight="1">
-      <c r="A390" s="75">
-        <f t="shared" si="40"/>
+      <c r="A390" s="22">
+        <f t="shared" si="33"/>
         <v>285</v>
       </c>
-      <c r="B390" s="76" t="s">
+      <c r="B390" s="22" t="s">
         <v>906</v>
       </c>
-      <c r="C390" s="84" t="s">
+      <c r="C390" s="55" t="s">
         <v>744</v>
       </c>
-      <c r="D390" s="85" t="s">
+      <c r="D390" s="60" t="s">
         <v>897</v>
       </c>
-      <c r="E390" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F390" s="68" t="s">
+      <c r="E390" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F390" s="55" t="s">
         <v>900</v>
       </c>
-      <c r="G390" s="84" t="s">
+      <c r="G390" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="H390" s="79" t="s">
+      <c r="H390" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I390" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J390" s="86"/>
-      <c r="K390" s="87"/>
+      <c r="I390" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J390" s="63"/>
+      <c r="K390" s="64"/>
     </row>
     <row r="391" ht="12.75" customHeight="1">
-      <c r="A391" s="75">
-        <f t="shared" si="40"/>
+      <c r="A391" s="22">
+        <f t="shared" si="33"/>
         <v>286</v>
       </c>
-      <c r="B391" s="76" t="s">
+      <c r="B391" s="22" t="s">
         <v>907</v>
       </c>
-      <c r="C391" s="84" t="s">
+      <c r="C391" s="55" t="s">
         <v>747</v>
       </c>
-      <c r="D391" s="85" t="s">
+      <c r="D391" s="60" t="s">
         <v>908</v>
       </c>
-      <c r="E391" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F391" s="68" t="s">
+      <c r="E391" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F391" s="55" t="s">
         <v>900</v>
       </c>
-      <c r="G391" s="84" t="s">
+      <c r="G391" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="H391" s="79" t="s">
+      <c r="H391" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="I391" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J391" s="86"/>
-      <c r="K391" s="87"/>
+      <c r="I391" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J391" s="63"/>
+      <c r="K391" s="64"/>
     </row>
     <row r="392" ht="12.75" customHeight="1">
-      <c r="A392" s="75">
-        <f>A391+1</f>
+      <c r="A392" s="22">
+        <f t="shared" si="33"/>
         <v>287</v>
       </c>
-      <c r="B392" s="76" t="s">
+      <c r="B392" s="22" t="s">
         <v>909</v>
       </c>
-      <c r="C392" s="68" t="s">
+      <c r="C392" s="55" t="s">
         <v>910</v>
       </c>
-      <c r="D392" s="78" t="s">
+      <c r="D392" s="60" t="s">
         <v>911</v>
       </c>
-      <c r="E392" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F392" s="68" t="s">
+      <c r="E392" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F392" s="55" t="s">
         <v>802</v>
       </c>
-      <c r="G392" s="84" t="s">
+      <c r="G392" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="H392" s="88" t="s">
+      <c r="H392" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I392" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="I392" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="J392" s="89" t="s">
+      <c r="J392" s="63" t="s">
         <v>912</v>
       </c>
-      <c r="K392" s="90"/>
+      <c r="K392" s="65"/>
     </row>
     <row r="393" ht="12.75" customHeight="1">
       <c r="A393" s="19"/>
-      <c r="B393" s="46"/>
-      <c r="C393" s="47"/>
-      <c r="D393" s="47"/>
-      <c r="E393" s="47"/>
-      <c r="F393" s="47"/>
-      <c r="G393" s="47"/>
-      <c r="H393" s="47"/>
-      <c r="I393" s="47"/>
-      <c r="J393" s="47"/>
-      <c r="K393" s="73"/>
+      <c r="B393" s="19"/>
+      <c r="C393" s="44"/>
+      <c r="D393" s="44"/>
+      <c r="E393" s="44"/>
+      <c r="F393" s="44"/>
+      <c r="G393" s="44"/>
+      <c r="H393" s="44"/>
+      <c r="I393" s="44"/>
+      <c r="J393" s="44"/>
+      <c r="K393" s="59"/>
     </row>
     <row r="394" ht="12.75" customHeight="1">
       <c r="A394" s="9" t="s">
@@ -16573,10 +16483,10 @@
       <c r="J394" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K394" s="73"/>
+      <c r="K394" s="59"/>
     </row>
     <row r="395" ht="12.75" customHeight="1">
-      <c r="A395" s="33" t="s">
+      <c r="A395" s="32" t="s">
         <v>913</v>
       </c>
       <c r="B395" s="2"/>
@@ -16601,7 +16511,7 @@
       <c r="C396" s="19" t="s">
         <v>915</v>
       </c>
-      <c r="D396" s="31" t="s">
+      <c r="D396" s="30" t="s">
         <v>916</v>
       </c>
       <c r="E396" s="19" t="s">
@@ -16612,10 +16522,10 @@
       </c>
       <c r="G396" s="19"/>
       <c r="H396" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I396" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="I396" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="J396" s="15"/>
       <c r="K396" s="11" t="s">
@@ -16624,7 +16534,7 @@
     </row>
     <row r="397" ht="12.75" customHeight="1">
       <c r="A397" s="19">
-        <f t="shared" ref="A397:A400" si="41">A396+1</f>
+        <f t="shared" ref="A397:A400" si="34">A396+1</f>
         <v>289</v>
       </c>
       <c r="B397" s="19" t="s">
@@ -16658,7 +16568,7 @@
     </row>
     <row r="398" ht="12.75" customHeight="1">
       <c r="A398" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>290</v>
       </c>
       <c r="B398" s="19" t="s">
@@ -16694,7 +16604,7 @@
     </row>
     <row r="399" ht="12.75" customHeight="1">
       <c r="A399" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>291</v>
       </c>
       <c r="B399" s="19" t="s">
@@ -16728,7 +16638,7 @@
     </row>
     <row r="400" ht="12.75" customHeight="1">
       <c r="A400" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>292</v>
       </c>
       <c r="B400" s="19" t="s">
@@ -16807,7 +16717,7 @@
       <c r="K402" s="17"/>
     </row>
     <row r="403" ht="12.75" customHeight="1">
-      <c r="A403" s="33" t="s">
+      <c r="A403" s="32" t="s">
         <v>929</v>
       </c>
       <c r="B403" s="2"/>
@@ -16832,7 +16742,7 @@
       <c r="C404" s="19" t="s">
         <v>931</v>
       </c>
-      <c r="D404" s="31" t="s">
+      <c r="D404" s="30" t="s">
         <v>932</v>
       </c>
       <c r="E404" s="19" t="s">
@@ -16843,19 +16753,19 @@
       </c>
       <c r="G404" s="19"/>
       <c r="H404" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I404" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I404" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J404" s="31"/>
+      <c r="J404" s="30"/>
       <c r="K404" s="11" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="405" ht="12.75" customHeight="1">
       <c r="A405" s="19">
-        <f t="shared" ref="A405:A412" si="42">A404+1</f>
+        <f t="shared" ref="A405:A412" si="35">A404+1</f>
         <v>294</v>
       </c>
       <c r="B405" s="19" t="s">
@@ -16889,7 +16799,7 @@
     </row>
     <row r="406" ht="12.75" customHeight="1">
       <c r="A406" s="19">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>295</v>
       </c>
       <c r="B406" s="19" t="s">
@@ -16925,7 +16835,7 @@
     </row>
     <row r="407" ht="12.75" customHeight="1">
       <c r="A407" s="19">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>296</v>
       </c>
       <c r="B407" s="19" t="s">
@@ -16938,7 +16848,7 @@
         <v>941</v>
       </c>
       <c r="E407" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F407" s="14" t="s">
         <v>930</v>
@@ -16961,7 +16871,7 @@
     </row>
     <row r="408" ht="12.75" customHeight="1">
       <c r="A408" s="19">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>297</v>
       </c>
       <c r="B408" s="19" t="s">
@@ -16974,7 +16884,7 @@
         <v>944</v>
       </c>
       <c r="E408" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F408" s="14" t="s">
         <v>930</v>
@@ -16997,7 +16907,7 @@
     </row>
     <row r="409" ht="12.75" customHeight="1">
       <c r="A409" s="19">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>298</v>
       </c>
       <c r="B409" s="19" t="s">
@@ -17031,7 +16941,7 @@
     </row>
     <row r="410" ht="12.75" customHeight="1">
       <c r="A410" s="19">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>299</v>
       </c>
       <c r="B410" s="19" t="s">
@@ -17065,7 +16975,7 @@
     </row>
     <row r="411" ht="12.75" customHeight="1">
       <c r="A411" s="19">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>300</v>
       </c>
       <c r="B411" s="19" t="s">
@@ -17099,7 +17009,7 @@
     </row>
     <row r="412" ht="12.75" customHeight="1">
       <c r="A412" s="19">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>301</v>
       </c>
       <c r="B412" s="19" t="s">
@@ -17176,7 +17086,7 @@
       <c r="K414" s="17"/>
     </row>
     <row r="415" ht="12.75" customHeight="1">
-      <c r="A415" s="33" t="s">
+      <c r="A415" s="32" t="s">
         <v>963</v>
       </c>
       <c r="B415" s="2"/>
@@ -17201,7 +17111,7 @@
       <c r="C416" s="19" t="s">
         <v>965</v>
       </c>
-      <c r="D416" s="31" t="s">
+      <c r="D416" s="30" t="s">
         <v>966</v>
       </c>
       <c r="E416" s="19" t="s">
@@ -17215,7 +17125,7 @@
         <v>317</v>
       </c>
       <c r="I416" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J416" s="15" t="s">
         <v>967</v>
@@ -17226,17 +17136,17 @@
     </row>
     <row r="417" ht="12.75" customHeight="1">
       <c r="A417" s="19">
-        <f t="shared" ref="A417:A426" si="43">A416+1</f>
+        <f t="shared" ref="A417:A426" si="36">A416+1</f>
         <v>303</v>
       </c>
       <c r="B417" s="19" t="s">
         <v>968</v>
       </c>
       <c r="C417" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D417" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="D417" s="15" t="s">
-        <v>174</v>
       </c>
       <c r="E417" s="14" t="s">
         <v>24</v>
@@ -17245,7 +17155,7 @@
         <v>964</v>
       </c>
       <c r="G417" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H417" s="16">
         <v>44927.0</v>
@@ -17260,17 +17170,17 @@
     </row>
     <row r="418" ht="12.75" customHeight="1">
       <c r="A418" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>304</v>
       </c>
       <c r="B418" s="19" t="s">
         <v>969</v>
       </c>
       <c r="C418" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D418" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="D418" s="15" t="s">
-        <v>177</v>
       </c>
       <c r="E418" s="14" t="s">
         <v>24</v>
@@ -17279,7 +17189,7 @@
         <v>964</v>
       </c>
       <c r="G418" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H418" s="16">
         <v>44927.0</v>
@@ -17294,17 +17204,17 @@
     </row>
     <row r="419" ht="12.75" customHeight="1">
       <c r="A419" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>305</v>
       </c>
       <c r="B419" s="19" t="s">
         <v>970</v>
       </c>
       <c r="C419" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D419" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="D419" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="E419" s="14" t="s">
         <v>24</v>
@@ -17313,13 +17223,13 @@
         <v>964</v>
       </c>
       <c r="G419" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H419" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I419" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I419" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J419" s="17"/>
       <c r="K419" s="17" t="s">
@@ -17328,17 +17238,17 @@
     </row>
     <row r="420" ht="12.75" customHeight="1">
       <c r="A420" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>306</v>
       </c>
       <c r="B420" s="19" t="s">
         <v>971</v>
       </c>
       <c r="C420" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D420" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="D420" s="15" t="s">
-        <v>183</v>
       </c>
       <c r="E420" s="14" t="s">
         <v>24</v>
@@ -17347,7 +17257,7 @@
         <v>964</v>
       </c>
       <c r="G420" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H420" s="16">
         <v>44927.0</v>
@@ -17362,17 +17272,17 @@
     </row>
     <row r="421" ht="12.75" customHeight="1">
       <c r="A421" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>307</v>
       </c>
       <c r="B421" s="19" t="s">
         <v>972</v>
       </c>
       <c r="C421" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D421" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="D421" s="15" t="s">
-        <v>186</v>
       </c>
       <c r="E421" s="14" t="s">
         <v>24</v>
@@ -17381,7 +17291,7 @@
         <v>964</v>
       </c>
       <c r="G421" s="14" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="H421" s="16">
         <v>44927.0</v>
@@ -17396,17 +17306,17 @@
     </row>
     <row r="422" ht="12.75" customHeight="1">
       <c r="A422" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>308</v>
       </c>
       <c r="B422" s="19" t="s">
         <v>973</v>
       </c>
       <c r="C422" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D422" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="D422" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="E422" s="14" t="s">
         <v>24</v>
@@ -17415,7 +17325,7 @@
         <v>964</v>
       </c>
       <c r="G422" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H422" s="16">
         <v>44927.0</v>
@@ -17430,17 +17340,17 @@
     </row>
     <row r="423" ht="12.75" customHeight="1">
       <c r="A423" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>309</v>
       </c>
       <c r="B423" s="19" t="s">
         <v>974</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D423" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E423" s="14" t="s">
         <v>24</v>
@@ -17449,7 +17359,7 @@
         <v>964</v>
       </c>
       <c r="G423" s="14" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="H423" s="16">
         <v>44927.0</v>
@@ -17458,7 +17368,7 @@
         <v>19</v>
       </c>
       <c r="J423" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K423" s="17" t="s">
         <v>975</v>
@@ -17466,7 +17376,7 @@
     </row>
     <row r="424" ht="12.75" customHeight="1">
       <c r="A424" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>310</v>
       </c>
       <c r="B424" s="19" t="s">
@@ -17500,7 +17410,7 @@
     </row>
     <row r="425" ht="12.75" customHeight="1">
       <c r="A425" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>311</v>
       </c>
       <c r="B425" s="19" t="s">
@@ -17522,10 +17432,10 @@
         <v>201</v>
       </c>
       <c r="H425" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I425" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I425" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J425" s="17"/>
       <c r="K425" s="17" t="s">
@@ -17534,7 +17444,7 @@
     </row>
     <row r="426" ht="12.75" customHeight="1">
       <c r="A426" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>312</v>
       </c>
       <c r="B426" s="19" t="s">
@@ -17553,13 +17463,13 @@
         <v>964</v>
       </c>
       <c r="G426" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H426" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I426" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I426" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J426" s="17"/>
       <c r="K426" s="17" t="s">
@@ -17611,7 +17521,7 @@
       <c r="K428" s="17"/>
     </row>
     <row r="429" ht="12.75" customHeight="1">
-      <c r="A429" s="33" t="s">
+      <c r="A429" s="32" t="s">
         <v>980</v>
       </c>
       <c r="B429" s="2"/>
@@ -17636,7 +17546,7 @@
       <c r="C430" s="19" t="s">
         <v>982</v>
       </c>
-      <c r="D430" s="31" t="s">
+      <c r="D430" s="30" t="s">
         <v>983</v>
       </c>
       <c r="E430" s="19" t="s">
@@ -17647,12 +17557,12 @@
       </c>
       <c r="G430" s="19"/>
       <c r="H430" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I430" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I430" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J430" s="31"/>
+      <c r="J430" s="30"/>
       <c r="K430" s="11" t="s">
         <v>20</v>
       </c>
@@ -17692,7 +17602,7 @@
       </c>
     </row>
     <row r="432" ht="12.75" customHeight="1">
-      <c r="A432" s="33"/>
+      <c r="A432" s="32"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -17736,7 +17646,7 @@
       <c r="K433" s="17"/>
     </row>
     <row r="434" ht="12.75" customHeight="1">
-      <c r="A434" s="33" t="s">
+      <c r="A434" s="32" t="s">
         <v>989</v>
       </c>
       <c r="B434" s="2"/>
@@ -17761,7 +17671,7 @@
       <c r="C435" s="19" t="s">
         <v>991</v>
       </c>
-      <c r="D435" s="31" t="s">
+      <c r="D435" s="30" t="s">
         <v>992</v>
       </c>
       <c r="E435" s="19" t="s">
@@ -17772,10 +17682,10 @@
       </c>
       <c r="G435" s="19"/>
       <c r="H435" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I435" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="I435" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="J435" s="15"/>
       <c r="K435" s="11" t="s">
@@ -17784,14 +17694,14 @@
     </row>
     <row r="436" ht="12.75" customHeight="1">
       <c r="A436" s="19">
-        <f t="shared" ref="A436:A437" si="44">A435+1</f>
+        <f t="shared" ref="A436:A437" si="37">A435+1</f>
         <v>316</v>
       </c>
       <c r="B436" s="19" t="s">
         <v>993</v>
       </c>
       <c r="C436" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D436" s="15" t="s">
         <v>994</v>
@@ -17803,7 +17713,7 @@
         <v>990</v>
       </c>
       <c r="G436" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H436" s="16">
         <v>44927.0</v>
@@ -17815,12 +17725,12 @@
         <v>330</v>
       </c>
       <c r="K436" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="437" ht="12.75" customHeight="1">
       <c r="A437" s="19">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>317</v>
       </c>
       <c r="B437" s="19" t="s">
@@ -17899,7 +17809,7 @@
       <c r="K439" s="17"/>
     </row>
     <row r="440" ht="12.75" customHeight="1">
-      <c r="A440" s="33" t="s">
+      <c r="A440" s="32" t="s">
         <v>997</v>
       </c>
       <c r="B440" s="2"/>
@@ -17924,7 +17834,7 @@
       <c r="C441" s="19" t="s">
         <v>999</v>
       </c>
-      <c r="D441" s="31" t="s">
+      <c r="D441" s="30" t="s">
         <v>1000</v>
       </c>
       <c r="E441" s="19" t="s">
@@ -17938,9 +17848,9 @@
         <v>1001</v>
       </c>
       <c r="I441" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J441" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="J441" s="30" t="s">
         <v>1002</v>
       </c>
       <c r="K441" s="11" t="s">
@@ -17949,14 +17859,14 @@
     </row>
     <row r="442" ht="12.75" customHeight="1">
       <c r="A442" s="19">
-        <f t="shared" ref="A442:A443" si="45">A441+1</f>
+        <f t="shared" ref="A442:A443" si="38">A441+1</f>
         <v>319</v>
       </c>
       <c r="B442" s="19" t="s">
         <v>1003</v>
       </c>
       <c r="C442" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D442" s="15" t="s">
         <v>1004</v>
@@ -17968,7 +17878,7 @@
         <v>998</v>
       </c>
       <c r="G442" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H442" s="16">
         <v>44927.0</v>
@@ -17977,15 +17887,15 @@
         <v>19</v>
       </c>
       <c r="J442" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K442" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="443" ht="12.75" customHeight="1">
       <c r="A443" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>320</v>
       </c>
       <c r="B443" s="19" t="s">
@@ -18013,7 +17923,7 @@
         <v>19</v>
       </c>
       <c r="J443" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K443" s="17" t="s">
         <v>1007</v>
@@ -18064,7 +17974,7 @@
       <c r="K445" s="17"/>
     </row>
     <row r="446" ht="12.75" customHeight="1">
-      <c r="A446" s="33" t="s">
+      <c r="A446" s="32" t="s">
         <v>1008</v>
       </c>
       <c r="B446" s="2"/>
@@ -18087,7 +17997,7 @@
       <c r="C447" s="19" t="s">
         <v>1009</v>
       </c>
-      <c r="D447" s="31" t="s">
+      <c r="D447" s="30" t="s">
         <v>1010</v>
       </c>
       <c r="E447" s="19" t="s">
@@ -18098,19 +18008,19 @@
       </c>
       <c r="G447" s="19"/>
       <c r="H447" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I447" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I447" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J447" s="31"/>
+      <c r="J447" s="30"/>
       <c r="K447" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="448" ht="12.75" customHeight="1">
       <c r="A448" s="19">
-        <f t="shared" ref="A448:A449" si="46">A447+1</f>
+        <f t="shared" ref="A448:A449" si="39">A447+1</f>
         <v>322</v>
       </c>
       <c r="B448" s="19" t="s">
@@ -18132,10 +18042,10 @@
         <v>1014</v>
       </c>
       <c r="H448" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I448" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I448" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="J448" s="17" t="s">
         <v>1015</v>
@@ -18146,7 +18056,7 @@
     </row>
     <row r="449" ht="12.75" customHeight="1">
       <c r="A449" s="19">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>323</v>
       </c>
       <c r="B449" s="19" t="s">
@@ -18171,7 +18081,7 @@
         <v>1020</v>
       </c>
       <c r="I449" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J449" s="17"/>
       <c r="K449" s="17" t="s">
@@ -18223,7 +18133,7 @@
       <c r="K451" s="17"/>
     </row>
     <row r="452" ht="12.75" customHeight="1">
-      <c r="A452" s="33" t="s">
+      <c r="A452" s="32" t="s">
         <v>1022</v>
       </c>
       <c r="B452" s="2"/>
@@ -18248,7 +18158,7 @@
       <c r="C453" s="19" t="s">
         <v>1024</v>
       </c>
-      <c r="D453" s="31" t="s">
+      <c r="D453" s="30" t="s">
         <v>1025</v>
       </c>
       <c r="E453" s="19" t="s">
@@ -18259,26 +18169,26 @@
       </c>
       <c r="G453" s="19"/>
       <c r="H453" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I453" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I453" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J453" s="31"/>
+      <c r="J453" s="30"/>
       <c r="K453" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="454" ht="12.75" customHeight="1">
       <c r="A454" s="19">
-        <f t="shared" ref="A454:A459" si="47">A453+1</f>
+        <f t="shared" ref="A454:A459" si="40">A453+1</f>
         <v>325</v>
       </c>
       <c r="B454" s="19" t="s">
         <v>1026</v>
       </c>
       <c r="C454" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D454" s="15" t="s">
         <v>1027</v>
@@ -18290,7 +18200,7 @@
         <v>1023</v>
       </c>
       <c r="G454" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H454" s="16">
         <v>44927.0</v>
@@ -18302,12 +18212,12 @@
         <v>1028</v>
       </c>
       <c r="K454" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="455" ht="12.75" customHeight="1">
       <c r="A455" s="19">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>326</v>
       </c>
       <c r="B455" s="19" t="s">
@@ -18326,7 +18236,7 @@
         <v>1023</v>
       </c>
       <c r="G455" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H455" s="16">
         <v>44927.0</v>
@@ -18343,7 +18253,7 @@
     </row>
     <row r="456" ht="12.75" customHeight="1">
       <c r="A456" s="19">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>327</v>
       </c>
       <c r="B456" s="19" t="s">
@@ -18362,7 +18272,7 @@
         <v>1023</v>
       </c>
       <c r="G456" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H456" s="16">
         <v>44927.0</v>
@@ -18377,7 +18287,7 @@
     </row>
     <row r="457" ht="12.75" customHeight="1">
       <c r="A457" s="19">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>328</v>
       </c>
       <c r="B457" s="19" t="s">
@@ -18413,7 +18323,7 @@
     </row>
     <row r="458" ht="12.75" customHeight="1">
       <c r="A458" s="19">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>329</v>
       </c>
       <c r="B458" s="19" t="s">
@@ -18426,7 +18336,7 @@
         <v>1040</v>
       </c>
       <c r="E458" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F458" s="14" t="s">
         <v>1023</v>
@@ -18449,7 +18359,7 @@
     </row>
     <row r="459" ht="12.75" customHeight="1">
       <c r="A459" s="19">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>330</v>
       </c>
       <c r="B459" s="19" t="s">
@@ -18462,7 +18372,7 @@
         <v>1045</v>
       </c>
       <c r="E459" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F459" s="14" t="s">
         <v>1023</v>
@@ -18528,7 +18438,7 @@
       <c r="K461" s="17"/>
     </row>
     <row r="462" ht="12.75" customHeight="1">
-      <c r="A462" s="33" t="s">
+      <c r="A462" s="32" t="s">
         <v>1049</v>
       </c>
       <c r="B462" s="2"/>
@@ -18568,7 +18478,7 @@
       </c>
       <c r="I463" s="19"/>
       <c r="J463" s="19"/>
-      <c r="K463" s="91" t="s">
+      <c r="K463" s="66" t="s">
         <v>20</v>
       </c>
     </row>
@@ -18608,635 +18518,635 @@
     </row>
     <row r="465" ht="12.75" customHeight="1">
       <c r="B465" s="5"/>
-      <c r="C465" s="92"/>
-      <c r="D465" s="93"/>
+      <c r="C465" s="67"/>
+      <c r="D465" s="68"/>
       <c r="I465" s="5"/>
-      <c r="J465" s="94"/>
-      <c r="K465" s="93"/>
+      <c r="J465" s="69"/>
+      <c r="K465" s="68"/>
     </row>
     <row r="466" ht="12.75" customHeight="1">
       <c r="B466" s="5"/>
-      <c r="C466" s="92"/>
-      <c r="D466" s="93"/>
+      <c r="C466" s="67"/>
+      <c r="D466" s="68"/>
       <c r="I466" s="5"/>
-      <c r="J466" s="94"/>
-      <c r="K466" s="93"/>
+      <c r="J466" s="69"/>
+      <c r="K466" s="68"/>
     </row>
     <row r="467" ht="12.75" customHeight="1">
       <c r="B467" s="5"/>
-      <c r="C467" s="92"/>
-      <c r="D467" s="93"/>
+      <c r="C467" s="67"/>
+      <c r="D467" s="68"/>
       <c r="I467" s="5"/>
-      <c r="J467" s="94"/>
-      <c r="K467" s="93"/>
+      <c r="J467" s="69"/>
+      <c r="K467" s="68"/>
     </row>
     <row r="468" ht="12.75" customHeight="1">
       <c r="B468" s="5"/>
-      <c r="C468" s="92"/>
-      <c r="D468" s="93"/>
+      <c r="C468" s="67"/>
+      <c r="D468" s="68"/>
       <c r="I468" s="5"/>
-      <c r="J468" s="94"/>
-      <c r="K468" s="93"/>
+      <c r="J468" s="69"/>
+      <c r="K468" s="68"/>
     </row>
     <row r="469" ht="12.75" customHeight="1">
       <c r="B469" s="5"/>
-      <c r="C469" s="92"/>
-      <c r="D469" s="93"/>
+      <c r="C469" s="67"/>
+      <c r="D469" s="68"/>
       <c r="I469" s="5"/>
-      <c r="J469" s="94"/>
-      <c r="K469" s="93"/>
+      <c r="J469" s="69"/>
+      <c r="K469" s="68"/>
     </row>
     <row r="470" ht="12.75" customHeight="1">
       <c r="B470" s="5"/>
-      <c r="C470" s="92"/>
-      <c r="D470" s="93"/>
+      <c r="C470" s="67"/>
+      <c r="D470" s="68"/>
       <c r="I470" s="5"/>
-      <c r="J470" s="94"/>
-      <c r="K470" s="93"/>
+      <c r="J470" s="69"/>
+      <c r="K470" s="68"/>
     </row>
     <row r="471" ht="12.75" customHeight="1">
       <c r="B471" s="5"/>
-      <c r="C471" s="92"/>
-      <c r="D471" s="93"/>
+      <c r="C471" s="67"/>
+      <c r="D471" s="68"/>
       <c r="I471" s="5"/>
-      <c r="J471" s="94"/>
-      <c r="K471" s="93"/>
+      <c r="J471" s="69"/>
+      <c r="K471" s="68"/>
     </row>
     <row r="472" ht="12.75" customHeight="1">
       <c r="B472" s="5"/>
-      <c r="C472" s="92"/>
-      <c r="D472" s="93"/>
+      <c r="C472" s="67"/>
+      <c r="D472" s="68"/>
       <c r="I472" s="5"/>
-      <c r="J472" s="94"/>
-      <c r="K472" s="93"/>
+      <c r="J472" s="69"/>
+      <c r="K472" s="68"/>
     </row>
     <row r="473" ht="12.75" customHeight="1">
       <c r="B473" s="5"/>
-      <c r="C473" s="92"/>
-      <c r="D473" s="93"/>
+      <c r="C473" s="67"/>
+      <c r="D473" s="68"/>
       <c r="I473" s="5"/>
-      <c r="J473" s="94"/>
-      <c r="K473" s="93"/>
+      <c r="J473" s="69"/>
+      <c r="K473" s="68"/>
     </row>
     <row r="474" ht="12.75" customHeight="1">
       <c r="B474" s="5"/>
-      <c r="C474" s="92"/>
-      <c r="D474" s="93"/>
+      <c r="C474" s="67"/>
+      <c r="D474" s="68"/>
       <c r="I474" s="5"/>
-      <c r="J474" s="94"/>
-      <c r="K474" s="93"/>
+      <c r="J474" s="69"/>
+      <c r="K474" s="68"/>
     </row>
     <row r="475" ht="12.75" customHeight="1">
       <c r="B475" s="5"/>
-      <c r="C475" s="92"/>
-      <c r="D475" s="93"/>
+      <c r="C475" s="67"/>
+      <c r="D475" s="68"/>
       <c r="I475" s="5"/>
-      <c r="J475" s="94"/>
-      <c r="K475" s="93"/>
+      <c r="J475" s="69"/>
+      <c r="K475" s="68"/>
     </row>
     <row r="476" ht="12.75" customHeight="1">
       <c r="B476" s="5"/>
-      <c r="C476" s="92"/>
-      <c r="D476" s="93"/>
+      <c r="C476" s="67"/>
+      <c r="D476" s="68"/>
       <c r="I476" s="5"/>
-      <c r="J476" s="94"/>
-      <c r="K476" s="93"/>
+      <c r="J476" s="69"/>
+      <c r="K476" s="68"/>
     </row>
     <row r="477" ht="12.75" customHeight="1">
       <c r="B477" s="5"/>
-      <c r="C477" s="92"/>
-      <c r="D477" s="93"/>
+      <c r="C477" s="67"/>
+      <c r="D477" s="68"/>
       <c r="I477" s="5"/>
-      <c r="J477" s="94"/>
-      <c r="K477" s="93"/>
+      <c r="J477" s="69"/>
+      <c r="K477" s="68"/>
     </row>
     <row r="478" ht="12.75" customHeight="1">
       <c r="B478" s="5"/>
-      <c r="C478" s="92"/>
-      <c r="D478" s="93"/>
+      <c r="C478" s="67"/>
+      <c r="D478" s="68"/>
       <c r="I478" s="5"/>
-      <c r="J478" s="94"/>
-      <c r="K478" s="93"/>
+      <c r="J478" s="69"/>
+      <c r="K478" s="68"/>
     </row>
     <row r="479" ht="12.75" customHeight="1">
       <c r="B479" s="5"/>
-      <c r="C479" s="92"/>
-      <c r="D479" s="93"/>
+      <c r="C479" s="67"/>
+      <c r="D479" s="68"/>
       <c r="I479" s="5"/>
-      <c r="J479" s="94"/>
-      <c r="K479" s="93"/>
+      <c r="J479" s="69"/>
+      <c r="K479" s="68"/>
     </row>
     <row r="480" ht="12.75" customHeight="1">
       <c r="B480" s="5"/>
-      <c r="C480" s="92"/>
-      <c r="D480" s="93"/>
+      <c r="C480" s="67"/>
+      <c r="D480" s="68"/>
       <c r="I480" s="5"/>
-      <c r="J480" s="94"/>
-      <c r="K480" s="93"/>
+      <c r="J480" s="69"/>
+      <c r="K480" s="68"/>
     </row>
     <row r="481" ht="12.75" customHeight="1">
       <c r="B481" s="5"/>
-      <c r="C481" s="92"/>
-      <c r="D481" s="93"/>
+      <c r="C481" s="67"/>
+      <c r="D481" s="68"/>
       <c r="I481" s="5"/>
-      <c r="J481" s="94"/>
-      <c r="K481" s="93"/>
+      <c r="J481" s="69"/>
+      <c r="K481" s="68"/>
     </row>
     <row r="482" ht="12.75" customHeight="1">
       <c r="B482" s="5"/>
-      <c r="C482" s="92"/>
-      <c r="D482" s="93"/>
+      <c r="C482" s="67"/>
+      <c r="D482" s="68"/>
       <c r="I482" s="5"/>
-      <c r="J482" s="94"/>
-      <c r="K482" s="93"/>
+      <c r="J482" s="69"/>
+      <c r="K482" s="68"/>
     </row>
     <row r="483" ht="12.75" customHeight="1">
       <c r="B483" s="5"/>
-      <c r="C483" s="92"/>
-      <c r="D483" s="93"/>
+      <c r="C483" s="67"/>
+      <c r="D483" s="68"/>
       <c r="I483" s="5"/>
-      <c r="J483" s="94"/>
-      <c r="K483" s="93"/>
+      <c r="J483" s="69"/>
+      <c r="K483" s="68"/>
     </row>
     <row r="484" ht="12.75" customHeight="1">
       <c r="B484" s="5"/>
-      <c r="C484" s="92"/>
-      <c r="D484" s="93"/>
+      <c r="C484" s="67"/>
+      <c r="D484" s="68"/>
       <c r="I484" s="5"/>
-      <c r="J484" s="94"/>
-      <c r="K484" s="93"/>
+      <c r="J484" s="69"/>
+      <c r="K484" s="68"/>
     </row>
     <row r="485" ht="12.75" customHeight="1">
       <c r="B485" s="5"/>
-      <c r="C485" s="92"/>
-      <c r="D485" s="93"/>
+      <c r="C485" s="67"/>
+      <c r="D485" s="68"/>
       <c r="I485" s="5"/>
-      <c r="J485" s="94"/>
-      <c r="K485" s="93"/>
+      <c r="J485" s="69"/>
+      <c r="K485" s="68"/>
     </row>
     <row r="486" ht="12.75" customHeight="1">
       <c r="B486" s="5"/>
-      <c r="C486" s="92"/>
-      <c r="D486" s="93"/>
+      <c r="C486" s="67"/>
+      <c r="D486" s="68"/>
       <c r="I486" s="5"/>
-      <c r="J486" s="94"/>
-      <c r="K486" s="93"/>
+      <c r="J486" s="69"/>
+      <c r="K486" s="68"/>
     </row>
     <row r="487" ht="12.75" customHeight="1">
       <c r="B487" s="5"/>
-      <c r="C487" s="92"/>
-      <c r="D487" s="93"/>
+      <c r="C487" s="67"/>
+      <c r="D487" s="68"/>
       <c r="I487" s="5"/>
-      <c r="J487" s="94"/>
-      <c r="K487" s="93"/>
+      <c r="J487" s="69"/>
+      <c r="K487" s="68"/>
     </row>
     <row r="488" ht="12.75" customHeight="1">
       <c r="B488" s="5"/>
-      <c r="C488" s="92"/>
-      <c r="D488" s="93"/>
+      <c r="C488" s="67"/>
+      <c r="D488" s="68"/>
       <c r="I488" s="5"/>
-      <c r="J488" s="94"/>
-      <c r="K488" s="93"/>
+      <c r="J488" s="69"/>
+      <c r="K488" s="68"/>
     </row>
     <row r="489" ht="12.75" customHeight="1">
       <c r="B489" s="5"/>
-      <c r="C489" s="92"/>
-      <c r="D489" s="93"/>
+      <c r="C489" s="67"/>
+      <c r="D489" s="68"/>
       <c r="I489" s="5"/>
-      <c r="J489" s="94"/>
-      <c r="K489" s="93"/>
+      <c r="J489" s="69"/>
+      <c r="K489" s="68"/>
     </row>
     <row r="490" ht="12.75" customHeight="1">
       <c r="B490" s="5"/>
-      <c r="C490" s="92"/>
-      <c r="D490" s="93"/>
+      <c r="C490" s="67"/>
+      <c r="D490" s="68"/>
       <c r="I490" s="5"/>
-      <c r="J490" s="94"/>
-      <c r="K490" s="93"/>
+      <c r="J490" s="69"/>
+      <c r="K490" s="68"/>
     </row>
     <row r="491" ht="12.75" customHeight="1">
       <c r="B491" s="5"/>
-      <c r="C491" s="92"/>
-      <c r="D491" s="93"/>
+      <c r="C491" s="67"/>
+      <c r="D491" s="68"/>
       <c r="I491" s="5"/>
-      <c r="J491" s="94"/>
-      <c r="K491" s="93"/>
+      <c r="J491" s="69"/>
+      <c r="K491" s="68"/>
     </row>
     <row r="492" ht="12.75" customHeight="1">
       <c r="B492" s="5"/>
-      <c r="C492" s="92"/>
-      <c r="D492" s="93"/>
+      <c r="C492" s="67"/>
+      <c r="D492" s="68"/>
       <c r="I492" s="5"/>
-      <c r="J492" s="94"/>
-      <c r="K492" s="93"/>
+      <c r="J492" s="69"/>
+      <c r="K492" s="68"/>
     </row>
     <row r="493" ht="12.75" customHeight="1">
       <c r="B493" s="5"/>
-      <c r="C493" s="92"/>
-      <c r="D493" s="93"/>
+      <c r="C493" s="67"/>
+      <c r="D493" s="68"/>
       <c r="I493" s="5"/>
-      <c r="J493" s="94"/>
-      <c r="K493" s="93"/>
+      <c r="J493" s="69"/>
+      <c r="K493" s="68"/>
     </row>
     <row r="494" ht="12.75" customHeight="1">
       <c r="B494" s="5"/>
-      <c r="C494" s="92"/>
-      <c r="D494" s="93"/>
+      <c r="C494" s="67"/>
+      <c r="D494" s="68"/>
       <c r="I494" s="5"/>
-      <c r="J494" s="94"/>
-      <c r="K494" s="93"/>
+      <c r="J494" s="69"/>
+      <c r="K494" s="68"/>
     </row>
     <row r="495" ht="12.75" customHeight="1">
       <c r="B495" s="5"/>
-      <c r="C495" s="92"/>
-      <c r="D495" s="93"/>
+      <c r="C495" s="67"/>
+      <c r="D495" s="68"/>
       <c r="I495" s="5"/>
-      <c r="J495" s="94"/>
-      <c r="K495" s="93"/>
+      <c r="J495" s="69"/>
+      <c r="K495" s="68"/>
     </row>
     <row r="496" ht="12.75" customHeight="1">
       <c r="B496" s="5"/>
-      <c r="C496" s="92"/>
-      <c r="D496" s="93"/>
+      <c r="C496" s="67"/>
+      <c r="D496" s="68"/>
       <c r="I496" s="5"/>
-      <c r="J496" s="94"/>
-      <c r="K496" s="93"/>
+      <c r="J496" s="69"/>
+      <c r="K496" s="68"/>
     </row>
     <row r="497" ht="12.75" customHeight="1">
       <c r="B497" s="5"/>
-      <c r="C497" s="92"/>
-      <c r="D497" s="93"/>
+      <c r="C497" s="67"/>
+      <c r="D497" s="68"/>
       <c r="I497" s="5"/>
-      <c r="J497" s="94"/>
-      <c r="K497" s="93"/>
+      <c r="J497" s="69"/>
+      <c r="K497" s="68"/>
     </row>
     <row r="498" ht="12.75" customHeight="1">
       <c r="B498" s="5"/>
-      <c r="C498" s="92"/>
-      <c r="D498" s="93"/>
+      <c r="C498" s="67"/>
+      <c r="D498" s="68"/>
       <c r="I498" s="5"/>
-      <c r="J498" s="94"/>
-      <c r="K498" s="93"/>
+      <c r="J498" s="69"/>
+      <c r="K498" s="68"/>
     </row>
     <row r="499" ht="12.75" customHeight="1">
       <c r="B499" s="5"/>
-      <c r="C499" s="92"/>
-      <c r="D499" s="93"/>
+      <c r="C499" s="67"/>
+      <c r="D499" s="68"/>
       <c r="I499" s="5"/>
-      <c r="J499" s="94"/>
-      <c r="K499" s="93"/>
+      <c r="J499" s="69"/>
+      <c r="K499" s="68"/>
     </row>
     <row r="500" ht="12.75" customHeight="1">
       <c r="B500" s="5"/>
-      <c r="C500" s="92"/>
-      <c r="D500" s="93"/>
+      <c r="C500" s="67"/>
+      <c r="D500" s="68"/>
       <c r="I500" s="5"/>
-      <c r="J500" s="94"/>
-      <c r="K500" s="93"/>
+      <c r="J500" s="69"/>
+      <c r="K500" s="68"/>
     </row>
     <row r="501" ht="12.75" customHeight="1">
       <c r="B501" s="5"/>
-      <c r="C501" s="92"/>
-      <c r="D501" s="93"/>
+      <c r="C501" s="67"/>
+      <c r="D501" s="68"/>
       <c r="I501" s="5"/>
-      <c r="J501" s="94"/>
-      <c r="K501" s="93"/>
+      <c r="J501" s="69"/>
+      <c r="K501" s="68"/>
     </row>
     <row r="502" ht="12.75" customHeight="1">
       <c r="B502" s="5"/>
-      <c r="C502" s="92"/>
-      <c r="D502" s="93"/>
+      <c r="C502" s="67"/>
+      <c r="D502" s="68"/>
       <c r="I502" s="5"/>
-      <c r="J502" s="94"/>
-      <c r="K502" s="93"/>
+      <c r="J502" s="69"/>
+      <c r="K502" s="68"/>
     </row>
     <row r="503" ht="12.75" customHeight="1">
       <c r="B503" s="5"/>
-      <c r="C503" s="92"/>
-      <c r="D503" s="93"/>
+      <c r="C503" s="67"/>
+      <c r="D503" s="68"/>
       <c r="I503" s="5"/>
-      <c r="J503" s="94"/>
-      <c r="K503" s="93"/>
+      <c r="J503" s="69"/>
+      <c r="K503" s="68"/>
     </row>
     <row r="504" ht="12.75" customHeight="1">
       <c r="B504" s="5"/>
-      <c r="C504" s="92"/>
-      <c r="D504" s="93"/>
+      <c r="C504" s="67"/>
+      <c r="D504" s="68"/>
       <c r="I504" s="5"/>
-      <c r="J504" s="94"/>
-      <c r="K504" s="93"/>
+      <c r="J504" s="69"/>
+      <c r="K504" s="68"/>
     </row>
     <row r="505" ht="12.75" customHeight="1">
       <c r="B505" s="5"/>
-      <c r="C505" s="92"/>
-      <c r="D505" s="93"/>
+      <c r="C505" s="67"/>
+      <c r="D505" s="68"/>
       <c r="I505" s="5"/>
-      <c r="J505" s="94"/>
-      <c r="K505" s="93"/>
+      <c r="J505" s="69"/>
+      <c r="K505" s="68"/>
     </row>
     <row r="506" ht="12.75" customHeight="1">
       <c r="B506" s="5"/>
-      <c r="C506" s="92"/>
-      <c r="D506" s="93"/>
+      <c r="C506" s="67"/>
+      <c r="D506" s="68"/>
       <c r="I506" s="5"/>
-      <c r="J506" s="94"/>
-      <c r="K506" s="93"/>
+      <c r="J506" s="69"/>
+      <c r="K506" s="68"/>
     </row>
     <row r="507" ht="12.75" customHeight="1">
       <c r="B507" s="5"/>
-      <c r="C507" s="92"/>
-      <c r="D507" s="93"/>
+      <c r="C507" s="67"/>
+      <c r="D507" s="68"/>
       <c r="I507" s="5"/>
-      <c r="J507" s="94"/>
-      <c r="K507" s="93"/>
+      <c r="J507" s="69"/>
+      <c r="K507" s="68"/>
     </row>
     <row r="508" ht="12.75" customHeight="1">
       <c r="B508" s="5"/>
-      <c r="C508" s="92"/>
-      <c r="D508" s="93"/>
+      <c r="C508" s="67"/>
+      <c r="D508" s="68"/>
       <c r="I508" s="5"/>
-      <c r="J508" s="94"/>
-      <c r="K508" s="93"/>
+      <c r="J508" s="69"/>
+      <c r="K508" s="68"/>
     </row>
     <row r="509" ht="12.75" customHeight="1">
       <c r="B509" s="5"/>
-      <c r="C509" s="92"/>
-      <c r="D509" s="93"/>
+      <c r="C509" s="67"/>
+      <c r="D509" s="68"/>
       <c r="I509" s="5"/>
-      <c r="J509" s="94"/>
-      <c r="K509" s="93"/>
+      <c r="J509" s="69"/>
+      <c r="K509" s="68"/>
     </row>
     <row r="510" ht="12.75" customHeight="1">
       <c r="B510" s="5"/>
-      <c r="C510" s="92"/>
-      <c r="D510" s="93"/>
+      <c r="C510" s="67"/>
+      <c r="D510" s="68"/>
       <c r="I510" s="5"/>
-      <c r="J510" s="94"/>
-      <c r="K510" s="93"/>
+      <c r="J510" s="69"/>
+      <c r="K510" s="68"/>
     </row>
     <row r="511" ht="12.75" customHeight="1">
       <c r="B511" s="5"/>
-      <c r="C511" s="92"/>
-      <c r="D511" s="93"/>
+      <c r="C511" s="67"/>
+      <c r="D511" s="68"/>
       <c r="I511" s="5"/>
-      <c r="J511" s="94"/>
-      <c r="K511" s="93"/>
+      <c r="J511" s="69"/>
+      <c r="K511" s="68"/>
     </row>
     <row r="512" ht="12.75" customHeight="1">
       <c r="B512" s="5"/>
-      <c r="C512" s="92"/>
-      <c r="D512" s="93"/>
+      <c r="C512" s="67"/>
+      <c r="D512" s="68"/>
       <c r="I512" s="5"/>
-      <c r="J512" s="94"/>
-      <c r="K512" s="93"/>
+      <c r="J512" s="69"/>
+      <c r="K512" s="68"/>
     </row>
     <row r="513" ht="12.75" customHeight="1">
       <c r="B513" s="5"/>
-      <c r="C513" s="92"/>
-      <c r="D513" s="93"/>
+      <c r="C513" s="67"/>
+      <c r="D513" s="68"/>
       <c r="I513" s="5"/>
-      <c r="J513" s="94"/>
-      <c r="K513" s="93"/>
+      <c r="J513" s="69"/>
+      <c r="K513" s="68"/>
     </row>
     <row r="514" ht="12.75" customHeight="1">
       <c r="B514" s="5"/>
-      <c r="C514" s="92"/>
-      <c r="D514" s="93"/>
+      <c r="C514" s="67"/>
+      <c r="D514" s="68"/>
       <c r="I514" s="5"/>
-      <c r="J514" s="94"/>
-      <c r="K514" s="93"/>
+      <c r="J514" s="69"/>
+      <c r="K514" s="68"/>
     </row>
     <row r="515" ht="12.75" customHeight="1">
       <c r="B515" s="5"/>
-      <c r="C515" s="92"/>
-      <c r="D515" s="93"/>
+      <c r="C515" s="67"/>
+      <c r="D515" s="68"/>
       <c r="I515" s="5"/>
-      <c r="J515" s="94"/>
-      <c r="K515" s="93"/>
+      <c r="J515" s="69"/>
+      <c r="K515" s="68"/>
     </row>
     <row r="516" ht="12.75" customHeight="1">
       <c r="B516" s="5"/>
-      <c r="C516" s="92"/>
-      <c r="D516" s="93"/>
+      <c r="C516" s="67"/>
+      <c r="D516" s="68"/>
       <c r="I516" s="5"/>
-      <c r="J516" s="94"/>
-      <c r="K516" s="93"/>
+      <c r="J516" s="69"/>
+      <c r="K516" s="68"/>
     </row>
     <row r="517" ht="12.75" customHeight="1">
       <c r="B517" s="5"/>
-      <c r="C517" s="92"/>
-      <c r="D517" s="93"/>
+      <c r="C517" s="67"/>
+      <c r="D517" s="68"/>
       <c r="I517" s="5"/>
-      <c r="J517" s="94"/>
-      <c r="K517" s="93"/>
+      <c r="J517" s="69"/>
+      <c r="K517" s="68"/>
     </row>
     <row r="518" ht="12.75" customHeight="1">
       <c r="B518" s="5"/>
-      <c r="C518" s="92"/>
-      <c r="D518" s="93"/>
+      <c r="C518" s="67"/>
+      <c r="D518" s="68"/>
       <c r="I518" s="5"/>
-      <c r="J518" s="94"/>
-      <c r="K518" s="93"/>
+      <c r="J518" s="69"/>
+      <c r="K518" s="68"/>
     </row>
     <row r="519" ht="12.75" customHeight="1">
       <c r="B519" s="5"/>
-      <c r="C519" s="92"/>
-      <c r="D519" s="93"/>
+      <c r="C519" s="67"/>
+      <c r="D519" s="68"/>
       <c r="I519" s="5"/>
-      <c r="J519" s="94"/>
-      <c r="K519" s="93"/>
+      <c r="J519" s="69"/>
+      <c r="K519" s="68"/>
     </row>
     <row r="520" ht="12.75" customHeight="1">
       <c r="B520" s="5"/>
-      <c r="C520" s="92"/>
-      <c r="D520" s="93"/>
+      <c r="C520" s="67"/>
+      <c r="D520" s="68"/>
       <c r="I520" s="5"/>
-      <c r="J520" s="94"/>
-      <c r="K520" s="93"/>
+      <c r="J520" s="69"/>
+      <c r="K520" s="68"/>
     </row>
     <row r="521" ht="12.75" customHeight="1">
       <c r="B521" s="5"/>
-      <c r="C521" s="92"/>
-      <c r="D521" s="93"/>
+      <c r="C521" s="67"/>
+      <c r="D521" s="68"/>
       <c r="I521" s="5"/>
-      <c r="J521" s="94"/>
-      <c r="K521" s="93"/>
+      <c r="J521" s="69"/>
+      <c r="K521" s="68"/>
     </row>
     <row r="522" ht="12.75" customHeight="1">
       <c r="B522" s="5"/>
-      <c r="C522" s="92"/>
-      <c r="D522" s="93"/>
+      <c r="C522" s="67"/>
+      <c r="D522" s="68"/>
       <c r="I522" s="5"/>
-      <c r="J522" s="94"/>
-      <c r="K522" s="93"/>
+      <c r="J522" s="69"/>
+      <c r="K522" s="68"/>
     </row>
     <row r="523" ht="12.75" customHeight="1">
       <c r="B523" s="5"/>
-      <c r="C523" s="92"/>
-      <c r="D523" s="93"/>
+      <c r="C523" s="67"/>
+      <c r="D523" s="68"/>
       <c r="I523" s="5"/>
-      <c r="J523" s="94"/>
-      <c r="K523" s="93"/>
+      <c r="J523" s="69"/>
+      <c r="K523" s="68"/>
     </row>
     <row r="524" ht="12.75" customHeight="1">
       <c r="B524" s="5"/>
-      <c r="C524" s="92"/>
-      <c r="D524" s="93"/>
+      <c r="C524" s="67"/>
+      <c r="D524" s="68"/>
       <c r="I524" s="5"/>
-      <c r="J524" s="94"/>
-      <c r="K524" s="93"/>
+      <c r="J524" s="69"/>
+      <c r="K524" s="68"/>
     </row>
     <row r="525" ht="12.75" customHeight="1">
       <c r="B525" s="5"/>
-      <c r="C525" s="92"/>
-      <c r="D525" s="93"/>
+      <c r="C525" s="67"/>
+      <c r="D525" s="68"/>
       <c r="I525" s="5"/>
-      <c r="J525" s="94"/>
-      <c r="K525" s="93"/>
+      <c r="J525" s="69"/>
+      <c r="K525" s="68"/>
     </row>
     <row r="526" ht="12.75" customHeight="1">
       <c r="B526" s="5"/>
-      <c r="C526" s="92"/>
-      <c r="D526" s="93"/>
+      <c r="C526" s="67"/>
+      <c r="D526" s="68"/>
       <c r="I526" s="5"/>
-      <c r="J526" s="94"/>
-      <c r="K526" s="93"/>
+      <c r="J526" s="69"/>
+      <c r="K526" s="68"/>
     </row>
     <row r="527" ht="12.75" customHeight="1">
       <c r="B527" s="5"/>
-      <c r="C527" s="92"/>
-      <c r="D527" s="93"/>
+      <c r="C527" s="67"/>
+      <c r="D527" s="68"/>
       <c r="I527" s="5"/>
-      <c r="J527" s="94"/>
-      <c r="K527" s="93"/>
+      <c r="J527" s="69"/>
+      <c r="K527" s="68"/>
     </row>
     <row r="528" ht="12.75" customHeight="1">
       <c r="B528" s="5"/>
-      <c r="C528" s="92"/>
-      <c r="D528" s="93"/>
+      <c r="C528" s="67"/>
+      <c r="D528" s="68"/>
       <c r="I528" s="5"/>
-      <c r="J528" s="94"/>
-      <c r="K528" s="93"/>
+      <c r="J528" s="69"/>
+      <c r="K528" s="68"/>
     </row>
     <row r="529" ht="12.75" customHeight="1">
       <c r="B529" s="5"/>
-      <c r="C529" s="92"/>
-      <c r="D529" s="93"/>
+      <c r="C529" s="67"/>
+      <c r="D529" s="68"/>
       <c r="I529" s="5"/>
-      <c r="J529" s="94"/>
-      <c r="K529" s="93"/>
+      <c r="J529" s="69"/>
+      <c r="K529" s="68"/>
     </row>
     <row r="530" ht="12.75" customHeight="1">
       <c r="B530" s="5"/>
-      <c r="C530" s="92"/>
-      <c r="D530" s="93"/>
+      <c r="C530" s="67"/>
+      <c r="D530" s="68"/>
       <c r="I530" s="5"/>
-      <c r="J530" s="94"/>
-      <c r="K530" s="93"/>
+      <c r="J530" s="69"/>
+      <c r="K530" s="68"/>
     </row>
     <row r="531" ht="12.75" customHeight="1">
       <c r="B531" s="5"/>
-      <c r="C531" s="92"/>
-      <c r="D531" s="93"/>
+      <c r="C531" s="67"/>
+      <c r="D531" s="68"/>
       <c r="I531" s="5"/>
-      <c r="J531" s="94"/>
-      <c r="K531" s="93"/>
+      <c r="J531" s="69"/>
+      <c r="K531" s="68"/>
     </row>
     <row r="532" ht="12.75" customHeight="1">
       <c r="B532" s="5"/>
-      <c r="C532" s="92"/>
-      <c r="D532" s="93"/>
+      <c r="C532" s="67"/>
+      <c r="D532" s="68"/>
       <c r="I532" s="5"/>
-      <c r="J532" s="94"/>
-      <c r="K532" s="93"/>
+      <c r="J532" s="69"/>
+      <c r="K532" s="68"/>
     </row>
     <row r="533" ht="12.75" customHeight="1">
       <c r="B533" s="5"/>
-      <c r="C533" s="92"/>
-      <c r="D533" s="93"/>
+      <c r="C533" s="67"/>
+      <c r="D533" s="68"/>
       <c r="I533" s="5"/>
-      <c r="J533" s="94"/>
-      <c r="K533" s="93"/>
+      <c r="J533" s="69"/>
+      <c r="K533" s="68"/>
     </row>
     <row r="534" ht="12.75" customHeight="1">
       <c r="B534" s="5"/>
-      <c r="C534" s="92"/>
-      <c r="D534" s="93"/>
+      <c r="C534" s="67"/>
+      <c r="D534" s="68"/>
       <c r="I534" s="5"/>
-      <c r="J534" s="94"/>
-      <c r="K534" s="93"/>
+      <c r="J534" s="69"/>
+      <c r="K534" s="68"/>
     </row>
     <row r="535" ht="12.75" customHeight="1">
       <c r="B535" s="5"/>
-      <c r="C535" s="92"/>
-      <c r="D535" s="93"/>
+      <c r="C535" s="67"/>
+      <c r="D535" s="68"/>
       <c r="I535" s="5"/>
-      <c r="J535" s="94"/>
-      <c r="K535" s="93"/>
+      <c r="J535" s="69"/>
+      <c r="K535" s="68"/>
     </row>
     <row r="536" ht="12.75" customHeight="1">
       <c r="B536" s="5"/>
-      <c r="C536" s="92"/>
-      <c r="D536" s="93"/>
+      <c r="C536" s="67"/>
+      <c r="D536" s="68"/>
       <c r="I536" s="5"/>
-      <c r="J536" s="94"/>
-      <c r="K536" s="93"/>
+      <c r="J536" s="69"/>
+      <c r="K536" s="68"/>
     </row>
     <row r="537" ht="12.75" customHeight="1">
       <c r="B537" s="5"/>
-      <c r="C537" s="92"/>
-      <c r="D537" s="93"/>
+      <c r="C537" s="67"/>
+      <c r="D537" s="68"/>
       <c r="I537" s="5"/>
-      <c r="J537" s="94"/>
-      <c r="K537" s="93"/>
+      <c r="J537" s="69"/>
+      <c r="K537" s="68"/>
     </row>
     <row r="538" ht="12.75" customHeight="1">
       <c r="B538" s="5"/>
-      <c r="C538" s="92"/>
-      <c r="D538" s="93"/>
+      <c r="C538" s="67"/>
+      <c r="D538" s="68"/>
       <c r="I538" s="5"/>
-      <c r="J538" s="94"/>
-      <c r="K538" s="93"/>
+      <c r="J538" s="69"/>
+      <c r="K538" s="68"/>
     </row>
     <row r="539" ht="12.75" customHeight="1">
       <c r="B539" s="5"/>
-      <c r="C539" s="92"/>
-      <c r="D539" s="93"/>
+      <c r="C539" s="67"/>
+      <c r="D539" s="68"/>
       <c r="I539" s="5"/>
-      <c r="J539" s="94"/>
-      <c r="K539" s="93"/>
+      <c r="J539" s="69"/>
+      <c r="K539" s="68"/>
     </row>
     <row r="540" ht="12.75" customHeight="1">
       <c r="B540" s="5"/>
-      <c r="C540" s="92"/>
-      <c r="D540" s="93"/>
+      <c r="C540" s="67"/>
+      <c r="D540" s="68"/>
       <c r="I540" s="5"/>
-      <c r="J540" s="94"/>
-      <c r="K540" s="93"/>
+      <c r="J540" s="69"/>
+      <c r="K540" s="68"/>
     </row>
     <row r="541" ht="12.75" customHeight="1">
       <c r="B541" s="5"/>
-      <c r="C541" s="92"/>
-      <c r="D541" s="93"/>
+      <c r="C541" s="67"/>
+      <c r="D541" s="68"/>
       <c r="I541" s="5"/>
-      <c r="J541" s="94"/>
-      <c r="K541" s="93"/>
+      <c r="J541" s="69"/>
+      <c r="K541" s="68"/>
     </row>
     <row r="542" ht="12.75" customHeight="1">
       <c r="B542" s="5"/>
-      <c r="C542" s="92"/>
-      <c r="D542" s="93"/>
+      <c r="C542" s="67"/>
+      <c r="D542" s="68"/>
       <c r="I542" s="5"/>
-      <c r="J542" s="94"/>
-      <c r="K542" s="93"/>
+      <c r="J542" s="69"/>
+      <c r="K542" s="68"/>
     </row>
     <row r="543" ht="12.75" customHeight="1">
       <c r="B543" s="5"/>
-      <c r="C543" s="92"/>
-      <c r="D543" s="93"/>
+      <c r="C543" s="67"/>
+      <c r="D543" s="68"/>
       <c r="I543" s="5"/>
-      <c r="J543" s="94"/>
-      <c r="K543" s="93"/>
+      <c r="J543" s="69"/>
+      <c r="K543" s="68"/>
     </row>
     <row r="544" ht="15.75" customHeight="1"/>
     <row r="545" ht="15.75" customHeight="1"/>
